--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>ФИО</t>
   </si>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,9 @@
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1219,7 +1221,9 @@
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1394,7 +1398,9 @@
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1419,7 +1425,9 @@
       <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1469,7 +1477,9 @@
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1671,7 +1681,9 @@
       <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1835,7 +1847,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2033,9 @@
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2171,7 +2185,9 @@
       <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2271,7 +2287,9 @@
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2346,7 +2364,9 @@
       <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2627,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,7 +2736,9 @@
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2766,7 +2788,9 @@
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2816,7 +2840,9 @@
       <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2841,7 +2867,9 @@
       <c r="A8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2866,7 +2894,9 @@
       <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2891,7 +2921,9 @@
       <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2968,7 +3000,9 @@
       <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2993,7 +3027,9 @@
       <c r="A14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3018,7 +3054,9 @@
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3068,7 +3106,9 @@
       <c r="A17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3093,7 +3133,9 @@
       <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3118,7 +3160,9 @@
       <c r="A19" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3218,7 +3262,9 @@
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3243,7 +3289,9 @@
       <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3318,7 +3366,9 @@
       <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3343,7 +3393,9 @@
       <c r="A28" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>ФИО</t>
   </si>
@@ -976,7 +976,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1069,9 @@
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1273,7 +1275,9 @@
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1452,7 +1456,9 @@
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1581,7 +1587,9 @@
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1631,7 +1639,9 @@
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1708,7 +1718,9 @@
       <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1733,7 +1745,9 @@
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1846,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1922,9 @@
       <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2008,7 +2024,9 @@
       <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2085,7 +2103,9 @@
       <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2135,7 +2155,9 @@
       <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2160,7 +2182,9 @@
       <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2212,7 +2236,9 @@
       <c r="A14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2491,7 +2517,9 @@
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2647,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +3344,9 @@
       <c r="A25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C9149-DEE6-4FB1-9FC1-49E722963531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -334,12 +346,15 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -686,8 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -972,28 +986,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1026,7 @@
       <c r="F1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>91</v>
       </c>
       <c r="H1" s="16" t="s">
@@ -1040,16 +1054,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="17"/>
       <c r="I2" s="13"/>
       <c r="J2" s="7"/>
@@ -1065,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1092,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="25"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="18"/>
       <c r="I3" s="14"/>
       <c r="J3" s="1"/>
@@ -1092,16 +1108,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="18"/>
       <c r="I4" s="14"/>
       <c r="J4" s="1"/>
@@ -1117,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1146,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="18"/>
       <c r="I5" s="14"/>
       <c r="J5" s="1"/>
@@ -1144,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1171,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="18"/>
       <c r="I6" s="14"/>
       <c r="J6" s="1"/>
@@ -1169,16 +1187,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="18"/>
       <c r="I7" s="14"/>
       <c r="J7" s="1"/>
@@ -1194,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1223,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="18"/>
       <c r="I8" s="14"/>
       <c r="J8" s="1"/>
@@ -1219,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1250,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="18"/>
       <c r="I9" s="14"/>
       <c r="J9" s="1"/>
@@ -1246,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1275,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="18"/>
       <c r="I10" s="14"/>
       <c r="J10" s="1"/>
@@ -1271,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1302,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="18"/>
       <c r="I11" s="14"/>
       <c r="J11" s="1"/>
@@ -1298,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1327,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="18"/>
       <c r="I12" s="14"/>
       <c r="J12" s="1"/>
@@ -1323,16 +1343,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="18"/>
       <c r="I13" s="14"/>
       <c r="J13" s="1"/>
@@ -1348,16 +1370,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="18"/>
       <c r="I14" s="14"/>
       <c r="J14" s="1"/>
@@ -1373,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1406,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="18"/>
       <c r="I15" s="14"/>
       <c r="J15" s="1"/>
@@ -1398,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +1433,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="18"/>
       <c r="I16" s="14"/>
       <c r="J16" s="1"/>
@@ -1425,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1436,7 +1460,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="18"/>
       <c r="I17" s="14"/>
       <c r="J17" s="1"/>
@@ -1452,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1487,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="18"/>
       <c r="I18" s="14"/>
       <c r="J18" s="1"/>
@@ -1479,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1514,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="18"/>
       <c r="I19" s="14"/>
       <c r="J19" s="1"/>
@@ -1506,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1541,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="18"/>
       <c r="I20" s="14"/>
       <c r="J20" s="1"/>
@@ -1533,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1566,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="18"/>
       <c r="I21" s="14"/>
       <c r="J21" s="1"/>
@@ -1558,16 +1582,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="18"/>
       <c r="I22" s="14"/>
       <c r="J22" s="1"/>
@@ -1583,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1594,7 +1620,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="25"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="18"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
@@ -1610,16 +1636,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="18"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
@@ -1635,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1646,7 +1674,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="25"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="18"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
@@ -1662,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1699,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="18"/>
       <c r="I26" s="14"/>
       <c r="J26" s="1"/>
@@ -1687,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1726,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="18"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
@@ -1714,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1725,7 +1753,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="18"/>
       <c r="I28" s="14"/>
       <c r="J28" s="1"/>
@@ -1741,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1752,7 +1780,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="25"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="18"/>
       <c r="I29" s="14"/>
       <c r="J29" s="1"/>
@@ -1768,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1777,7 +1805,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="25"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="18"/>
       <c r="I30" s="14"/>
       <c r="J30" s="1"/>
@@ -1793,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1804,7 +1832,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="18"/>
       <c r="I31" s="14"/>
       <c r="J31" s="1"/>
@@ -1820,16 +1848,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="26"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="19"/>
       <c r="I32" s="15"/>
       <c r="J32" s="4"/>
@@ -1846,8 +1876,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1857,22 +1887,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1918,7 +1948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
@@ -1945,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -1970,11 +2000,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1995,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -2020,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
@@ -2047,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
@@ -2074,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
@@ -2099,14 +2131,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2126,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
@@ -2151,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
@@ -2178,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
@@ -2205,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
@@ -2232,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>43</v>
       </c>
@@ -2259,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>44</v>
       </c>
@@ -2284,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
@@ -2309,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
@@ -2336,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
@@ -2361,11 +2395,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2386,14 +2422,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2413,11 +2451,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2438,11 +2478,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2463,11 +2505,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2488,11 +2532,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2513,13 +2559,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2540,11 +2584,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2565,106 +2611,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2672,21 +2645,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2733,14 +2706,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2760,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
@@ -2787,11 +2762,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2812,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
@@ -2839,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
@@ -2864,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
@@ -2891,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>62</v>
       </c>
@@ -2918,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
@@ -2945,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
@@ -2972,14 +2949,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2999,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
@@ -3024,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
@@ -3051,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>68</v>
       </c>
@@ -3078,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
@@ -3105,11 +3084,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3130,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>71</v>
       </c>
@@ -3157,14 +3138,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3184,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>73</v>
       </c>
@@ -3211,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>74</v>
       </c>
@@ -3236,11 +3219,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3261,11 +3246,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3286,14 +3273,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3313,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
@@ -3340,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>79</v>
       </c>
@@ -3367,11 +3356,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3392,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
@@ -3419,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>82</v>
       </c>
@@ -3446,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>83</v>
       </c>
@@ -3471,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>84</v>
       </c>
@@ -3496,60 +3487,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="20"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="20"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C9149-DEE6-4FB1-9FC1-49E722963531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,28 +985,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1557,11 +1556,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1582,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
@@ -1875,9 +1876,55 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>COUNT(C4:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:M33" si="2">COUNT(D4:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1887,21 +1934,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
@@ -1975,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -2000,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
@@ -2027,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -2052,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
@@ -2079,14 +2126,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2106,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
@@ -2160,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
@@ -2185,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
@@ -2212,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
@@ -2239,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
@@ -2266,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>43</v>
       </c>
@@ -2293,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>44</v>
       </c>
@@ -2318,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
@@ -2343,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
@@ -2370,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
@@ -2422,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
@@ -2451,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
@@ -2478,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
@@ -2505,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
@@ -2532,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
@@ -2559,11 +2608,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2584,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>55</v>
       </c>
@@ -2611,33 +2662,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:M27" si="2">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:M27" si="3">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:M27" si="4">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:M27" si="5">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:M27" si="6">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:M27" si="7">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:M27" si="8">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:M27" si="9">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:M27" si="10">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27" si="11">COUNT(#REF!)</f>
+        <v>0</v>
+      </c>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2645,21 +2740,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2706,15 +2801,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>101</v>
+      <c r="C2" s="7">
+        <v>5</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2728,14 +2823,14 @@
       <c r="M2" s="7"/>
       <c r="N2" s="8">
         <f>SUM(C2:M2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O2" s="9">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
@@ -2762,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
@@ -2789,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
@@ -2816,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
@@ -2841,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
@@ -2868,14 +2963,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2888,14 +2985,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
@@ -2922,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
@@ -2949,15 +3046,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>101</v>
+      <c r="C11" s="1">
+        <v>5</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2971,14 +3068,14 @@
       <c r="M11" s="1"/>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
@@ -3003,14 +3100,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3023,14 +3122,14 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>68</v>
       </c>
@@ -3057,14 +3156,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3077,21 +3178,23 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3104,14 +3207,14 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>71</v>
       </c>
@@ -3138,15 +3241,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>101</v>
+      <c r="C18" s="1">
+        <v>5</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3160,21 +3263,23 @@
       <c r="M18" s="1"/>
       <c r="N18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3187,14 +3292,14 @@
       <c r="M19" s="1"/>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>74</v>
       </c>
@@ -3219,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>76</v>
       </c>
@@ -3273,15 +3378,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>101</v>
+      <c r="C23" s="1">
+        <v>5</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3295,14 +3400,14 @@
       <c r="M23" s="1"/>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
@@ -3329,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>79</v>
       </c>
@@ -3356,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>80</v>
       </c>
@@ -3383,14 +3488,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -3403,14 +3510,14 @@
       <c r="M27" s="1"/>
       <c r="N27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O27" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>82</v>
       </c>
@@ -3437,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>83</v>
       </c>
@@ -3462,11 +3569,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3487,17 +3596,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f>COUNT(C2:C30)</f>
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:M31" si="2">COUNT(D2:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,9 @@
       <c r="B2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1141,7 +1143,9 @@
       <c r="B5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1455,7 +1459,9 @@
       <c r="B17" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1671,7 +1677,9 @@
       <c r="B25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1829,7 +1837,9 @@
       <c r="B31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1938,7 +1948,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,7 +2356,9 @@
       <c r="A15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2668,39 +2680,39 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:M27" si="2">COUNT(#REF!)</f>
+        <f t="shared" ref="D27" si="2">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:M27" si="3">COUNT(#REF!)</f>
+        <f t="shared" ref="E27" si="3">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:M27" si="4">COUNT(#REF!)</f>
+        <f t="shared" ref="F27" si="4">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:M27" si="5">COUNT(#REF!)</f>
+        <f t="shared" ref="G27" si="5">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:M27" si="6">COUNT(#REF!)</f>
+        <f t="shared" ref="H27" si="6">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:M27" si="7">COUNT(#REF!)</f>
+        <f t="shared" ref="I27" si="7">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27:M27" si="8">COUNT(#REF!)</f>
+        <f t="shared" ref="J27" si="8">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:M27" si="9">COUNT(#REF!)</f>
+        <f t="shared" ref="K27" si="9">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27:M27" si="10">COUNT(#REF!)</f>
+        <f t="shared" ref="L27" si="10">COUNT(#REF!)</f>
         <v>0</v>
       </c>
       <c r="M27">
@@ -2743,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1169,9 @@
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1948,7 +1950,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2437,9 @@
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,8 +1143,8 @@
       <c r="B5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
+      <c r="C5" s="1">
+        <v>5</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
@@ -1406,7 +1406,9 @@
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1461,8 +1463,8 @@
       <c r="B17" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>101</v>
+      <c r="C17" s="1">
+        <v>5</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1476,7 +1478,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
@@ -1517,7 +1519,9 @@
       <c r="B19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1530,7 +1534,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
@@ -1625,7 +1629,9 @@
       <c r="B23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1638,7 +1644,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="1"/>
@@ -1652,7 +1658,9 @@
       <c r="B24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1665,7 +1673,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="1"/>
@@ -1679,8 +1687,8 @@
       <c r="B25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
+      <c r="C25" s="1">
+        <v>5</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1694,7 +1702,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="1"/>
@@ -1760,7 +1768,9 @@
       <c r="B28" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1773,7 +1783,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="1"/>
@@ -1839,8 +1849,8 @@
       <c r="B31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
+      <c r="C31" s="1">
+        <v>5</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1854,7 +1864,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O31" s="3">
         <f t="shared" si="1"/>
@@ -1891,7 +1901,7 @@
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>COUNT(C4:C32)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:M33" si="2">COUNT(D4:D32)</f>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BFBBE0-9035-4D97-88A2-2BCB3B4D665C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -353,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -985,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,8 +1943,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1956,11 +1954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2046,9 @@
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2155,8 +2155,8 @@
       <c r="B7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>101</v>
+      <c r="C7" s="1">
+        <v>5</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2170,7 +2170,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
@@ -2181,7 +2181,9 @@
       <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2209,8 +2211,8 @@
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>101</v>
+      <c r="C9" s="1">
+        <v>5</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2224,7 +2226,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
@@ -2317,7 +2319,9 @@
       <c r="B13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2477,7 +2481,9 @@
       <c r="B19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2504,8 +2510,8 @@
       <c r="B20" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>101</v>
+      <c r="C20" s="1">
+        <v>5</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2519,7 +2525,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
@@ -2690,47 +2696,47 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f>COUNT(#REF!)</f>
-        <v>0</v>
+        <f>COUNT(C2:C26)</f>
+        <v>3</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27" si="2">COUNT(#REF!)</f>
+        <f t="shared" ref="D27:M27" si="2">COUNT(D2:D26)</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="3">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27" si="4">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27" si="5">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27" si="6">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="7">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27" si="8">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27" si="9">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27" si="10">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27" si="11">COUNT(#REF!)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N27" s="20"/>
@@ -2757,8 +2763,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2766,7 +2772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3675,8 +3681,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BFBBE0-9035-4D97-88A2-2BCB3B4D665C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F3AD3-0638-4790-90D5-21FC9BB147EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -986,25 +989,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1539,14 +1542,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1566,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1635,9 @@
       <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="24"/>
@@ -1649,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1815,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1840,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C33">
         <f>COUNT(C4:C32)</f>
         <v>8</v>
@@ -1957,18 +1964,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +2022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
@@ -2042,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -2069,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
@@ -2096,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -2121,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
@@ -2341,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>43</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>44</v>
       </c>
@@ -2395,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
@@ -2420,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
@@ -2474,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
@@ -2503,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
@@ -2586,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
@@ -2613,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
@@ -2640,14 +2647,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2667,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>55</v>
       </c>
@@ -2694,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27">
         <f>COUNT(C2:C26)</f>
         <v>3</v>
@@ -2742,23 +2751,23 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
@@ -2776,17 +2785,17 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>85</v>
       </c>
@@ -2843,7 +2852,9 @@
       <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -2862,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
@@ -2889,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
@@ -2943,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
@@ -2968,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
@@ -2995,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>62</v>
       </c>
@@ -3024,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
@@ -3051,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
@@ -3078,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
@@ -3132,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
@@ -3161,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>68</v>
       </c>
@@ -3188,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
@@ -3217,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>70</v>
       </c>
@@ -3246,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>71</v>
       </c>
@@ -3273,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
@@ -3302,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>73</v>
       </c>
@@ -3331,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>74</v>
       </c>
@@ -3356,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
@@ -3383,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>76</v>
       </c>
@@ -3410,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
@@ -3439,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
@@ -3466,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>79</v>
       </c>
@@ -3493,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>80</v>
       </c>
@@ -3520,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
@@ -3549,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>82</v>
       </c>
@@ -3576,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>83</v>
       </c>
@@ -3601,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>84</v>
       </c>
@@ -3628,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>COUNT(C2:C30)</f>
         <v>10</v>
@@ -3676,7 +3687,7 @@
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F3AD3-0638-4790-90D5-21FC9BB147EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -354,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,28 +985,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>COUNT(C4:C32)</f>
         <v>8</v>
@@ -1950,8 +1949,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1961,21 +1960,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
@@ -2103,11 +2102,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2128,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>43</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>44</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>55</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>COUNT(C2:C26)</f>
         <v>3</v>
@@ -2751,29 +2752,29 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,21 +2782,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>85</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>62</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>68</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>70</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>71</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>73</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>74</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>76</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>79</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>80</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>82</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>83</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>84</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>COUNT(C2:C30)</f>
         <v>10</v>
@@ -3687,13 +3688,13 @@
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC90820F-46BA-4009-9571-38E59273BE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -353,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -985,11 +984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1250,9 @@
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1949,8 +1950,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1960,11 +1961,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2167,9 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2773,8 +2776,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,10 +2785,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3693,8 +3696,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC90820F-46BA-4009-9571-38E59273BE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481496CF-574F-406C-A170-638447572A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -707,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -991,21 +991,21 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C33">
         <f>COUNT(C4:C32)</f>
         <v>8</v>
@@ -1964,18 +1964,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
@@ -2244,11 +2244,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2269,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>43</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>44</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
@@ -2458,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
@@ -2514,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
@@ -2543,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
@@ -2651,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>55</v>
       </c>
@@ -2707,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27">
         <f>COUNT(C2:C26)</f>
         <v>3</v>
@@ -2755,23 +2757,23 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
@@ -2788,18 +2790,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +2848,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>85</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
@@ -2931,14 +2933,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2958,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>62</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>68</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>70</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>71</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
@@ -3317,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>73</v>
       </c>
@@ -3346,11 +3350,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3371,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>76</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>79</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>80</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>82</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>83</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>84</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>COUNT(C2:C30)</f>
         <v>10</v>
@@ -3691,7 +3697,7 @@
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481496CF-574F-406C-A170-638447572A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -352,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -984,28 +983,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1552,7 +1551,9 @@
       <c r="C20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="24"/>
@@ -1571,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>COUNT(C4:C32)</f>
         <v>8</v>
@@ -1950,8 +1951,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1961,21 +1962,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>43</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>44</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>55</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>COUNT(C2:C26)</f>
         <v>3</v>
@@ -2757,29 +2758,29 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2787,21 +2788,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>85</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>62</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>63</v>
       </c>
@@ -3070,14 +3071,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3097,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>68</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>70</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>71</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>73</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>74</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>76</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>79</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>80</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>82</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>83</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>84</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>COUNT(C2:C30)</f>
         <v>10</v>
@@ -3697,13 +3700,13 @@
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538DE38C-B653-42B3-B3A8-A0E8B73A03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -351,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,10 +984,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1951,8 +1952,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1962,11 +1963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2280,9 @@
       <c r="B11" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2779,8 +2782,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2788,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3705,8 +3708,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538DE38C-B653-42B3-B3A8-A0E8B73A03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF63C5-1D09-4D7E-BA8C-510048FB8BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1062,9 @@
       <c r="C2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="23"/>
@@ -1467,7 +1469,9 @@
       <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="24"/>
@@ -1967,7 +1971,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2062,9 @@
       <c r="B3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2139,7 +2145,9 @@
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2197,7 +2205,9 @@
       <c r="B8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2610,7 +2620,9 @@
       <c r="B23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2795,7 +2807,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,7 +2902,9 @@
       <c r="B3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3417,7 +3431,9 @@
       <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3473,7 +3489,9 @@
       <c r="B24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF63C5-1D09-4D7E-BA8C-510048FB8BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB3B0B-A4F7-4437-A3D6-28B47953DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1117,9 @@
       <c r="B4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1255,7 +1257,9 @@
       <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="24"/>
@@ -1306,7 +1310,9 @@
       <c r="B11" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1644,7 +1650,9 @@
       <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="24"/>
       <c r="H23" s="18"/>
@@ -1970,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2807,7 +2815,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,7 +2992,9 @@
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3207,7 +3217,9 @@
       <c r="B14" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3351,7 +3363,9 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3463,7 +3477,9 @@
       <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB3B0B-A4F7-4437-A3D6-28B47953DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF684CF-2EA1-4E36-A035-6526814BEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -707,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2814,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,8 +2880,8 @@
       <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>101</v>
+      <c r="D2" s="7">
+        <v>5</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2896,11 +2894,11 @@
       <c r="M2" s="7"/>
       <c r="N2" s="8">
         <f>SUM(C2:M2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O2" s="9">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2910,8 +2908,8 @@
       <c r="B3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
+      <c r="C3" s="1">
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2925,7 +2923,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N30" si="0">SUM(C3:M3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" ref="O3:O30" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
@@ -2939,7 +2937,9 @@
       <c r="B4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2952,7 +2952,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
@@ -2966,8 +2966,8 @@
       <c r="B5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
+      <c r="C5" s="1">
+        <v>5</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2981,7 +2981,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
@@ -2995,7 +2995,9 @@
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3008,7 +3010,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
@@ -3022,7 +3024,9 @@
       <c r="B7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3035,7 +3039,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
@@ -3105,8 +3109,8 @@
       <c r="B10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>101</v>
+      <c r="C10" s="1">
+        <v>5</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3120,7 +3124,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
@@ -3191,7 +3195,9 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3203,11 +3209,11 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3217,8 +3223,8 @@
       <c r="B14" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>101</v>
+      <c r="C14" s="1">
+        <v>5</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3232,7 +3238,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
@@ -3278,7 +3284,9 @@
       <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3290,11 +3298,11 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3363,8 +3371,8 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>101</v>
+      <c r="D19" s="1">
+        <v>5</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3377,11 +3385,11 @@
       <c r="M19" s="1"/>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3445,8 +3453,8 @@
       <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>101</v>
+      <c r="C22" s="1">
+        <v>5</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3460,7 +3468,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="1"/>
@@ -3477,8 +3485,8 @@
       <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
+      <c r="D23" s="1">
+        <v>5</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3491,11 +3499,11 @@
       <c r="M23" s="1"/>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3505,8 +3513,8 @@
       <c r="B24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>101</v>
+      <c r="C24" s="1">
+        <v>5</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3520,7 +3528,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="1"/>
@@ -3617,7 +3625,9 @@
       <c r="B28" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3630,7 +3640,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="1"/>
@@ -3669,7 +3679,9 @@
       <c r="B30" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3682,7 +3694,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="1"/>
@@ -3692,11 +3704,11 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>COUNT(C2:C30)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:M31" si="2">COUNT(D2:D30)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF684CF-2EA1-4E36-A035-6526814BEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B79455-A856-4ADF-9D39-BA725F594B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -345,6 +347,9 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -705,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -986,7 +991,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1152,9 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="24"/>
@@ -1977,7 +1984,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2662,9 @@
       <c r="B24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2813,7 +2822,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3091,9 @@
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3141,7 +3152,9 @@
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3164,7 +3177,9 @@
       <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B79455-A856-4ADF-9D39-BA725F594B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -355,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,11 +986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1736,9 @@
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1795,7 +1796,9 @@
       <c r="C28" s="1">
         <v>5</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="24"/>
@@ -1969,8 +1972,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1980,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2809,8 +2812,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2818,7 +2821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3769,8 +3772,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C4810-C59A-412F-8C35-6A30BCAF2EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -354,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -986,11 +987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1538,9 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="24"/>
@@ -1972,8 +1975,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1983,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,8 +2815,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2821,10 +2824,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3772,8 +3775,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C4810-C59A-412F-8C35-6A30BCAF2EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -355,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,10 +986,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1975,8 +1974,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1986,11 +1985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2083,9 @@
       <c r="C3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2815,8 +2816,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2824,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3775,8 +3776,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3405DC-887B-46C4-B95E-4C47AD9D8D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,11 +986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,11 +1061,11 @@
       <c r="B2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>101</v>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1078,11 +1078,11 @@
       <c r="M2" s="7"/>
       <c r="N2" s="8">
         <f>SUM(C2:M2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O2" s="9">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,9 @@
       <c r="B3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1151,8 +1153,8 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>101</v>
+      <c r="D5" s="1">
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1165,11 +1167,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1258,11 +1260,11 @@
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>101</v>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1275,11 +1277,11 @@
       <c r="M9" s="1"/>
       <c r="N9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1314,8 +1316,8 @@
       <c r="B11" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>101</v>
+      <c r="C11" s="1">
+        <v>5</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1329,7 +1331,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
@@ -1479,8 +1481,8 @@
       <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>101</v>
+      <c r="D17" s="1">
+        <v>5</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1493,11 +1495,11 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1537,8 +1539,8 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>101</v>
+      <c r="D19" s="1">
+        <v>5</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1551,11 +1553,11 @@
       <c r="M19" s="1"/>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1565,8 +1567,8 @@
       <c r="B20" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>101</v>
+      <c r="C20" s="1">
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>101</v>
@@ -1582,7 +1584,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
@@ -1653,11 +1655,11 @@
       <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>101</v>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="24"/>
@@ -1669,11 +1671,11 @@
       <c r="M23" s="1"/>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1741,7 +1743,9 @@
       <c r="B26" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1754,7 +1758,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" si="1"/>
@@ -1798,8 +1802,8 @@
       <c r="C28" s="1">
         <v>5</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>101</v>
+      <c r="D28" s="1">
+        <v>5</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1812,11 +1816,11 @@
       <c r="M28" s="1"/>
       <c r="N28" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1930,15 +1934,15 @@
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>COUNT(C4:C32)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:M33" si="2">COUNT(D4:D32)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
@@ -1974,8 +1978,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1985,11 +1989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,7 +2057,9 @@
       <c r="B2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2816,8 +2822,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2825,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3776,8 +3782,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3405DC-887B-46C4-B95E-4C47AD9D8D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -354,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,7 +985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1978,8 +1977,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1989,11 +1988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,8 +2056,8 @@
       <c r="B2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>101</v>
+      <c r="C2" s="7">
+        <v>5</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2072,7 +2071,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="8">
         <f>SUM(C2:M2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O2" s="9">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
@@ -2086,11 +2085,11 @@
       <c r="B3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>101</v>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2103,11 +2102,11 @@
       <c r="M3" s="1"/>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N26" si="0">SUM(C3:M3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" ref="O3:O26" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2117,7 +2116,9 @@
       <c r="B4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2130,7 +2131,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
@@ -2171,8 +2172,8 @@
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>101</v>
+      <c r="C6" s="1">
+        <v>5</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2186,7 +2187,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
@@ -2203,8 +2204,8 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>101</v>
+      <c r="D7" s="1">
+        <v>5</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2217,11 +2218,11 @@
       <c r="M7" s="1"/>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2345,7 +2346,9 @@
       <c r="B12" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2358,7 +2361,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
@@ -2372,8 +2375,8 @@
       <c r="B13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>101</v>
+      <c r="C13" s="1">
+        <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2387,7 +2390,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
@@ -2480,7 +2483,9 @@
       <c r="B17" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2507,7 +2512,9 @@
       <c r="B18" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2520,7 +2527,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
@@ -2534,8 +2541,8 @@
       <c r="B19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>101</v>
+      <c r="C19" s="1">
+        <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2549,7 +2556,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
@@ -2592,7 +2599,9 @@
       <c r="B21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2605,7 +2614,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="1"/>
@@ -2646,8 +2655,8 @@
       <c r="B23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>101</v>
+      <c r="C23" s="1">
+        <v>5</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2661,7 +2670,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="1"/>
@@ -2675,8 +2684,8 @@
       <c r="B24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>101</v>
+      <c r="C24" s="1">
+        <v>5</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2690,7 +2699,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="1"/>
@@ -2733,7 +2742,9 @@
       <c r="B26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2746,7 +2757,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="1"/>
@@ -2756,11 +2767,11 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>COUNT(C2:C26)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:M27" si="2">COUNT(D2:D26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
@@ -2822,8 +2833,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2831,10 +2842,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3782,8 +3793,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -988,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2455,9 @@
       <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F240D08-2B78-43B0-8DAF-A843479E4162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -353,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -985,11 +987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1626,9 @@
       <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1687,7 +1691,9 @@
       <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="24"/>
@@ -1977,8 +1983,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1988,11 +1994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2326,9 @@
       <c r="C11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2835,8 +2843,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,11 +2852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,7 +3391,9 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3795,8 +3805,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F240D08-2B78-43B0-8DAF-A843479E4162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E1B2C-DFFF-4470-BCA8-7C1EBF210862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1209,9 @@
       <c r="B7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1289,7 +1291,9 @@
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1997,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2217,9 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2856,7 +2862,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3163,9 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E1B2C-DFFF-4470-BCA8-7C1EBF210862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1EE24-0F3B-42F2-AB67-DD40DD0C113D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -2002,7 +2002,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,7 +2276,9 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1EE24-0F3B-42F2-AB67-DD40DD0C113D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -355,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1987,8 +1986,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1998,10 +1997,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2851,8 +2850,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,11 +2859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,7 +3284,9 @@
       <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3815,8 +3816,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FA156-F8BA-47F7-A693-BDCC3FCD0996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -346,15 +346,12 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1986,8 +1983,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1997,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2850,8 +2847,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,11 +2856,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3103,9 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3118,11 +3117,11 @@
       <c r="M8" s="1"/>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3132,8 +3131,8 @@
       <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>101</v>
+      <c r="C9" s="1">
+        <v>5</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3147,7 +3146,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
@@ -3164,8 +3163,8 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>101</v>
+      <c r="D10" s="1">
+        <v>5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3178,11 +3177,11 @@
       <c r="M10" s="1"/>
       <c r="N10" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3195,8 +3194,8 @@
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>102</v>
+      <c r="D11" s="1">
+        <v>5</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3209,11 +3208,11 @@
       <c r="M11" s="1"/>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3282,7 +3281,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>101</v>
@@ -3298,7 +3297,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
@@ -3518,7 +3517,9 @@
       <c r="C22" s="1">
         <v>5</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3530,11 +3531,11 @@
       <c r="M22" s="1"/>
       <c r="N22" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -3578,7 +3579,9 @@
       <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3590,11 +3593,11 @@
       <c r="M24" s="1"/>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3690,7 +3693,9 @@
       <c r="C28" s="1">
         <v>5</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3702,11 +3707,11 @@
       <c r="M28" s="1"/>
       <c r="N28" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3744,7 +3749,9 @@
       <c r="C30" s="4">
         <v>5</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3756,21 +3763,21 @@
       <c r="M30" s="4"/>
       <c r="N30" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>COUNT(C2:C30)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:M31" si="2">COUNT(D2:D30)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
@@ -3816,8 +3823,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FA156-F8BA-47F7-A693-BDCC3FCD0996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A161DFE1-3839-4BB8-AC2A-13CC0C050905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -706,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,7 +988,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,7 +1891,9 @@
       <c r="C31" s="1">
         <v>5</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="24"/>
@@ -1997,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2336,9 @@
       <c r="D11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2470,7 +2475,9 @@
       <c r="B16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2859,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3321,9 @@
       <c r="C15" s="1">
         <v>5</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3607,7 +3616,9 @@
       <c r="B25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A161DFE1-3839-4BB8-AC2A-13CC0C050905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -352,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -707,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -984,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1178,9 @@
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1453,7 +1454,9 @@
       <c r="B16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1600,7 +1603,9 @@
       <c r="B21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1665,8 +1670,12 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="H23" s="18"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
@@ -1986,8 +1995,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1997,10 +2006,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2854,8 +2863,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2863,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3834,8 +3843,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B805-Teacher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -987,7 +987,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,8 +1089,8 @@
       <c r="B3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
+      <c r="C3" s="1">
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1104,7 +1104,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N32" si="0">SUM(C3:M3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" ref="O3:O32" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
@@ -1118,8 +1118,8 @@
       <c r="B4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>101</v>
+      <c r="C4" s="1">
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1133,7 +1133,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
@@ -1322,7 +1322,9 @@
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="24"/>
@@ -1334,11 +1336,11 @@
       <c r="M11" s="1"/>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1454,8 +1456,8 @@
       <c r="B16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>101</v>
+      <c r="C16" s="1">
+        <v>5</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1469,7 +1471,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
@@ -1575,8 +1577,8 @@
       <c r="C20" s="1">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>101</v>
+      <c r="D20" s="1">
+        <v>5</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1589,11 +1591,11 @@
       <c r="M20" s="1"/>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1632,8 +1634,8 @@
       <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>101</v>
+      <c r="C22" s="1">
+        <v>5</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1647,7 +1649,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="1"/>
@@ -1670,8 +1672,8 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>101</v>
+      <c r="F23" s="1">
+        <v>5</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>101</v>
@@ -1684,11 +1686,11 @@
       <c r="M23" s="1"/>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1701,8 +1703,8 @@
       <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>101</v>
+      <c r="D24" s="1">
+        <v>5</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1715,11 +1717,11 @@
       <c r="M24" s="1"/>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1732,7 +1734,9 @@
       <c r="C25" s="1">
         <v>5</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="24"/>
@@ -1744,11 +1748,11 @@
       <c r="M25" s="1"/>
       <c r="N25" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1951,11 +1955,11 @@
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>COUNT(C4:C32)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:M33" si="2">COUNT(D4:D32)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
@@ -1963,7 +1967,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B805-Teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BE37C-91D6-44D1-92EA-471D777E2179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,10 +983,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1999,8 +1999,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2010,11 +2010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2167,9 @@
       <c r="B5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2180,7 +2182,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
@@ -2256,8 +2258,8 @@
       <c r="B8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>101</v>
+      <c r="C8" s="1">
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2271,7 +2273,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
@@ -2434,8 +2436,12 @@
       <c r="B14" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2447,7 +2453,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
@@ -2488,8 +2494,8 @@
       <c r="B16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>101</v>
+      <c r="C16" s="1">
+        <v>5</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2503,7 +2509,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
@@ -2607,7 +2613,9 @@
       <c r="C20" s="1">
         <v>5</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2747,8 +2755,8 @@
       <c r="B25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
+      <c r="C25" s="1">
+        <v>5</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2762,7 +2770,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="1"/>
@@ -2801,7 +2809,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>COUNT(C2:C26)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:M27" si="2">COUNT(D2:D26)</f>
@@ -2867,8 +2875,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2876,7 +2884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3847,8 +3855,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BE37C-91D6-44D1-92EA-471D777E2179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -351,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1764,9 @@
       <c r="C26" s="1">
         <v>5</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="24"/>
@@ -1791,7 +1792,9 @@
       <c r="B27" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1849,7 +1852,9 @@
       <c r="B29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1999,8 +2004,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2010,11 +2015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2266,9 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2644,7 +2651,9 @@
       <c r="C21" s="1">
         <v>5</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2700,7 +2709,9 @@
       <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2875,8 +2886,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2884,11 +2895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,7 +3055,9 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3855,8 +3868,8 @@
       <c r="O32" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E450DEEF-0B7B-4EB0-A647-B396F1D42F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
   <si>
     <t>ФИО</t>
   </si>
@@ -339,9 +341,6 @@
   </si>
   <si>
     <t>Half-term CW</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
   <si>
     <t>pass</t>
@@ -350,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -419,13 +418,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,49 +434,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -664,6 +620,80 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -676,36 +706,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -982,11 +1015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,149 +1037,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="7">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8">
-        <f>SUM(C2:M2)</f>
-        <v>10</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="B2" s="22">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="26">
+        <f>SUM(B2:M2)</f>
+        <v>13</v>
+      </c>
+      <c r="O2" s="23">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="20">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N32" si="0">SUM(C3:M3)</f>
-        <v>5</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="M3" s="18"/>
+      <c r="N3" s="27">
+        <f t="shared" ref="N3:N32" si="0">SUM(B3:M3)</f>
+        <v>8</v>
+      </c>
+      <c r="O3" s="24">
         <f t="shared" ref="O3:O32" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="14"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="M4" s="18"/>
+      <c r="N4" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O4" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
         <v>5</v>
       </c>
       <c r="D5" s="1">
@@ -1154,113 +1187,117 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="M5" s="18"/>
+      <c r="N5" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O5" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="14"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="M6" s="18"/>
+      <c r="N6" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="M7" s="18"/>
+      <c r="N7" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O7" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="M8" s="18"/>
+      <c r="N8" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
         <v>5</v>
       </c>
       <c r="D9" s="1">
@@ -1268,57 +1305,59 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="M9" s="18"/>
+      <c r="N9" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O9" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="14"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="M10" s="18"/>
+      <c r="N10" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="1">
@@ -1326,223 +1365,229 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="2">
-        <f t="shared" si="0"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="M12" s="18"/>
+      <c r="N12" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="14"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="M13" s="18"/>
+      <c r="N13" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="14"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="M14" s="18"/>
+      <c r="N14" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="M15" s="18"/>
+      <c r="N15" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8">
         <v>5</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="14"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="M16" s="18"/>
+      <c r="N16" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O16" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="1">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="14"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="M17" s="18"/>
+      <c r="N17" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="14"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="M18" s="18"/>
+      <c r="N18" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O18" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
         <v>5</v>
       </c>
       <c r="D19" s="1">
@@ -1550,30 +1595,30 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="14"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O19" s="3">
+      <c r="M19" s="18"/>
+      <c r="N19" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O19" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="1">
@@ -1581,125 +1626,127 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="14"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="M20" s="18"/>
+      <c r="N20" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O20" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="14"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="M21" s="18"/>
+      <c r="N21" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="11">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8">
         <v>5</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="14"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="M22" s="18"/>
+      <c r="N22" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O22" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="M23" s="18"/>
+      <c r="N23" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O23" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -1707,30 +1754,30 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="14"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="M24" s="18"/>
+      <c r="N24" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O24" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
         <v>5</v>
       </c>
       <c r="D25" s="1">
@@ -1738,226 +1785,234 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="14"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O25" s="3">
+      <c r="M25" s="18"/>
+      <c r="N25" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O25" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="14"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="M26" s="18"/>
+      <c r="N26" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O26" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="14"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="M27" s="18"/>
+      <c r="N27" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O27" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="1">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="14"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O28" s="3">
+      <c r="M28" s="18"/>
+      <c r="N28" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O28" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="14"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="M29" s="18"/>
+      <c r="N29" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O29" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="14"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
+      <c r="M30" s="18"/>
+      <c r="N30" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O30" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="14"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O31" s="3">
+      <c r="M31" s="18"/>
+      <c r="N31" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O31" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="21">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>COUNT(B4:B32)</f>
+        <v>29</v>
+      </c>
       <c r="C33">
         <f>COUNT(C4:C32)</f>
         <v>15</v>
@@ -2004,8 +2059,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2015,11 +2070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N2:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,95 +2085,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="22">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8">
-        <f>SUM(C2:M2)</f>
-        <v>5</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="26">
+        <f>SUM(B2:M2)</f>
+        <v>8</v>
+      </c>
+      <c r="O2" s="23">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="20">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2126,24 +2185,24 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N26" si="0">SUM(C3:M3)</f>
-        <v>10</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="M3" s="18"/>
+      <c r="N3" s="27">
+        <f t="shared" ref="N3:N26" si="0">SUM(B3:M3)</f>
+        <v>13</v>
+      </c>
+      <c r="O3" s="24">
         <f t="shared" ref="O3:O26" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
@@ -2155,24 +2214,24 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="M4" s="18"/>
+      <c r="N4" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O4" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
         <v>5</v>
       </c>
       <c r="D5" s="1"/>
@@ -2184,27 +2243,29 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="M5" s="18"/>
+      <c r="N5" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O5" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2213,31 +2274,31 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="M6" s="18"/>
+      <c r="N6" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2246,28 +2307,28 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="M7" s="18"/>
+      <c r="N7" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O7" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2277,28 +2338,28 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="M8" s="18"/>
+      <c r="N8" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2308,24 +2369,24 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="M9" s="18"/>
+      <c r="N9" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O9" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2335,31 +2396,31 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="M10" s="18"/>
+      <c r="N10" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2368,24 +2429,24 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="M11" s="18"/>
+      <c r="N11" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O11" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
         <v>5</v>
       </c>
       <c r="D12" s="1"/>
@@ -2397,27 +2458,29 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="M12" s="18"/>
+      <c r="N12" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2426,28 +2489,28 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="M13" s="18"/>
+      <c r="N13" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O13" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2457,24 +2520,26 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="M14" s="18"/>
+      <c r="N14" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2484,24 +2549,24 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="M15" s="18"/>
+      <c r="N15" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8">
         <v>5</v>
       </c>
       <c r="D16" s="1"/>
@@ -2513,25 +2578,25 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="M16" s="18"/>
+      <c r="N16" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O16" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2542,24 +2607,24 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="M17" s="18"/>
+      <c r="N17" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O17" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
         <v>5</v>
       </c>
       <c r="D18" s="1"/>
@@ -2571,24 +2636,24 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="M18" s="18"/>
+      <c r="N18" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O18" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
@@ -2600,28 +2665,28 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O19" s="3">
+      <c r="M19" s="18"/>
+      <c r="N19" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O19" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2631,28 +2696,28 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="M20" s="18"/>
+      <c r="N20" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O20" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2662,24 +2727,24 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="M21" s="18"/>
+      <c r="N21" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="11">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2689,28 +2754,28 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="M22" s="18"/>
+      <c r="N22" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O22" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2720,27 +2785,29 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="M23" s="18"/>
+      <c r="N23" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O23" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2749,27 +2816,29 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="M24" s="18"/>
+      <c r="N24" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O24" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2778,46 +2847,50 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O25" s="3">
+      <c r="M25" s="18"/>
+      <c r="N25" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O25" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="4">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="6">
+      <c r="B26" s="21">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O26" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>COUNT(B2:B26)</f>
+        <v>25</v>
+      </c>
       <c r="C27">
         <f>COUNT(C2:C26)</f>
         <v>20</v>
@@ -2862,32 +2935,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2895,11 +2968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,91 +2983,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>100</v>
+      <c r="B2" s="20">
+        <v>3</v>
       </c>
       <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8">
-        <f>SUM(C2:M2)</f>
-        <v>10</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="26">
+        <f>SUM(B2:M2)</f>
+        <v>13</v>
+      </c>
+      <c r="O2" s="23">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="11">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
@@ -3006,24 +3079,24 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N30" si="0">SUM(C3:M3)</f>
-        <v>5</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="M3" s="18"/>
+      <c r="N3" s="27">
+        <f t="shared" ref="N3:N30" si="0">SUM(B3:M3)</f>
+        <v>8</v>
+      </c>
+      <c r="O3" s="24">
         <f t="shared" ref="O3:O30" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
@@ -3035,28 +3108,28 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="M4" s="18"/>
+      <c r="N4" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O4" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3066,24 +3139,24 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="M5" s="18"/>
+      <c r="N5" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O5" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
         <v>5</v>
       </c>
       <c r="D6" s="1"/>
@@ -3095,27 +3168,29 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="M6" s="18"/>
+      <c r="N6" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3124,24 +3199,24 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="M7" s="18"/>
+      <c r="N7" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O7" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
         <v>5</v>
       </c>
       <c r="D8" s="1">
@@ -3155,24 +3230,24 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="M8" s="18"/>
+      <c r="N8" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O8" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
         <v>5</v>
       </c>
       <c r="D9" s="1"/>
@@ -3184,24 +3259,24 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="M9" s="18"/>
+      <c r="N9" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O9" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
         <v>5</v>
       </c>
       <c r="D10" s="1">
@@ -3215,24 +3290,24 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="M10" s="18"/>
+      <c r="N10" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O10" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="1">
@@ -3246,24 +3321,24 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="M11" s="18"/>
+      <c r="N11" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O11" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3273,24 +3348,24 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="M12" s="18"/>
+      <c r="N12" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
         <v>5</v>
       </c>
       <c r="D13" s="1">
@@ -3304,28 +3379,28 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="M13" s="18"/>
+      <c r="N13" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O13" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3335,28 +3410,28 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="M14" s="18"/>
+      <c r="N14" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3366,24 +3441,24 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="M15" s="18"/>
+      <c r="N15" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O15" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8">
         <v>5</v>
       </c>
       <c r="D16" s="1">
@@ -3397,24 +3472,24 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="M16" s="18"/>
+      <c r="N16" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O16" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3424,28 +3499,28 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="M17" s="18"/>
+      <c r="N17" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O17" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3455,24 +3530,24 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="M18" s="18"/>
+      <c r="N18" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O18" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
         <v>5</v>
       </c>
       <c r="D19" s="1">
@@ -3486,24 +3561,24 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O19" s="3">
+      <c r="M19" s="18"/>
+      <c r="N19" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O19" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3513,24 +3588,24 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="M20" s="18"/>
+      <c r="N20" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O20" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="B21" s="11">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3540,24 +3615,24 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="M21" s="18"/>
+      <c r="N21" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="11">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8">
         <v>5</v>
       </c>
       <c r="D22" s="1">
@@ -3571,24 +3646,24 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="M22" s="18"/>
+      <c r="N22" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O22" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="11">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
         <v>5</v>
       </c>
       <c r="D23" s="1">
@@ -3602,24 +3677,24 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="M23" s="18"/>
+      <c r="N23" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O23" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -3633,25 +3708,25 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="M24" s="18"/>
+      <c r="N24" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O24" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3662,24 +3737,24 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
+      <c r="M25" s="18"/>
+      <c r="N25" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O25" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3689,24 +3764,24 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="M26" s="18"/>
+      <c r="N26" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O26" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="1"/>
@@ -3718,24 +3793,24 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="M27" s="18"/>
+      <c r="N27" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O27" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
         <v>5</v>
       </c>
       <c r="D28" s="1">
@@ -3749,22 +3824,24 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O28" s="3">
+      <c r="M28" s="18"/>
+      <c r="N28" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O28" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3774,48 +3851,52 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="M29" s="18"/>
+      <c r="N29" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O29" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="4">
-        <v>5</v>
-      </c>
-      <c r="D30" s="4">
-        <v>5</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O30" s="6">
+      <c r="B30" s="21">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="28">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O30" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>COUNT(B2:B30)</f>
+        <v>29</v>
+      </c>
       <c r="C31">
         <f>COUNT(C2:C30)</f>
         <v>22</v>
@@ -3860,16 +3941,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E450DEEF-0B7B-4EB0-A647-B396F1D42F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>ФИО</t>
   </si>
@@ -349,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,11 +1014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,8 +2058,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2070,11 +2069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N2:N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,7 +2776,9 @@
       <c r="D23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2959,8 +2960,8 @@
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2968,10 +2969,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -3949,8 +3950,8 @@
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>ФИО</t>
   </si>
@@ -375,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -657,15 +657,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -701,11 +692,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -728,13 +767,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1017,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1082,7 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1082,14 +1125,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="20">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
         <v>5</v>
       </c>
       <c r="D2" s="3">
@@ -1104,21 +1147,21 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f>SUM(B2:M2)</f>
-        <v>13</v>
-      </c>
-      <c r="O2" s="23">
+        <v>15</v>
+      </c>
+      <c r="O2" s="22">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20">
-        <v>3</v>
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>5</v>
@@ -1133,21 +1176,21 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="27">
+      <c r="N3" s="26">
         <f t="shared" ref="N3:N32" si="0">SUM(B3:M3)</f>
-        <v>8</v>
-      </c>
-      <c r="O3" s="24">
+        <v>10</v>
+      </c>
+      <c r="O3" s="23">
         <f t="shared" ref="O3:O32" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
-        <v>3</v>
+      <c r="B4" s="12">
+        <v>5</v>
       </c>
       <c r="C4" s="8">
         <v>5</v>
@@ -1162,21 +1205,21 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O4" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N4" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
-        <v>3</v>
+      <c r="B5" s="12">
+        <v>5</v>
       </c>
       <c r="C5" s="8">
         <v>5</v>
@@ -1193,21 +1236,21 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O5" s="24">
+      <c r="N5" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O5" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
-        <v>3</v>
+      <c r="B6" s="12">
+        <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>100</v>
@@ -1222,21 +1265,21 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O6" s="24">
+      <c r="N6" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3</v>
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>100</v>
@@ -1253,21 +1296,21 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O7" s="24">
+      <c r="N7" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
-        <v>3</v>
+      <c r="B8" s="12">
+        <v>5</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
@@ -1280,21 +1323,21 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O8" s="24">
+      <c r="N8" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
-        <v>3</v>
+      <c r="B9" s="12">
+        <v>5</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
@@ -1311,21 +1354,21 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O9" s="24">
+      <c r="N9" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O9" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
-        <v>3</v>
+      <c r="B10" s="12">
+        <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>100</v>
@@ -1340,21 +1383,21 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O10" s="24">
+      <c r="N10" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
-        <v>3</v>
+      <c r="B11" s="12">
+        <v>5</v>
       </c>
       <c r="C11" s="8">
         <v>5</v>
@@ -1371,21 +1414,21 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O11" s="24">
+      <c r="N11" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O11" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
-        <v>3</v>
+      <c r="B12" s="12">
+        <v>5</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1"/>
@@ -1398,21 +1441,21 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O12" s="24">
+      <c r="N12" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
-        <v>3</v>
+      <c r="B13" s="12">
+        <v>5</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="1"/>
@@ -1425,21 +1468,21 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O13" s="24">
+      <c r="N13" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O13" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
-        <v>3</v>
+      <c r="B14" s="12">
+        <v>5</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="1"/>
@@ -1452,21 +1495,21 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O14" s="24">
+      <c r="N14" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
-        <v>3</v>
+      <c r="B15" s="12">
+        <v>5</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="1"/>
@@ -1479,21 +1522,21 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O15" s="24">
+      <c r="N15" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O15" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
-        <v>3</v>
+      <c r="B16" s="12">
+        <v>5</v>
       </c>
       <c r="C16" s="8">
         <v>5</v>
@@ -1508,21 +1551,21 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O16" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N16" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
-        <v>3</v>
+      <c r="B17" s="12">
+        <v>5</v>
       </c>
       <c r="C17" s="8">
         <v>5</v>
@@ -1541,21 +1584,21 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O17" s="24">
+      <c r="N17" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O17" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
-        <v>3</v>
+      <c r="B18" s="12">
+        <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>100</v>
@@ -1570,21 +1613,21 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O18" s="24">
+      <c r="N18" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
-        <v>3</v>
+      <c r="B19" s="12">
+        <v>5</v>
       </c>
       <c r="C19" s="8">
         <v>5</v>
@@ -1601,21 +1644,21 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O19" s="24">
+      <c r="N19" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O19" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
-        <v>3</v>
+      <c r="B20" s="12">
+        <v>5</v>
       </c>
       <c r="C20" s="8">
         <v>5</v>
@@ -1632,21 +1675,21 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O20" s="24">
+      <c r="N20" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O20" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
-        <v>3</v>
+      <c r="B21" s="12">
+        <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>100</v>
@@ -1661,21 +1704,21 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O21" s="24">
+      <c r="N21" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O21" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
-        <v>3</v>
+      <c r="B22" s="12">
+        <v>5</v>
       </c>
       <c r="C22" s="8">
         <v>5</v>
@@ -1690,21 +1733,21 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="18"/>
-      <c r="N22" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O22" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N22" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O22" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
-        <v>3</v>
+      <c r="B23" s="12">
+        <v>5</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
@@ -1729,21 +1772,21 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="O23" s="24">
+      <c r="N23" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O23" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
-        <v>3</v>
+      <c r="B24" s="12">
+        <v>5</v>
       </c>
       <c r="C24" s="8">
         <v>5</v>
@@ -1760,21 +1803,21 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O24" s="24">
+      <c r="N24" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O24" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
-        <v>3</v>
+      <c r="B25" s="12">
+        <v>5</v>
       </c>
       <c r="C25" s="8">
         <v>5</v>
@@ -1791,21 +1834,21 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O25" s="24">
+      <c r="N25" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O25" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
-        <v>3</v>
+      <c r="B26" s="12">
+        <v>5</v>
       </c>
       <c r="C26" s="8">
         <v>5</v>
@@ -1822,21 +1865,21 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="18"/>
-      <c r="N26" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N26" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="11">
-        <v>3</v>
+      <c r="B27" s="12">
+        <v>5</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>100</v>
@@ -1851,21 +1894,21 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="18"/>
-      <c r="N27" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O27" s="24">
+      <c r="N27" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O27" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
-        <v>3</v>
+      <c r="B28" s="12">
+        <v>5</v>
       </c>
       <c r="C28" s="8">
         <v>5</v>
@@ -1884,21 +1927,21 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="18"/>
-      <c r="N28" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O28" s="24">
+      <c r="N28" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O28" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="11">
-        <v>3</v>
+      <c r="B29" s="12">
+        <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>100</v>
@@ -1913,21 +1956,21 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="18"/>
-      <c r="N29" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O29" s="24">
+      <c r="N29" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O29" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
-        <v>3</v>
+      <c r="B30" s="12">
+        <v>5</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="1"/>
@@ -1940,21 +1983,21 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="18"/>
-      <c r="N30" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O30" s="24">
+      <c r="N30" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O30" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="11">
-        <v>3</v>
+      <c r="B31" s="12">
+        <v>5</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
@@ -1962,7 +2005,9 @@
       <c r="D31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="18"/>
       <c r="H31" s="12"/>
@@ -1971,21 +2016,21 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O31" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N31" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O31" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="21">
-        <v>3</v>
+      <c r="B32" s="13">
+        <v>5</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="2"/>
@@ -1998,11 +2043,11 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="19"/>
-      <c r="N32" s="28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O32" s="25">
+      <c r="N32" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O32" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2072,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,14 +2175,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="29">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2152,21 +2197,21 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f>SUM(B2:M2)</f>
-        <v>8</v>
-      </c>
-      <c r="O2" s="23">
+        <v>10</v>
+      </c>
+      <c r="O2" s="22">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="20">
-        <v>3</v>
+      <c r="B3" s="12">
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>5</v>
@@ -2185,11 +2230,11 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="27">
+      <c r="N3" s="26">
         <f t="shared" ref="N3:N26" si="0">SUM(B3:M3)</f>
-        <v>13</v>
-      </c>
-      <c r="O3" s="24">
+        <v>15</v>
+      </c>
+      <c r="O3" s="23">
         <f t="shared" ref="O3:O26" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
         <v>1</v>
       </c>
@@ -2198,8 +2243,8 @@
       <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11">
-        <v>3</v>
+      <c r="B4" s="12">
+        <v>5</v>
       </c>
       <c r="C4" s="8">
         <v>5</v>
@@ -2214,21 +2259,21 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O4" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N4" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11">
-        <v>3</v>
+      <c r="B5" s="12">
+        <v>5</v>
       </c>
       <c r="C5" s="8">
         <v>5</v>
@@ -2243,21 +2288,21 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O5" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N5" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11">
-        <v>3</v>
+      <c r="B6" s="12">
+        <v>5</v>
       </c>
       <c r="C6" s="8">
         <v>5</v>
@@ -2274,21 +2319,21 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O6" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N6" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O6" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="11">
-        <v>3</v>
+      <c r="B7" s="12">
+        <v>5</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
@@ -2307,11 +2352,11 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O7" s="24">
+      <c r="N7" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O7" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2320,8 +2365,8 @@
       <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="11">
-        <v>3</v>
+      <c r="B8" s="12">
+        <v>5</v>
       </c>
       <c r="C8" s="8">
         <v>5</v>
@@ -2338,21 +2383,21 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O8" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N8" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="11">
-        <v>3</v>
+      <c r="B9" s="12">
+        <v>5</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
@@ -2369,21 +2414,21 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O9" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N9" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O9" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11">
-        <v>3</v>
+      <c r="B10" s="12">
+        <v>5</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="1"/>
@@ -2396,11 +2441,11 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O10" s="24">
+      <c r="N10" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2409,8 +2454,8 @@
       <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="11">
-        <v>3</v>
+      <c r="B11" s="12">
+        <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>100</v>
@@ -2429,11 +2474,11 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O11" s="24">
+      <c r="N11" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2442,8 +2487,8 @@
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11">
-        <v>3</v>
+      <c r="B12" s="12">
+        <v>5</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -2458,21 +2503,21 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O12" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N12" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="11">
-        <v>3</v>
+      <c r="B13" s="12">
+        <v>5</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
@@ -2489,21 +2534,21 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O13" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N13" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="11">
-        <v>3</v>
+      <c r="B14" s="12">
+        <v>5</v>
       </c>
       <c r="C14" s="8">
         <v>5</v>
@@ -2520,21 +2565,21 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O14" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N14" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="11">
-        <v>3</v>
+      <c r="B15" s="12">
+        <v>5</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>100</v>
@@ -2549,11 +2594,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O15" s="24">
+      <c r="N15" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O15" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2562,8 +2607,8 @@
       <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="11">
-        <v>3</v>
+      <c r="B16" s="12">
+        <v>5</v>
       </c>
       <c r="C16" s="8">
         <v>5</v>
@@ -2578,21 +2623,21 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O16" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N16" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="11">
-        <v>3</v>
+      <c r="B17" s="12">
+        <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>100</v>
@@ -2607,11 +2652,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O17" s="24">
+      <c r="N17" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O17" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2620,8 +2665,8 @@
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="11">
-        <v>3</v>
+      <c r="B18" s="12">
+        <v>5</v>
       </c>
       <c r="C18" s="8">
         <v>5</v>
@@ -2636,21 +2681,21 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O18" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N18" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="11">
-        <v>3</v>
+      <c r="B19" s="12">
+        <v>5</v>
       </c>
       <c r="C19" s="8">
         <v>5</v>
@@ -2665,21 +2710,21 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O19" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N19" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="11">
-        <v>3</v>
+      <c r="B20" s="12">
+        <v>5</v>
       </c>
       <c r="C20" s="8">
         <v>5</v>
@@ -2696,21 +2741,21 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O20" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N20" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O20" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="11">
-        <v>3</v>
+      <c r="B21" s="12">
+        <v>5</v>
       </c>
       <c r="C21" s="8">
         <v>5</v>
@@ -2727,21 +2772,21 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O21" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N21" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O21" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="11">
-        <v>3</v>
+      <c r="B22" s="12">
+        <v>5</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="1"/>
@@ -2754,11 +2799,11 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="18"/>
-      <c r="N22" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O22" s="24">
+      <c r="N22" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O22" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2767,8 +2812,8 @@
       <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="11">
-        <v>3</v>
+      <c r="B23" s="12">
+        <v>5</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
@@ -2787,21 +2832,21 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O23" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N23" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="11">
-        <v>3</v>
+      <c r="B24" s="12">
+        <v>5</v>
       </c>
       <c r="C24" s="8">
         <v>5</v>
@@ -2818,21 +2863,21 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O24" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N24" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O24" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="11">
-        <v>3</v>
+      <c r="B25" s="12">
+        <v>5</v>
       </c>
       <c r="C25" s="8">
         <v>5</v>
@@ -2849,13 +2894,13 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O25" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N25" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O25" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2863,7 +2908,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="9">
         <v>5</v>
@@ -2878,13 +2923,13 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="19"/>
-      <c r="N26" s="28">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O26" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N26" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2973,7 +3018,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,7 +3032,7 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -3031,11 +3076,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7">
         <v>5</v>
@@ -3052,21 +3097,21 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f>SUM(B2:M2)</f>
-        <v>13</v>
-      </c>
-      <c r="O2" s="23">
+        <v>15</v>
+      </c>
+      <c r="O2" s="22">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="11">
-        <v>3</v>
+      <c r="B3" s="12">
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>5</v>
@@ -3081,21 +3126,21 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="27">
+      <c r="N3" s="26">
         <f t="shared" ref="N3:N30" si="0">SUM(B3:M3)</f>
-        <v>8</v>
-      </c>
-      <c r="O3" s="24">
+        <v>10</v>
+      </c>
+      <c r="O3" s="23">
         <f t="shared" ref="O3:O30" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="11">
-        <v>3</v>
+      <c r="B4" s="12">
+        <v>5</v>
       </c>
       <c r="C4" s="8">
         <v>5</v>
@@ -3110,21 +3155,21 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O4" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N4" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="11">
-        <v>3</v>
+      <c r="B5" s="12">
+        <v>5</v>
       </c>
       <c r="C5" s="8">
         <v>5</v>
@@ -3141,21 +3186,21 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O5" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N5" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="11">
-        <v>3</v>
+      <c r="B6" s="12">
+        <v>5</v>
       </c>
       <c r="C6" s="8">
         <v>5</v>
@@ -3170,21 +3215,21 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O6" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N6" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O6" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="11">
-        <v>3</v>
+      <c r="B7" s="12">
+        <v>5</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
@@ -3201,21 +3246,21 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O7" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N7" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O7" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="11">
-        <v>3</v>
+      <c r="B8" s="12">
+        <v>5</v>
       </c>
       <c r="C8" s="8">
         <v>5</v>
@@ -3232,21 +3277,21 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O8" s="24">
+      <c r="N8" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O8" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="11">
-        <v>3</v>
+      <c r="B9" s="12">
+        <v>5</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
@@ -3261,21 +3306,21 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O9" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N9" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O9" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="11">
-        <v>3</v>
+      <c r="B10" s="12">
+        <v>5</v>
       </c>
       <c r="C10" s="8">
         <v>5</v>
@@ -3292,21 +3337,21 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O10" s="24">
+      <c r="N10" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O10" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="11">
-        <v>3</v>
+      <c r="B11" s="12">
+        <v>5</v>
       </c>
       <c r="C11" s="8">
         <v>5</v>
@@ -3323,21 +3368,21 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O11" s="24">
+      <c r="N11" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O11" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="11">
-        <v>3</v>
+      <c r="B12" s="12">
+        <v>5</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1"/>
@@ -3350,21 +3395,21 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O12" s="24">
+      <c r="N12" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="11">
-        <v>3</v>
+      <c r="B13" s="12">
+        <v>5</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
@@ -3381,21 +3426,21 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O13" s="24">
+      <c r="N13" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O13" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="11">
-        <v>3</v>
+      <c r="B14" s="12">
+        <v>5</v>
       </c>
       <c r="C14" s="8">
         <v>4</v>
@@ -3412,21 +3457,21 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O14" s="24">
+      <c r="N14" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="11">
-        <v>3</v>
+      <c r="B15" s="12">
+        <v>5</v>
       </c>
       <c r="C15" s="8">
         <v>5</v>
@@ -3443,21 +3488,21 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O15" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N15" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O15" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="11">
-        <v>3</v>
+      <c r="B16" s="12">
+        <v>5</v>
       </c>
       <c r="C16" s="8">
         <v>5</v>
@@ -3474,21 +3519,21 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O16" s="24">
+      <c r="N16" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O16" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="11">
-        <v>3</v>
+      <c r="B17" s="12">
+        <v>5</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="1"/>
@@ -3501,21 +3546,21 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O17" s="24">
+      <c r="N17" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O17" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="11">
-        <v>3</v>
+      <c r="B18" s="12">
+        <v>5</v>
       </c>
       <c r="C18" s="8">
         <v>5</v>
@@ -3532,21 +3577,21 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O18" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N18" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="11">
-        <v>3</v>
+      <c r="B19" s="12">
+        <v>5</v>
       </c>
       <c r="C19" s="8">
         <v>5</v>
@@ -3563,21 +3608,21 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O19" s="24">
+      <c r="N19" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O19" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="11">
-        <v>3</v>
+      <c r="B20" s="12">
+        <v>5</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="1"/>
@@ -3590,21 +3635,21 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O20" s="24">
+      <c r="N20" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="11">
-        <v>3</v>
+      <c r="B21" s="12">
+        <v>5</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="1"/>
@@ -3617,21 +3662,21 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O21" s="24">
+      <c r="N21" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O21" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="11">
-        <v>3</v>
+      <c r="B22" s="12">
+        <v>5</v>
       </c>
       <c r="C22" s="8">
         <v>5</v>
@@ -3648,21 +3693,21 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="18"/>
-      <c r="N22" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O22" s="24">
+      <c r="N22" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O22" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="11">
-        <v>3</v>
+      <c r="B23" s="12">
+        <v>5</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
@@ -3679,21 +3724,21 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O23" s="24">
+      <c r="N23" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O23" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="11">
-        <v>3</v>
+      <c r="B24" s="12">
+        <v>5</v>
       </c>
       <c r="C24" s="8">
         <v>5</v>
@@ -3710,21 +3755,21 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O24" s="24">
+      <c r="N24" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O24" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="11">
-        <v>3</v>
+      <c r="B25" s="12">
+        <v>5</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>100</v>
@@ -3739,21 +3784,21 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O25" s="24">
+      <c r="N25" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O25" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="11">
-        <v>3</v>
+      <c r="B26" s="12">
+        <v>5</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="1"/>
@@ -3766,26 +3811,28 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="18"/>
-      <c r="N26" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O26" s="24">
+      <c r="N26" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O26" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="11">
-        <v>3</v>
+      <c r="B27" s="12">
+        <v>5</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3795,21 +3842,21 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="18"/>
-      <c r="N27" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O27" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N27" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O27" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="11">
-        <v>3</v>
+      <c r="B28" s="12">
+        <v>5</v>
       </c>
       <c r="C28" s="8">
         <v>5</v>
@@ -3826,21 +3873,21 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="18"/>
-      <c r="N28" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O28" s="24">
+      <c r="N28" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O28" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="11">
-        <v>3</v>
+      <c r="B29" s="12">
+        <v>5</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="1"/>
@@ -3853,21 +3900,21 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="18"/>
-      <c r="N29" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O29" s="24">
+      <c r="N29" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O29" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="21">
-        <v>3</v>
+      <c r="B30" s="13">
+        <v>5</v>
       </c>
       <c r="C30" s="9">
         <v>5</v>
@@ -3884,11 +3931,11 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="28">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O30" s="25">
+      <c r="N30" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O30" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DB747-A396-463E-AA03-EDB91AD579D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -343,12 +343,15 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>failed 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1057,10 +1060,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2103,8 +2106,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2114,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3005,8 +3008,8 @@
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3014,11 +3017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3091,9 @@
       <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3099,11 +3104,11 @@
       <c r="M2" s="17"/>
       <c r="N2" s="25">
         <f>SUM(B2:M2)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O2" s="22">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3116,7 +3121,9 @@
       <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3128,7 +3135,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="26">
         <f t="shared" ref="N3:N30" si="0">SUM(B3:M3)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O3" s="23">
         <f t="shared" ref="O3:O30" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
@@ -3234,8 +3241,8 @@
       <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
+      <c r="D7" s="1">
+        <v>5</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3248,7 +3255,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O7" s="23">
         <f t="shared" si="1"/>
@@ -3417,7 +3424,9 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3565,8 +3574,8 @@
       <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>100</v>
+      <c r="D18" s="1">
+        <v>5</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3579,7 +3588,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O18" s="23">
         <f t="shared" si="1"/>
@@ -3772,7 +3781,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3830,8 +3839,8 @@
       <c r="C27" s="8">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>100</v>
+      <c r="D27" s="1">
+        <v>5</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -3844,7 +3853,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O27" s="23">
         <f t="shared" si="1"/>
@@ -3951,11 +3960,11 @@
       </c>
       <c r="D31">
         <f t="shared" ref="D31:M31" si="2">COUNT(D2:D30)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
@@ -3997,8 +4006,8 @@
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DB747-A396-463E-AA03-EDB91AD579D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -346,12 +345,15 @@
   </si>
   <si>
     <t>failed 1</t>
+  </si>
+  <si>
+    <t>Mid-term</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -743,11 +745,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -781,6 +794,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1060,11 +1076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="P32" sqref="P2:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1097,7 @@
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="O1" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
@@ -1158,8 +1177,12 @@
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="29" t="str">
+        <f t="shared" ref="P2:P22" si="0">IF(N2&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1180,15 +1203,19 @@
       <c r="L3" s="1"/>
       <c r="M3" s="18"/>
       <c r="N3" s="26">
-        <f t="shared" ref="N3:N32" si="0">SUM(B3:M3)</f>
+        <f t="shared" ref="N3:N32" si="1">SUM(B3:M3)</f>
         <v>10</v>
       </c>
       <c r="O3" s="23">
-        <f t="shared" ref="O3:O32" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O3:O32" si="2">_xlfn.FLOOR.MATH(N3/10)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
@@ -1209,15 +1236,19 @@
       <c r="L4" s="1"/>
       <c r="M4" s="18"/>
       <c r="N4" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O4" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -1240,15 +1271,19 @@
       <c r="L5" s="1"/>
       <c r="M5" s="18"/>
       <c r="N5" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O5" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
@@ -1269,15 +1304,19 @@
       <c r="L6" s="1"/>
       <c r="M6" s="18"/>
       <c r="N6" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O6" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
@@ -1300,15 +1339,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="18"/>
       <c r="N7" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O7" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
@@ -1327,15 +1370,19 @@
       <c r="L8" s="1"/>
       <c r="M8" s="18"/>
       <c r="N8" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
@@ -1358,15 +1405,19 @@
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
       <c r="N9" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O9" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
@@ -1387,15 +1438,19 @@
       <c r="L10" s="1"/>
       <c r="M10" s="18"/>
       <c r="N10" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
@@ -1418,15 +1473,19 @@
       <c r="L11" s="1"/>
       <c r="M11" s="18"/>
       <c r="N11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O11" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
@@ -1445,15 +1504,19 @@
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
       <c r="N12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
@@ -1472,15 +1535,19 @@
       <c r="L13" s="1"/>
       <c r="M13" s="18"/>
       <c r="N13" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O13" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
@@ -1499,15 +1566,19 @@
       <c r="L14" s="1"/>
       <c r="M14" s="18"/>
       <c r="N14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O14" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>13</v>
       </c>
@@ -1526,15 +1597,19 @@
       <c r="L15" s="1"/>
       <c r="M15" s="18"/>
       <c r="N15" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O15" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
@@ -1555,15 +1630,19 @@
       <c r="L16" s="1"/>
       <c r="M16" s="18"/>
       <c r="N16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
@@ -1588,15 +1667,19 @@
       <c r="L17" s="1"/>
       <c r="M17" s="18"/>
       <c r="N17" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
@@ -1617,15 +1700,19 @@
       <c r="L18" s="1"/>
       <c r="M18" s="18"/>
       <c r="N18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
@@ -1648,15 +1735,19 @@
       <c r="L19" s="1"/>
       <c r="M19" s="18"/>
       <c r="N19" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
@@ -1679,15 +1770,19 @@
       <c r="L20" s="1"/>
       <c r="M20" s="18"/>
       <c r="N20" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
@@ -1708,15 +1803,19 @@
       <c r="L21" s="1"/>
       <c r="M21" s="18"/>
       <c r="N21" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
@@ -1737,15 +1836,19 @@
       <c r="L22" s="1"/>
       <c r="M22" s="18"/>
       <c r="N22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>21</v>
       </c>
@@ -1776,15 +1879,19 @@
       <c r="L23" s="1"/>
       <c r="M23" s="18"/>
       <c r="N23" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O23" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="33" t="str">
+        <f>IF(N23&gt;=25,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
@@ -1807,15 +1914,19 @@
       <c r="L24" s="1"/>
       <c r="M24" s="18"/>
       <c r="N24" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="33" t="str">
+        <f t="shared" ref="P24:P32" si="3">IF(N24&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
@@ -1838,15 +1949,19 @@
       <c r="L25" s="1"/>
       <c r="M25" s="18"/>
       <c r="N25" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>24</v>
       </c>
@@ -1869,15 +1984,19 @@
       <c r="L26" s="1"/>
       <c r="M26" s="18"/>
       <c r="N26" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O26" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>25</v>
       </c>
@@ -1898,15 +2017,19 @@
       <c r="L27" s="1"/>
       <c r="M27" s="18"/>
       <c r="N27" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O27" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>26</v>
       </c>
@@ -1931,15 +2054,19 @@
       <c r="L28" s="1"/>
       <c r="M28" s="18"/>
       <c r="N28" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>27</v>
       </c>
@@ -1960,15 +2087,19 @@
       <c r="L29" s="1"/>
       <c r="M29" s="18"/>
       <c r="N29" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O29" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>28</v>
       </c>
@@ -1987,15 +2118,19 @@
       <c r="L30" s="1"/>
       <c r="M30" s="18"/>
       <c r="N30" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O30" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>29</v>
       </c>
@@ -2020,15 +2155,19 @@
       <c r="L31" s="1"/>
       <c r="M31" s="18"/>
       <c r="N31" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O31" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>30</v>
       </c>
@@ -2047,12 +2186,16 @@
       <c r="L32" s="2"/>
       <c r="M32" s="19"/>
       <c r="N32" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O32" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -2065,49 +2208,49 @@
         <v>15</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:M33" si="2">COUNT(D4:D32)</f>
+        <f t="shared" ref="D33:M33" si="4">COUNT(D4:D32)</f>
         <v>10</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2117,11 +2260,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2274,7 @@
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2177,8 +2320,11 @@
       <c r="O1" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -2208,8 +2354,12 @@
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="29" t="str">
+        <f>IF(N2&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -2241,8 +2391,12 @@
         <f t="shared" ref="O3:O26" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="33" t="str">
+        <f>IF(N3&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
@@ -2270,8 +2424,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="33" t="str">
+        <f t="shared" ref="P4:P25" si="2">IF(N4&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
@@ -2299,8 +2457,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
@@ -2330,8 +2492,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
@@ -2363,8 +2529,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
@@ -2394,8 +2564,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
@@ -2425,8 +2599,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>39</v>
       </c>
@@ -2452,8 +2630,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
@@ -2485,8 +2667,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
@@ -2514,8 +2700,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -2545,8 +2735,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>43</v>
       </c>
@@ -2576,8 +2770,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
@@ -2605,8 +2803,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
@@ -2634,8 +2836,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
@@ -2663,8 +2869,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
@@ -2692,8 +2902,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2935,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -2752,8 +2970,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>50</v>
       </c>
@@ -2783,8 +3005,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
@@ -2810,8 +3036,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
@@ -2843,8 +3073,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>53</v>
       </c>
@@ -2874,8 +3108,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>54</v>
       </c>
@@ -2905,8 +3143,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>55</v>
       </c>
@@ -2934,8 +3176,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="21" t="str">
+        <f>IF(N30&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>COUNT(B2:B26)</f>
         <v>25</v>
@@ -2945,71 +3191,75 @@
         <v>20</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:M27" si="2">COUNT(D2:D26)</f>
+        <f t="shared" ref="D27:M27" si="3">COUNT(D2:D26)</f>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="35"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="35"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="35"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3017,11 +3267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3031,7 +3281,7 @@
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3077,8 +3327,11 @@
       <c r="O1" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>85</v>
       </c>
@@ -3110,8 +3363,12 @@
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="33" t="str">
+        <f t="shared" ref="P2:P28" si="0">IF(N2&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>57</v>
       </c>
@@ -3134,15 +3391,19 @@
       <c r="L3" s="1"/>
       <c r="M3" s="18"/>
       <c r="N3" s="26">
-        <f t="shared" ref="N3:N30" si="0">SUM(B3:M3)</f>
+        <f t="shared" ref="N3:N30" si="1">SUM(B3:M3)</f>
         <v>15</v>
       </c>
       <c r="O3" s="23">
-        <f t="shared" ref="O3:O30" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O3:O30" si="2">_xlfn.FLOOR.MATH(N3/10)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>58</v>
       </c>
@@ -3152,7 +3413,9 @@
       <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3163,15 +3426,19 @@
       <c r="L4" s="1"/>
       <c r="M4" s="18"/>
       <c r="N4" s="26">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="O4" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>59</v>
       </c>
@@ -3181,8 +3448,8 @@
       <c r="C5" s="8">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>100</v>
+      <c r="D5" s="1">
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3194,15 +3461,19 @@
       <c r="L5" s="1"/>
       <c r="M5" s="18"/>
       <c r="N5" s="26">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="O5" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>60</v>
       </c>
@@ -3223,15 +3494,19 @@
       <c r="L6" s="1"/>
       <c r="M6" s="18"/>
       <c r="N6" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O6" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>61</v>
       </c>
@@ -3254,15 +3529,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="18"/>
       <c r="N7" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O7" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>62</v>
       </c>
@@ -3285,15 +3564,19 @@
       <c r="L8" s="1"/>
       <c r="M8" s="18"/>
       <c r="N8" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O8" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>63</v>
       </c>
@@ -3314,15 +3597,19 @@
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
       <c r="N9" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O9" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>64</v>
       </c>
@@ -3345,15 +3632,19 @@
       <c r="L10" s="1"/>
       <c r="M10" s="18"/>
       <c r="N10" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O10" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>65</v>
       </c>
@@ -3376,15 +3667,19 @@
       <c r="L11" s="1"/>
       <c r="M11" s="18"/>
       <c r="N11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O11" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>66</v>
       </c>
@@ -3403,15 +3698,19 @@
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
       <c r="N12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>67</v>
       </c>
@@ -3424,8 +3723,8 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>100</v>
+      <c r="E13" s="1">
+        <v>5</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3436,15 +3735,19 @@
       <c r="L13" s="1"/>
       <c r="M13" s="18"/>
       <c r="N13" s="26">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="O13" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>68</v>
       </c>
@@ -3467,15 +3770,19 @@
       <c r="L14" s="1"/>
       <c r="M14" s="18"/>
       <c r="N14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="O14" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
@@ -3485,8 +3792,8 @@
       <c r="C15" s="8">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>100</v>
+      <c r="D15" s="1">
+        <v>5</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3498,15 +3805,19 @@
       <c r="L15" s="1"/>
       <c r="M15" s="18"/>
       <c r="N15" s="26">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="O15" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>70</v>
       </c>
@@ -3529,15 +3840,19 @@
       <c r="L16" s="1"/>
       <c r="M16" s="18"/>
       <c r="N16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>71</v>
       </c>
@@ -3556,15 +3871,19 @@
       <c r="L17" s="1"/>
       <c r="M17" s="18"/>
       <c r="N17" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>72</v>
       </c>
@@ -3587,15 +3906,19 @@
       <c r="L18" s="1"/>
       <c r="M18" s="18"/>
       <c r="N18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>73</v>
       </c>
@@ -3618,15 +3941,19 @@
       <c r="L19" s="1"/>
       <c r="M19" s="18"/>
       <c r="N19" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>74</v>
       </c>
@@ -3645,15 +3972,19 @@
       <c r="L20" s="1"/>
       <c r="M20" s="18"/>
       <c r="N20" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>75</v>
       </c>
@@ -3672,15 +4003,19 @@
       <c r="L21" s="1"/>
       <c r="M21" s="18"/>
       <c r="N21" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>76</v>
       </c>
@@ -3703,15 +4038,19 @@
       <c r="L22" s="1"/>
       <c r="M22" s="18"/>
       <c r="N22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>77</v>
       </c>
@@ -3734,15 +4073,19 @@
       <c r="L23" s="1"/>
       <c r="M23" s="18"/>
       <c r="N23" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O23" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>78</v>
       </c>
@@ -3765,15 +4108,19 @@
       <c r="L24" s="1"/>
       <c r="M24" s="18"/>
       <c r="N24" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>79</v>
       </c>
@@ -3794,15 +4141,19 @@
       <c r="L25" s="1"/>
       <c r="M25" s="18"/>
       <c r="N25" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>80</v>
       </c>
@@ -3821,15 +4172,19 @@
       <c r="L26" s="1"/>
       <c r="M26" s="18"/>
       <c r="N26" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O26" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>81</v>
       </c>
@@ -3852,15 +4207,19 @@
       <c r="L27" s="1"/>
       <c r="M27" s="18"/>
       <c r="N27" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O27" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>82</v>
       </c>
@@ -3883,15 +4242,19 @@
       <c r="L28" s="1"/>
       <c r="M28" s="18"/>
       <c r="N28" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>83</v>
       </c>
@@ -3910,15 +4273,19 @@
       <c r="L29" s="1"/>
       <c r="M29" s="18"/>
       <c r="N29" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O29" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="33" t="str">
+        <f>IF(N29&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>84</v>
       </c>
@@ -3941,15 +4308,19 @@
       <c r="L30" s="2"/>
       <c r="M30" s="19"/>
       <c r="N30" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O30" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="21" t="str">
+        <f>IF(N30&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>COUNT(B2:B30)</f>
         <v>29</v>
@@ -3959,55 +4330,55 @@
         <v>22</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:M31" si="2">COUNT(D2:D30)</f>
-        <v>16</v>
+        <f t="shared" ref="D31:M31" si="3">COUNT(D2:D30)</f>
+        <v>19</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB593F9-B62E-4D5A-A4F0-515706CEA85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -353,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1076,11 +1078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P32" sqref="P2:P32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1263,9 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="18"/>
       <c r="H5" s="12"/>
@@ -1585,7 +1589,9 @@
       <c r="B15" s="12">
         <v>5</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1760,7 +1766,9 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="18"/>
       <c r="H20" s="12"/>
@@ -2249,8 +2257,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
+  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2260,11 +2268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,7 +3166,9 @@
       <c r="C26" s="9">
         <v>5</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3258,8 +3268,8 @@
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
-  <sortState ref="A2:B26">
+  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3267,7 +3277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4377,8 +4387,8 @@
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
-  <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB593F9-B62E-4D5A-A4F0-515706CEA85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E2F8B-A134-4154-958D-68D1CA4307A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -801,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,8 +1227,12 @@
       <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="18"/>
       <c r="H4" s="12"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B805-Teacher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E2F8B-A134-4154-958D-68D1CA4307A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="1335" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -355,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1078,18 +1077,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1162,7 +1161,9 @@
       <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="17"/>
       <c r="H2" s="11"/>
@@ -1173,11 +1174,11 @@
       <c r="M2" s="17"/>
       <c r="N2" s="25">
         <f>SUM(B2:M2)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O2" s="22">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="29" t="str">
         <f t="shared" ref="P2:P22" si="0">IF(N2&gt;=25,"pass","fail")</f>
@@ -1194,7 +1195,9 @@
       <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="18"/>
@@ -1206,7 +1209,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="26">
         <f t="shared" ref="N3:N32" si="1">SUM(B3:M3)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O3" s="23">
         <f t="shared" ref="O3:O32" si="2">_xlfn.FLOOR.MATH(N3/10)</f>
@@ -1227,8 +1230,8 @@
       <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>100</v>
+      <c r="D4" s="1">
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>100</v>
@@ -1243,7 +1246,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O4" s="23">
         <f t="shared" si="2"/>
@@ -1267,8 +1270,8 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>100</v>
+      <c r="E5" s="1">
+        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="18"/>
@@ -1280,11 +1283,11 @@
       <c r="M5" s="18"/>
       <c r="N5" s="26">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O5" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="33" t="str">
         <f t="shared" si="0"/>
@@ -1299,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1331,8 +1334,8 @@
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>100</v>
+      <c r="C7" s="8">
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>100</v>
@@ -1348,11 +1351,11 @@
       <c r="M7" s="18"/>
       <c r="N7" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O7" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="33" t="str">
         <f t="shared" si="0"/>
@@ -1471,7 +1474,9 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="18"/>
       <c r="H11" s="12"/>
@@ -1482,11 +1487,11 @@
       <c r="M11" s="18"/>
       <c r="N11" s="26">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O11" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="33" t="str">
         <f t="shared" si="0"/>
@@ -1629,7 +1634,9 @@
       <c r="C16" s="8">
         <v>5</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="18"/>
@@ -1641,7 +1648,7 @@
       <c r="M16" s="18"/>
       <c r="N16" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O16" s="23">
         <f t="shared" si="2"/>
@@ -1665,8 +1672,8 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>100</v>
+      <c r="E17" s="1">
+        <v>5</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="18"/>
@@ -1678,11 +1685,11 @@
       <c r="M17" s="18"/>
       <c r="N17" s="26">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O17" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="33" t="str">
         <f t="shared" si="0"/>
@@ -1696,10 +1703,12 @@
       <c r="B18" s="12">
         <v>5</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="C18" s="8">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="18"/>
@@ -1711,11 +1720,11 @@
       <c r="M18" s="18"/>
       <c r="N18" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O18" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="33" t="str">
         <f t="shared" si="0"/>
@@ -1770,8 +1779,8 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>100</v>
+      <c r="E20" s="1">
+        <v>5</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="18"/>
@@ -1783,11 +1792,11 @@
       <c r="M20" s="18"/>
       <c r="N20" s="26">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O20" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="33" t="str">
         <f t="shared" si="0"/>
@@ -1801,8 +1810,8 @@
       <c r="B21" s="12">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>100</v>
+      <c r="C21" s="8">
+        <v>5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1816,11 +1825,11 @@
       <c r="M21" s="18"/>
       <c r="N21" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O21" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="33" t="str">
         <f t="shared" si="0"/>
@@ -1837,7 +1846,9 @@
       <c r="C22" s="8">
         <v>5</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="18"/>
@@ -1849,7 +1860,7 @@
       <c r="M22" s="18"/>
       <c r="N22" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O22" s="23">
         <f t="shared" si="2"/>
@@ -1879,8 +1890,8 @@
       <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>100</v>
+      <c r="G23" s="18">
+        <v>5</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="8" t="s">
@@ -1892,11 +1903,11 @@
       <c r="M23" s="18"/>
       <c r="N23" s="26">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O23" s="23">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" s="33" t="str">
         <f>IF(N23&gt;=25,"pass","fail")</f>
@@ -1916,7 +1927,9 @@
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="18"/>
       <c r="H24" s="12"/>
@@ -1927,11 +1940,11 @@
       <c r="M24" s="18"/>
       <c r="N24" s="26">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O24" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="33" t="str">
         <f t="shared" ref="P24:P32" si="3">IF(N24&gt;=25,"pass","fail")</f>
@@ -1983,8 +1996,8 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>100</v>
+      <c r="D26" s="1">
+        <v>5</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1997,7 +2010,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O26" s="23">
         <f t="shared" si="2"/>
@@ -2015,8 +2028,8 @@
       <c r="B27" s="12">
         <v>5</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>100</v>
+      <c r="C27" s="8">
+        <v>5</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2030,11 +2043,11 @@
       <c r="M27" s="18"/>
       <c r="N27" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O27" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="33" t="str">
         <f t="shared" si="3"/>
@@ -2054,8 +2067,8 @@
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>100</v>
+      <c r="E28" s="1">
+        <v>5</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="18"/>
@@ -2067,11 +2080,11 @@
       <c r="M28" s="18"/>
       <c r="N28" s="26">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O28" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="33" t="str">
         <f t="shared" si="3"/>
@@ -2152,8 +2165,8 @@
       <c r="C31" s="8">
         <v>5</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>100</v>
+      <c r="D31" s="1">
+        <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>100</v>
@@ -2168,7 +2181,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O31" s="23">
         <f t="shared" si="2"/>
@@ -2217,15 +2230,15 @@
       </c>
       <c r="C33">
         <f>COUNT(C4:C32)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:M33" si="4">COUNT(D4:D32)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
@@ -2233,7 +2246,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
@@ -2261,8 +2274,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <autoFilter ref="A1:B32">
+    <sortState ref="A2:B32">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2272,7 +2285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3272,8 +3285,8 @@
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <autoFilter ref="A1:B26"/>
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3281,7 +3294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4391,8 +4404,8 @@
       <c r="O32" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <autoFilter ref="A1:B30"/>
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="1335" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -1080,25 +1080,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -1294,15 +1294,15 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>101</v>
+      <c r="C6" s="8">
+        <v>5</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1316,18 +1316,18 @@
       <c r="M6" s="18"/>
       <c r="N6" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O6" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>13</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>21</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>24</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>26</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>27</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>28</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>30</v>
       </c>
@@ -2223,14 +2223,14 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>COUNT(B4:B32)</f>
         <v>29</v>
       </c>
       <c r="C33">
         <f>COUNT(C4:C32)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:M33" si="4">COUNT(D4:D32)</f>
@@ -2288,18 +2288,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -2359,8 +2359,8 @@
       <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>100</v>
+      <c r="D2" s="3">
+        <v>5</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2373,7 +2373,7 @@
       <c r="M2" s="17"/>
       <c r="N2" s="25">
         <f>SUM(B2:M2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O2" s="22">
         <f>_xlfn.FLOOR.MATH(N2/10)</f>
@@ -2384,7 +2384,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -2397,8 +2397,8 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>100</v>
+      <c r="E3" s="1">
+        <v>5</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2410,18 +2410,18 @@
       <c r="M3" s="18"/>
       <c r="N3" s="26">
         <f t="shared" ref="N3:N26" si="0">SUM(B3:M3)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O3" s="23">
         <f t="shared" ref="O3:O26" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="33" t="str">
         <f>IF(N3&gt;=25,"pass","fail")</f>
         <v>fail</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
@@ -2464,7 +2464,9 @@
       <c r="C5" s="8">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2476,7 +2478,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O5" s="23">
         <f t="shared" si="1"/>
@@ -2487,7 +2489,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
@@ -2497,8 +2499,8 @@
       <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>100</v>
+      <c r="D6" s="1">
+        <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2511,7 +2513,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O6" s="23">
         <f t="shared" si="1"/>
@@ -2522,7 +2524,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
@@ -2535,10 +2537,12 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2548,18 +2552,18 @@
       <c r="M7" s="18"/>
       <c r="N7" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O7" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
@@ -2569,8 +2573,8 @@
       <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>100</v>
+      <c r="D8" s="1">
+        <v>5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2583,7 +2587,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O8" s="23">
         <f t="shared" si="1"/>
@@ -2594,7 +2598,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>39</v>
       </c>
@@ -2660,15 +2664,15 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>100</v>
+      <c r="C11" s="8">
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>100</v>
@@ -2686,18 +2690,18 @@
       <c r="M11" s="18"/>
       <c r="N11" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O11" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
@@ -2707,7 +2711,9 @@
       <c r="C12" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2719,7 +2725,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O12" s="23">
         <f t="shared" si="1"/>
@@ -2730,7 +2736,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -2740,8 +2746,8 @@
       <c r="C13" s="8">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>100</v>
+      <c r="D13" s="1">
+        <v>5</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2754,7 +2760,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O13" s="23">
         <f t="shared" si="1"/>
@@ -2765,7 +2771,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>43</v>
       </c>
@@ -2775,8 +2781,8 @@
       <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>100</v>
+      <c r="D14" s="1">
+        <v>5</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2789,7 +2795,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O14" s="23">
         <f t="shared" si="1"/>
@@ -2800,15 +2806,15 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="12">
         <v>5</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>100</v>
+      <c r="C15" s="8">
+        <v>5</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2822,18 +2828,18 @@
       <c r="M15" s="18"/>
       <c r="N15" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="33" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
@@ -2866,15 +2872,15 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="12">
         <v>5</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>100</v>
+      <c r="C17" s="8">
+        <v>5</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2888,18 +2894,18 @@
       <c r="M17" s="18"/>
       <c r="N17" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O17" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="33" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
@@ -2909,7 +2915,9 @@
       <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2921,7 +2929,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O18" s="23">
         <f t="shared" si="1"/>
@@ -2932,7 +2940,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
@@ -2965,7 +2973,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -2975,8 +2983,8 @@
       <c r="C20" s="8">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>100</v>
+      <c r="D20" s="1">
+        <v>5</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2989,7 +2997,7 @@
       <c r="M20" s="18"/>
       <c r="N20" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O20" s="23">
         <f t="shared" si="1"/>
@@ -3000,7 +3008,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>50</v>
       </c>
@@ -3010,8 +3018,8 @@
       <c r="C21" s="8">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>100</v>
+      <c r="D21" s="1">
+        <v>5</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3024,7 +3032,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O21" s="23">
         <f t="shared" si="1"/>
@@ -3035,14 +3043,16 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3055,18 +3065,18 @@
       <c r="M22" s="18"/>
       <c r="N22" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O22" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="33" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
@@ -3076,8 +3086,8 @@
       <c r="C23" s="8">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>100</v>
+      <c r="D23" s="1">
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>100</v>
@@ -3092,7 +3102,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O23" s="23">
         <f t="shared" si="1"/>
@@ -3103,7 +3113,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>53</v>
       </c>
@@ -3113,8 +3123,8 @@
       <c r="C24" s="8">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>100</v>
+      <c r="D24" s="1">
+        <v>5</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3127,7 +3137,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O24" s="23">
         <f t="shared" si="1"/>
@@ -3138,7 +3148,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>54</v>
       </c>
@@ -3148,8 +3158,8 @@
       <c r="C25" s="8">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>100</v>
+      <c r="D25" s="1">
+        <v>5</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3162,7 +3172,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O25" s="23">
         <f t="shared" si="1"/>
@@ -3173,7 +3183,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>55</v>
       </c>
@@ -3183,8 +3193,8 @@
       <c r="C26" s="9">
         <v>5</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>100</v>
+      <c r="D26" s="2">
+        <v>5</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3197,7 +3207,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O26" s="24">
         <f t="shared" si="1"/>
@@ -3208,26 +3218,26 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <f>COUNT(B2:B26)</f>
         <v>25</v>
       </c>
       <c r="C27">
         <f>COUNT(C2:C26)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:M27" si="3">COUNT(D2:D26)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -3261,26 +3271,26 @@
       <c r="O27" s="14"/>
       <c r="P27" s="35"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="35"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="35"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
@@ -3301,14 +3311,14 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3358,7 +3368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>85</v>
       </c>
@@ -3395,7 +3405,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>57</v>
       </c>
@@ -3430,7 +3440,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>58</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>59</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>60</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>61</v>
       </c>
@@ -3568,7 +3578,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>62</v>
       </c>
@@ -3603,7 +3613,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>63</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>64</v>
       </c>
@@ -3671,7 +3681,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>65</v>
       </c>
@@ -3706,7 +3716,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>66</v>
       </c>
@@ -3737,7 +3747,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>67</v>
       </c>
@@ -3774,7 +3784,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>68</v>
       </c>
@@ -3809,7 +3819,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>70</v>
       </c>
@@ -3879,7 +3889,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>71</v>
       </c>
@@ -3910,7 +3920,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>72</v>
       </c>
@@ -3945,7 +3955,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>73</v>
       </c>
@@ -3980,7 +3990,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>74</v>
       </c>
@@ -4011,7 +4021,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>75</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>76</v>
       </c>
@@ -4077,7 +4087,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>77</v>
       </c>
@@ -4112,7 +4122,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>78</v>
       </c>
@@ -4147,7 +4157,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>79</v>
       </c>
@@ -4180,7 +4190,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>80</v>
       </c>
@@ -4211,7 +4221,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>81</v>
       </c>
@@ -4246,7 +4256,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>82</v>
       </c>
@@ -4281,7 +4291,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>83</v>
       </c>
@@ -4312,7 +4322,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>84</v>
       </c>
@@ -4347,7 +4357,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>COUNT(B2:B30)</f>
         <v>29</v>
@@ -4399,7 +4409,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B805-Teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Акимов Дмитрий Дмитриевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Acquaintance with GitHub </t>
-  </si>
-  <si>
     <t>1st lab</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>Recommended mark</t>
   </si>
   <si>
-    <t>Half-term CW</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -349,6 +343,12 @@
   </si>
   <si>
     <t>Mid-term</t>
+  </si>
+  <si>
+    <t>0th lab</t>
+  </si>
+  <si>
+    <t>Exam-pass</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -482,10 +482,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -495,7 +493,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -509,7 +509,202 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -519,9 +714,18 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -531,23 +735,21 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -556,25 +758,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -591,7 +778,20 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -600,8 +800,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -612,7 +816,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -624,11 +828,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -637,10 +843,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -652,152 +873,87 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1081,118 +1237,121 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="38" t="s">
         <v>95</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="25">
-        <f>SUM(B2:M2)</f>
+      <c r="B2" s="17">
+        <v>5</v>
+      </c>
+      <c r="C2" s="40">
+        <v>5</v>
+      </c>
+      <c r="D2" s="41">
+        <v>5</v>
+      </c>
+      <c r="E2" s="41">
+        <v>5</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="32">
+        <f>SUM(B2:L2)</f>
         <v>20</v>
       </c>
-      <c r="O2" s="22">
-        <f>_xlfn.FLOOR.MATH(N2/10)</f>
+      <c r="N2" s="17" t="str">
+        <f>IF(M2&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O2" s="35" t="str">
+        <f>IF(M2&gt;=35,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="P2" s="19">
+        <f>_xlfn.FLOOR.MATH(M2/10)</f>
         <v>2</v>
       </c>
-      <c r="P2" s="29" t="str">
-        <f t="shared" ref="P2:P22" si="0">IF(N2&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="44">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -1200,71 +1359,77 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="26">
-        <f t="shared" ref="N3:N32" si="1">SUM(B3:M3)</f>
+      <c r="L3" s="45"/>
+      <c r="M3" s="33">
+        <f>SUM(B3:L3)</f>
         <v>15</v>
       </c>
-      <c r="O3" s="23">
-        <f t="shared" ref="O3:O32" si="2">_xlfn.FLOOR.MATH(N3/10)</f>
-        <v>1</v>
-      </c>
-      <c r="P3" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="N3" s="10" t="str">
+        <f>IF(M3&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O3" s="36" t="str">
+        <f t="shared" ref="O3:O32" si="0">IF(M3&gt;=35,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="P3" s="20">
+        <f>_xlfn.FLOOR.MATH(M3/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="44">
         <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="26">
-        <f t="shared" si="1"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="33">
+        <f>SUM(B4:L4)</f>
         <v>15</v>
       </c>
-      <c r="O4" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P4" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="N4" s="10" t="str">
+        <f>IF(M4&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O4" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P4" s="20">
+        <f>_xlfn.FLOOR.MATH(M4/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="44">
         <v>5</v>
       </c>
       <c r="D5" s="1">
@@ -1274,133 +1439,145 @@
         <v>5</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="26">
-        <f t="shared" si="1"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="33">
+        <f>SUM(B5:L5)</f>
         <v>20</v>
       </c>
-      <c r="O5" s="23">
-        <f t="shared" si="2"/>
+      <c r="N5" s="10" t="str">
+        <f>IF(M5&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P5" s="20">
+        <f>_xlfn.FLOOR.MATH(M5/10)</f>
         <v>2</v>
       </c>
-      <c r="P5" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="44">
         <v>5</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="8"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="26">
-        <f t="shared" si="1"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="33">
+        <f>SUM(B6:L6)</f>
         <v>10</v>
       </c>
-      <c r="O6" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="N6" s="10" t="str">
+        <f>IF(M6&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P6" s="20">
+        <f>_xlfn.FLOOR.MATH(M6/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="44">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="26">
-        <f t="shared" si="1"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="33">
+        <f>SUM(B7:L7)</f>
         <v>10</v>
       </c>
-      <c r="O7" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P7" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="N7" s="10" t="str">
+        <f>IF(M7&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P7" s="20">
+        <f>_xlfn.FLOOR.MATH(M7/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8"/>
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="44"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O8" s="23">
-        <f t="shared" si="2"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="33">
+        <f>SUM(B8:L8)</f>
+        <v>5</v>
+      </c>
+      <c r="N8" s="10" t="str">
+        <f>IF(M8&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P8" s="20">
+        <f>_xlfn.FLOOR.MATH(M8/10)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="44">
         <v>5</v>
       </c>
       <c r="D9" s="1">
@@ -1408,67 +1585,73 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="26">
-        <f t="shared" si="1"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="33">
+        <f>SUM(B9:L9)</f>
         <v>15</v>
       </c>
-      <c r="O9" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="N9" s="10" t="str">
+        <f>IF(M9&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P9" s="20">
+        <f>_xlfn.FLOOR.MATH(M9/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>100</v>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O10" s="23">
-        <f t="shared" si="2"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="33">
+        <f>SUM(B10:L10)</f>
+        <v>5</v>
+      </c>
+      <c r="N10" s="10" t="str">
+        <f>IF(M10&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P10" s="20">
+        <f>_xlfn.FLOOR.MATH(M10/10)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="44">
         <v>5</v>
       </c>
       <c r="D11" s="1">
@@ -1478,160 +1661,175 @@
         <v>5</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="26">
-        <f t="shared" si="1"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="33">
+        <f>SUM(B11:L11)</f>
         <v>20</v>
       </c>
-      <c r="O11" s="23">
-        <f t="shared" si="2"/>
+      <c r="N11" s="10" t="str">
+        <f>IF(M11&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P11" s="20">
+        <f>_xlfn.FLOOR.MATH(M11/10)</f>
         <v>2</v>
       </c>
-      <c r="P11" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O12" s="23">
-        <f t="shared" si="2"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="33">
+        <f>SUM(B12:L12)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="N12" s="10" t="str">
+        <f>IF(M12&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P12" s="20">
+        <f>_xlfn.FLOOR.MATH(M12/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="B13" s="10">
+        <v>5</v>
+      </c>
+      <c r="C13" s="44"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O13" s="23">
-        <f t="shared" si="2"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="33">
+        <f>SUM(B13:L13)</f>
+        <v>5</v>
+      </c>
+      <c r="N13" s="10" t="str">
+        <f>IF(M13&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P13" s="20">
+        <f>_xlfn.FLOOR.MATH(M13/10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>98</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O14" s="23">
-        <f t="shared" si="2"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="33">
+        <f>SUM(B14:L14)</f>
+        <v>5</v>
+      </c>
+      <c r="N14" s="10" t="str">
+        <f>IF(M14&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P14" s="20">
+        <f>_xlfn.FLOOR.MATH(M14/10)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>100</v>
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O15" s="23">
-        <f t="shared" si="2"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="33">
+        <f>SUM(B15:L15)</f>
+        <v>5</v>
+      </c>
+      <c r="N15" s="10" t="str">
+        <f>IF(M15&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P15" s="20">
+        <f>_xlfn.FLOOR.MATH(M15/10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="10">
+        <v>5</v>
+      </c>
+      <c r="C16" s="44">
         <v>5</v>
       </c>
       <c r="D16" s="1">
@@ -1639,34 +1837,37 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="26">
-        <f t="shared" si="1"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="33">
+        <f>SUM(B16:L16)</f>
         <v>15</v>
       </c>
-      <c r="O16" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="N16" s="10" t="str">
+        <f>IF(M16&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P16" s="20">
+        <f>_xlfn.FLOOR.MATH(M16/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="10">
+        <v>5</v>
+      </c>
+      <c r="C17" s="44">
         <v>5</v>
       </c>
       <c r="D17" s="1">
@@ -1676,34 +1877,37 @@
         <v>5</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="26">
-        <f t="shared" si="1"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="33">
+        <f>SUM(B17:L17)</f>
         <v>20</v>
       </c>
-      <c r="O17" s="23">
-        <f t="shared" si="2"/>
+      <c r="N17" s="10" t="str">
+        <f>IF(M17&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P17" s="20">
+        <f>_xlfn.FLOOR.MATH(M17/10)</f>
         <v>2</v>
       </c>
-      <c r="P17" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
-        <v>5</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" s="44">
         <v>5</v>
       </c>
       <c r="D18" s="1">
@@ -1711,34 +1915,37 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="26">
-        <f t="shared" si="1"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="33">
+        <f>SUM(B18:L18)</f>
         <v>15</v>
       </c>
-      <c r="O18" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="N18" s="10" t="str">
+        <f>IF(M18&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P18" s="20">
+        <f>_xlfn.FLOOR.MATH(M18/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="44">
         <v>5</v>
       </c>
       <c r="D19" s="1">
@@ -1746,34 +1953,37 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="26">
-        <f t="shared" si="1"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="33">
+        <f>SUM(B19:L19)</f>
         <v>15</v>
       </c>
-      <c r="O19" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="N19" s="10" t="str">
+        <f>IF(M19&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P19" s="20">
+        <f>_xlfn.FLOOR.MATH(M19/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" s="44">
         <v>5</v>
       </c>
       <c r="D20" s="1">
@@ -1783,67 +1993,73 @@
         <v>5</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="26">
-        <f t="shared" si="1"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="33">
+        <f>SUM(B20:L20)</f>
         <v>20</v>
       </c>
-      <c r="O20" s="23">
-        <f t="shared" si="2"/>
+      <c r="N20" s="10" t="str">
+        <f>IF(M20&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P20" s="20">
+        <f>_xlfn.FLOOR.MATH(M20/10)</f>
         <v>2</v>
       </c>
-      <c r="P20" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="44">
         <v>5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="26">
-        <f t="shared" si="1"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="33">
+        <f>SUM(B21:L21)</f>
         <v>10</v>
       </c>
-      <c r="O21" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="N21" s="10" t="str">
+        <f>IF(M21&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P21" s="20">
+        <f>_xlfn.FLOOR.MATH(M21/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="10">
+        <v>5</v>
+      </c>
+      <c r="C22" s="44">
         <v>5</v>
       </c>
       <c r="D22" s="1">
@@ -1851,34 +2067,37 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="26">
-        <f t="shared" si="1"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="33">
+        <f>SUM(B22:L22)</f>
         <v>15</v>
       </c>
-      <c r="O22" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="N22" s="10" t="str">
+        <f>IF(M22&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O22" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P22" s="20">
+        <f>_xlfn.FLOOR.MATH(M22/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="44">
         <v>5</v>
       </c>
       <c r="D23" s="1">
@@ -1890,38 +2109,41 @@
       <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="18">
-        <v>5</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="G23" s="15">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="26">
-        <f t="shared" si="1"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="33">
+        <f>SUM(B23:L23)</f>
         <v>30</v>
       </c>
-      <c r="O23" s="23">
-        <f t="shared" si="2"/>
+      <c r="N23" s="10" t="str">
+        <f>IF(M23&gt;=25,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="O23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P23" s="20">
+        <f>_xlfn.FLOOR.MATH(M23/10)</f>
         <v>3</v>
       </c>
-      <c r="P23" s="33" t="str">
-        <f>IF(N23&gt;=25,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="10">
+        <v>5</v>
+      </c>
+      <c r="C24" s="44">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -1931,34 +2153,37 @@
         <v>5</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="26">
-        <f t="shared" si="1"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="33">
+        <f>SUM(B24:L24)</f>
         <v>20</v>
       </c>
-      <c r="O24" s="23">
-        <f t="shared" si="2"/>
+      <c r="N24" s="10" t="str">
+        <f>IF(M24&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O24" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P24" s="20">
+        <f>_xlfn.FLOOR.MATH(M24/10)</f>
         <v>2</v>
       </c>
-      <c r="P24" s="33" t="str">
-        <f t="shared" ref="P24:P32" si="3">IF(N24&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="44">
         <v>5</v>
       </c>
       <c r="D25" s="1">
@@ -1966,34 +2191,37 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="26">
-        <f t="shared" si="1"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="33">
+        <f>SUM(B25:L25)</f>
         <v>15</v>
       </c>
-      <c r="O25" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="N25" s="10" t="str">
+        <f>IF(M25&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O25" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P25" s="20">
+        <f>_xlfn.FLOOR.MATH(M25/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="12">
-        <v>5</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" s="44">
         <v>5</v>
       </c>
       <c r="D26" s="1">
@@ -2001,67 +2229,73 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="26">
-        <f t="shared" si="1"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="33">
+        <f>SUM(B26:L26)</f>
         <v>15</v>
       </c>
-      <c r="O26" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P26" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="N26" s="10" t="str">
+        <f>IF(M26&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O26" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P26" s="20">
+        <f>_xlfn.FLOOR.MATH(M26/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="12">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="10">
+        <v>5</v>
+      </c>
+      <c r="C27" s="44">
         <v>5</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="26">
-        <f t="shared" si="1"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="33">
+        <f>SUM(B27:L27)</f>
         <v>10</v>
       </c>
-      <c r="O27" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P27" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="N27" s="10" t="str">
+        <f>IF(M27&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O27" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P27" s="20">
+        <f>_xlfn.FLOOR.MATH(M27/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12">
-        <v>5</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="10">
+        <v>5</v>
+      </c>
+      <c r="C28" s="44">
         <v>5</v>
       </c>
       <c r="D28" s="1">
@@ -2071,214 +2305,218 @@
         <v>5</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="26">
-        <f t="shared" si="1"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="33">
+        <f>SUM(B28:L28)</f>
         <v>20</v>
       </c>
-      <c r="O28" s="23">
-        <f t="shared" si="2"/>
+      <c r="N28" s="10" t="str">
+        <f>IF(M28&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O28" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P28" s="20">
+        <f>_xlfn.FLOOR.MATH(M28/10)</f>
         <v>2</v>
       </c>
-      <c r="P28" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="12">
-        <v>5</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>100</v>
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O29" s="23">
-        <f t="shared" si="2"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="33">
+        <f>SUM(B29:L29)</f>
+        <v>5</v>
+      </c>
+      <c r="N29" s="10" t="str">
+        <f>IF(M29&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O29" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P29" s="20">
+        <f>_xlfn.FLOOR.MATH(M29/10)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="12">
-        <v>5</v>
-      </c>
-      <c r="C30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O30" s="23">
-        <f t="shared" si="2"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="33">
+        <f>SUM(B30:L30)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="N30" s="10" t="str">
+        <f>IF(M30&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O30" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P30" s="20">
+        <f>_xlfn.FLOOR.MATH(M30/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="12">
-        <v>5</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="44">
         <v>5</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="26">
-        <f t="shared" si="1"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="33">
+        <f>SUM(B31:L31)</f>
         <v>15</v>
       </c>
-      <c r="O31" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P31" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
+      <c r="N31" s="10" t="str">
+        <f>IF(M31&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O31" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P31" s="20">
+        <f>_xlfn.FLOOR.MATH(M31/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="13">
-        <v>5</v>
-      </c>
-      <c r="C32" s="9"/>
+      <c r="B32" s="11">
+        <v>5</v>
+      </c>
+      <c r="C32" s="46"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="9"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="27">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O32" s="24">
-        <f t="shared" si="2"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="34">
+        <f>SUM(B32:L32)</f>
+        <v>5</v>
+      </c>
+      <c r="N32" s="11" t="str">
+        <f>IF(M32&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O32" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P32" s="21">
+        <f>_xlfn.FLOOR.MATH(M32/10)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>COUNT(B4:B32)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <f>COUNT(C4:C32)</f>
         <v>20</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:M33" si="4">COUNT(D4:D32)</f>
+        <f t="shared" ref="D33:L33" si="1">COUNT(D4:D32)</f>
         <v>16</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32">
-    <sortState ref="A2:B32">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2288,41 +2526,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>92</v>
@@ -2339,24 +2578,24 @@
       <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="29">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="26">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="3">
@@ -2369,29 +2608,32 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="25">
-        <f>SUM(B2:M2)</f>
+      <c r="L2" s="14"/>
+      <c r="M2" s="22">
+        <f>SUM(B2:L2)</f>
         <v>15</v>
       </c>
-      <c r="O2" s="22">
-        <f>_xlfn.FLOOR.MATH(N2/10)</f>
-        <v>1</v>
-      </c>
-      <c r="P2" s="29" t="str">
-        <f>IF(N2&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="N2" s="17" t="str">
+        <f>IF(M2&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O2" s="35" t="str">
+        <f>IF(M2&gt;=35,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="P2" s="49">
+        <f>_xlfn.FLOOR.MATH(M2/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="12">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -2406,29 +2648,32 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="26">
-        <f t="shared" ref="N3:N26" si="0">SUM(B3:M3)</f>
+      <c r="L3" s="15"/>
+      <c r="M3" s="23">
+        <f>SUM(B3:L3)</f>
         <v>20</v>
       </c>
-      <c r="O3" s="23">
-        <f t="shared" ref="O3:O26" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
+      <c r="N3" s="10" t="str">
+        <f>IF(M3&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O3" s="36" t="str">
+        <f t="shared" ref="O3:O32" si="0">IF(M3&gt;=35,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="P3" s="20">
+        <f>_xlfn.FLOOR.MATH(M3/10)</f>
         <v>2</v>
       </c>
-      <c r="P3" s="33" t="str">
-        <f>IF(N3&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
@@ -2439,29 +2684,32 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="26">
-        <f t="shared" si="0"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="23">
+        <f>SUM(B4:L4)</f>
         <v>10</v>
       </c>
-      <c r="O4" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P4" s="33" t="str">
-        <f t="shared" ref="P4:P25" si="2">IF(N4&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="N4" s="10" t="str">
+        <f>IF(M4&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O4" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P4" s="20">
+        <f>_xlfn.FLOOR.MATH(M4/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
         <v>5</v>
       </c>
       <c r="D5" s="1">
@@ -2474,29 +2722,32 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="26">
-        <f t="shared" si="0"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="23">
+        <f>SUM(B5:L5)</f>
         <v>15</v>
       </c>
-      <c r="O5" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P5" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="N5" s="10" t="str">
+        <f>IF(M5&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P5" s="20">
+        <f>_xlfn.FLOOR.MATH(M5/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="1">
@@ -2509,29 +2760,32 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="26">
-        <f t="shared" si="0"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="23">
+        <f>SUM(B6:L6)</f>
         <v>15</v>
       </c>
-      <c r="O6" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="N6" s="10" t="str">
+        <f>IF(M6&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P6" s="20">
+        <f>_xlfn.FLOOR.MATH(M6/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="1">
@@ -2548,29 +2802,32 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="26">
-        <f t="shared" si="0"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="23">
+        <f>SUM(B7:L7)</f>
         <v>25</v>
       </c>
-      <c r="O7" s="23">
-        <f t="shared" si="1"/>
+      <c r="N7" s="10" t="str">
+        <f>IF(M7&gt;=25,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="O7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P7" s="20">
+        <f>_xlfn.FLOOR.MATH(M7/10)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="12">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
         <v>5</v>
       </c>
       <c r="D8" s="1">
@@ -2583,33 +2840,36 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="26">
-        <f t="shared" si="0"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="23">
+        <f>SUM(B8:L8)</f>
         <v>15</v>
       </c>
-      <c r="O8" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="N8" s="10" t="str">
+        <f>IF(M8&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P8" s="20">
+        <f>_xlfn.FLOOR.MATH(M8/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2618,29 +2878,30 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="26">
-        <f t="shared" si="0"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="23">
+        <f>SUM(B9:L9)</f>
         <v>10</v>
       </c>
-      <c r="O9" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="N9" s="10" t="str">
+        <f>IF(M9&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P9" s="20">
+        <f>_xlfn.FLOOR.MATH(M9/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="12">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2649,36 +2910,39 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O10" s="23">
-        <f t="shared" si="1"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="23">
+        <f>SUM(B10:L10)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="N10" s="10" t="str">
+        <f>IF(M10&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P10" s="20">
+        <f>_xlfn.FLOOR.MATH(M10/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="12">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2686,29 +2950,32 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="26">
-        <f t="shared" si="0"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="23">
+        <f>SUM(B11:L11)</f>
         <v>10</v>
       </c>
-      <c r="O11" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P11" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="N11" s="10" t="str">
+        <f>IF(M11&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P11" s="20">
+        <f>_xlfn.FLOOR.MATH(M11/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="10">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
         <v>5</v>
       </c>
       <c r="D12" s="1">
@@ -2721,29 +2988,32 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="26">
-        <f t="shared" si="0"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="23">
+        <f>SUM(B12:L12)</f>
         <v>15</v>
       </c>
-      <c r="O12" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="N12" s="10" t="str">
+        <f>IF(M12&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P12" s="20">
+        <f>_xlfn.FLOOR.MATH(M12/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="10">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7">
         <v>5</v>
       </c>
       <c r="D13" s="1">
@@ -2756,29 +3026,32 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="26">
-        <f t="shared" si="0"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="23">
+        <f>SUM(B13:L13)</f>
         <v>15</v>
       </c>
-      <c r="O13" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P13" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="N13" s="10" t="str">
+        <f>IF(M13&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P13" s="20">
+        <f>_xlfn.FLOOR.MATH(M13/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="12">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7">
         <v>5</v>
       </c>
       <c r="D14" s="1">
@@ -2791,29 +3064,32 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="26">
-        <f t="shared" si="0"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="23">
+        <f>SUM(B14:L14)</f>
         <v>15</v>
       </c>
-      <c r="O14" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="N14" s="10" t="str">
+        <f>IF(M14&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P14" s="20">
+        <f>_xlfn.FLOOR.MATH(M14/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="12">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7">
         <v>5</v>
       </c>
       <c r="D15" s="1"/>
@@ -2824,29 +3100,32 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="26">
-        <f t="shared" si="0"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="23">
+        <f>SUM(B15:L15)</f>
         <v>10</v>
       </c>
-      <c r="O15" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="N15" s="10" t="str">
+        <f>IF(M15&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P15" s="20">
+        <f>_xlfn.FLOOR.MATH(M15/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="12">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="10">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
         <v>5</v>
       </c>
       <c r="D16" s="1"/>
@@ -2857,29 +3136,32 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="26">
-        <f t="shared" si="0"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="23">
+        <f>SUM(B16:L16)</f>
         <v>10</v>
       </c>
-      <c r="O16" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="N16" s="10" t="str">
+        <f>IF(M16&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P16" s="20">
+        <f>_xlfn.FLOOR.MATH(M16/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="12">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="10">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
         <v>5</v>
       </c>
       <c r="D17" s="1"/>
@@ -2890,29 +3172,32 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="26">
-        <f t="shared" si="0"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="23">
+        <f>SUM(B17:L17)</f>
         <v>10</v>
       </c>
-      <c r="O17" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P17" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="N17" s="10" t="str">
+        <f>IF(M17&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P17" s="20">
+        <f>_xlfn.FLOOR.MATH(M17/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="12">
-        <v>5</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
         <v>5</v>
       </c>
       <c r="D18" s="1">
@@ -2925,29 +3210,32 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="26">
-        <f t="shared" si="0"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="23">
+        <f>SUM(B18:L18)</f>
         <v>15</v>
       </c>
-      <c r="O18" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="N18" s="10" t="str">
+        <f>IF(M18&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P18" s="20">
+        <f>_xlfn.FLOOR.MATH(M18/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="12">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
@@ -2958,29 +3246,32 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="26">
-        <f t="shared" si="0"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="23">
+        <f>SUM(B19:L19)</f>
         <v>10</v>
       </c>
-      <c r="O19" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="N19" s="10" t="str">
+        <f>IF(M19&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P19" s="20">
+        <f>_xlfn.FLOOR.MATH(M19/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="12">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7">
         <v>5</v>
       </c>
       <c r="D20" s="1">
@@ -2993,29 +3284,32 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="26">
-        <f t="shared" si="0"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="23">
+        <f>SUM(B20:L20)</f>
         <v>15</v>
       </c>
-      <c r="O20" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="N20" s="10" t="str">
+        <f>IF(M20&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P20" s="20">
+        <f>_xlfn.FLOOR.MATH(M20/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="12">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7">
         <v>5</v>
       </c>
       <c r="D21" s="1">
@@ -3028,29 +3322,32 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="26">
-        <f t="shared" si="0"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="23">
+        <f>SUM(B21:L21)</f>
         <v>15</v>
       </c>
-      <c r="O21" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="N21" s="10" t="str">
+        <f>IF(M21&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P21" s="20">
+        <f>_xlfn.FLOOR.MATH(M21/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="12">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="10">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7">
         <v>5</v>
       </c>
       <c r="D22" s="1"/>
@@ -3061,36 +3358,39 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="26">
-        <f t="shared" si="0"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="23">
+        <f>SUM(B22:L22)</f>
         <v>10</v>
       </c>
-      <c r="O22" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="N22" s="10" t="str">
+        <f>IF(M22&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O22" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P22" s="20">
+        <f>_xlfn.FLOOR.MATH(M22/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="12">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7">
         <v>5</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3098,29 +3398,32 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="26">
-        <f t="shared" si="0"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="23">
+        <f>SUM(B23:L23)</f>
         <v>15</v>
       </c>
-      <c r="O23" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P23" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="N23" s="10" t="str">
+        <f>IF(M23&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P23" s="20">
+        <f>_xlfn.FLOOR.MATH(M23/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="12">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="10">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -3133,29 +3436,32 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="26">
-        <f t="shared" si="0"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="23">
+        <f>SUM(B24:L24)</f>
         <v>15</v>
       </c>
-      <c r="O24" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P24" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="N24" s="10" t="str">
+        <f>IF(M24&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O24" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P24" s="20">
+        <f>_xlfn.FLOOR.MATH(M24/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7">
         <v>5</v>
       </c>
       <c r="D25" s="1">
@@ -3168,29 +3474,32 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="26">
-        <f t="shared" si="0"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="23">
+        <f>SUM(B25:L25)</f>
         <v>15</v>
       </c>
-      <c r="O25" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="N25" s="10" t="str">
+        <f>IF(M25&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O25" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P25" s="20">
+        <f>_xlfn.FLOOR.MATH(M25/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="21">
-        <v>5</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" s="18">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8">
         <v>5</v>
       </c>
       <c r="D26" s="2">
@@ -3203,99 +3512,105 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="27">
-        <f t="shared" si="0"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="24">
+        <f>SUM(B26:L26)</f>
         <v>15</v>
       </c>
-      <c r="O26" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P26" s="21" t="str">
-        <f>IF(N30&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N26" s="11" t="str">
+        <f>IF(M26&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O26" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P26" s="21">
+        <f>_xlfn.FLOOR.MATH(M26/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>COUNT(B2:B26)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <f>COUNT(C2:C26)</f>
         <v>24</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:M27" si="3">COUNT(D2:D26)</f>
+        <f t="shared" ref="D27:L27" si="1">COUNT(D2:D26)</f>
         <v>16</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="35"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="35"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="35"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="35"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M28" s="12"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="48"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29" s="12"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="48"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M30" s="12"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="48"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M31" s="12"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="48"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32" s="12"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
   <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
@@ -3307,41 +3622,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>92</v>
@@ -3358,24 +3674,24 @@
       <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="20">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="17">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="3">
@@ -3390,29 +3706,32 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="25">
-        <f>SUM(B2:M2)</f>
+      <c r="L2" s="14"/>
+      <c r="M2" s="22">
+        <f>SUM(B2:L2)</f>
         <v>20</v>
       </c>
-      <c r="O2" s="22">
-        <f>_xlfn.FLOOR.MATH(N2/10)</f>
+      <c r="N2" s="17" t="str">
+        <f>IF(M2&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O2" s="35" t="str">
+        <f>IF(M2&gt;=35,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="P2" s="49">
+        <f>_xlfn.FLOOR.MATH(M2/10)</f>
         <v>2</v>
       </c>
-      <c r="P2" s="33" t="str">
-        <f t="shared" ref="P2:P28" si="0">IF(N2&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="12">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -3425,29 +3744,32 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="26">
-        <f t="shared" ref="N3:N30" si="1">SUM(B3:M3)</f>
+      <c r="L3" s="15"/>
+      <c r="M3" s="23">
+        <f>SUM(B3:L3)</f>
         <v>15</v>
       </c>
-      <c r="O3" s="23">
-        <f t="shared" ref="O3:O30" si="2">_xlfn.FLOOR.MATH(N3/10)</f>
-        <v>1</v>
-      </c>
-      <c r="P3" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="N3" s="10" t="str">
+        <f>IF(M3&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O3" s="36" t="str">
+        <f t="shared" ref="O3:O32" si="0">IF(M3&gt;=35,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="P3" s="20">
+        <f>_xlfn.FLOOR.MATH(M3/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="12">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -3460,29 +3782,32 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="26">
-        <f t="shared" si="1"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="23">
+        <f>SUM(B4:L4)</f>
         <v>15</v>
       </c>
-      <c r="O4" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P4" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="N4" s="10" t="str">
+        <f>IF(M4&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O4" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P4" s="20">
+        <f>_xlfn.FLOOR.MATH(M4/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="12">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
         <v>5</v>
       </c>
       <c r="D5" s="1">
@@ -3495,29 +3820,32 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="26">
-        <f t="shared" si="1"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="23">
+        <f>SUM(B5:L5)</f>
         <v>15</v>
       </c>
-      <c r="O5" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P5" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="N5" s="10" t="str">
+        <f>IF(M5&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P5" s="20">
+        <f>_xlfn.FLOOR.MATH(M5/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="1"/>
@@ -3528,29 +3856,32 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="26">
-        <f t="shared" si="1"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="23">
+        <f>SUM(B6:L6)</f>
         <v>10</v>
       </c>
-      <c r="O6" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="N6" s="10" t="str">
+        <f>IF(M6&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P6" s="20">
+        <f>_xlfn.FLOOR.MATH(M6/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="1">
@@ -3563,29 +3894,32 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="26">
-        <f t="shared" si="1"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="23">
+        <f>SUM(B7:L7)</f>
         <v>15</v>
       </c>
-      <c r="O7" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P7" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="N7" s="10" t="str">
+        <f>IF(M7&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P7" s="20">
+        <f>_xlfn.FLOOR.MATH(M7/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="12">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
         <v>5</v>
       </c>
       <c r="D8" s="1">
@@ -3598,29 +3932,32 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="26">
-        <f t="shared" si="1"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="23">
+        <f>SUM(B8:L8)</f>
         <v>15</v>
       </c>
-      <c r="O8" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="N8" s="10" t="str">
+        <f>IF(M8&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P8" s="20">
+        <f>_xlfn.FLOOR.MATH(M8/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="12">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
         <v>5</v>
       </c>
       <c r="D9" s="1"/>
@@ -3631,29 +3968,32 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="26">
-        <f t="shared" si="1"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="23">
+        <f>SUM(B9:L9)</f>
         <v>10</v>
       </c>
-      <c r="O9" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="N9" s="10" t="str">
+        <f>IF(M9&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P9" s="20">
+        <f>_xlfn.FLOOR.MATH(M9/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="12">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7">
         <v>5</v>
       </c>
       <c r="D10" s="1">
@@ -3666,29 +4006,32 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="26">
-        <f t="shared" si="1"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="23">
+        <f>SUM(B10:L10)</f>
         <v>15</v>
       </c>
-      <c r="O10" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="N10" s="10" t="str">
+        <f>IF(M10&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P10" s="20">
+        <f>_xlfn.FLOOR.MATH(M10/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="12">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="1">
@@ -3701,29 +4044,32 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="26">
-        <f t="shared" si="1"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="23">
+        <f>SUM(B11:L11)</f>
         <v>15</v>
       </c>
-      <c r="O11" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P11" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="N11" s="10" t="str">
+        <f>IF(M11&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P11" s="20">
+        <f>_xlfn.FLOOR.MATH(M11/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="10">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3732,29 +4078,32 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O12" s="23">
-        <f t="shared" si="2"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="23">
+        <f>SUM(B12:L12)</f>
+        <v>5</v>
+      </c>
+      <c r="N12" s="10" t="str">
+        <f>IF(M12&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P12" s="20">
+        <f>_xlfn.FLOOR.MATH(M12/10)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="10">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7">
         <v>5</v>
       </c>
       <c r="D13" s="1">
@@ -3769,33 +4118,36 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="26">
-        <f t="shared" si="1"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="23">
+        <f>SUM(B13:L13)</f>
         <v>20</v>
       </c>
-      <c r="O13" s="23">
-        <f t="shared" si="2"/>
+      <c r="N13" s="10" t="str">
+        <f>IF(M13&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P13" s="20">
+        <f>_xlfn.FLOOR.MATH(M13/10)</f>
         <v>2</v>
       </c>
-      <c r="P13" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="12">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3804,29 +4156,32 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="26">
-        <f t="shared" si="1"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="23">
+        <f>SUM(B14:L14)</f>
         <v>9</v>
       </c>
-      <c r="O14" s="23">
-        <f t="shared" si="2"/>
+      <c r="N14" s="10" t="str">
+        <f>IF(M14&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P14" s="20">
+        <f>_xlfn.FLOOR.MATH(M14/10)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="12">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7">
         <v>5</v>
       </c>
       <c r="D15" s="1">
@@ -3839,29 +4194,32 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="26">
-        <f t="shared" si="1"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="23">
+        <f>SUM(B15:L15)</f>
         <v>15</v>
       </c>
-      <c r="O15" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="N15" s="10" t="str">
+        <f>IF(M15&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P15" s="20">
+        <f>_xlfn.FLOOR.MATH(M15/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="12">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="10">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
         <v>5</v>
       </c>
       <c r="D16" s="1">
@@ -3874,29 +4232,32 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="26">
-        <f t="shared" si="1"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="23">
+        <f>SUM(B16:L16)</f>
         <v>15</v>
       </c>
-      <c r="O16" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="N16" s="10" t="str">
+        <f>IF(M16&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P16" s="20">
+        <f>_xlfn.FLOOR.MATH(M16/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="12">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8"/>
+      <c r="B17" s="10">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3905,29 +4266,32 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O17" s="23">
-        <f t="shared" si="2"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="23">
+        <f>SUM(B17:L17)</f>
+        <v>5</v>
+      </c>
+      <c r="N17" s="10" t="str">
+        <f>IF(M17&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P17" s="20">
+        <f>_xlfn.FLOOR.MATH(M17/10)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="12">
-        <v>5</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
         <v>5</v>
       </c>
       <c r="D18" s="1">
@@ -3940,29 +4304,32 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="26">
-        <f t="shared" si="1"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="23">
+        <f>SUM(B18:L18)</f>
         <v>15</v>
       </c>
-      <c r="O18" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="N18" s="10" t="str">
+        <f>IF(M18&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P18" s="20">
+        <f>_xlfn.FLOOR.MATH(M18/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="12">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7">
         <v>5</v>
       </c>
       <c r="D19" s="1">
@@ -3975,29 +4342,34 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="26">
-        <f t="shared" si="1"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="23">
+        <f>SUM(B19:L19)</f>
         <v>15</v>
       </c>
-      <c r="O19" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="N19" s="10" t="str">
+        <f>IF(M19&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P19" s="20">
+        <f>_xlfn.FLOOR.MATH(M19/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="12">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8"/>
+      <c r="B20" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4006,29 +4378,32 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O20" s="23">
-        <f t="shared" si="2"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="23">
+        <f>SUM(B20:L20)</f>
+        <v>5</v>
+      </c>
+      <c r="N20" s="10" t="str">
+        <f>IF(M20&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P20" s="20">
+        <f>_xlfn.FLOOR.MATH(M20/10)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="12">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8"/>
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4037,29 +4412,32 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O21" s="23">
-        <f t="shared" si="2"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="23">
+        <f>SUM(B21:L21)</f>
+        <v>5</v>
+      </c>
+      <c r="N21" s="10" t="str">
+        <f>IF(M21&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P21" s="20">
+        <f>_xlfn.FLOOR.MATH(M21/10)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="12">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="10">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7">
         <v>5</v>
       </c>
       <c r="D22" s="1">
@@ -4072,29 +4450,32 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="26">
-        <f t="shared" si="1"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="23">
+        <f>SUM(B22:L22)</f>
         <v>15</v>
       </c>
-      <c r="O22" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="N22" s="10" t="str">
+        <f>IF(M22&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O22" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P22" s="20">
+        <f>_xlfn.FLOOR.MATH(M22/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="12">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7">
         <v>5</v>
       </c>
       <c r="D23" s="1">
@@ -4107,29 +4488,32 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="26">
-        <f t="shared" si="1"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="23">
+        <f>SUM(B23:L23)</f>
         <v>15</v>
       </c>
-      <c r="O23" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P23" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="N23" s="10" t="str">
+        <f>IF(M23&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P23" s="20">
+        <f>_xlfn.FLOOR.MATH(M23/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="12">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="10">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -4142,30 +4526,33 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="26">
-        <f t="shared" si="1"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="23">
+        <f>SUM(B24:L24)</f>
         <v>15</v>
       </c>
-      <c r="O24" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P24" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="N24" s="10" t="str">
+        <f>IF(M24&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O24" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P24" s="20">
+        <f>_xlfn.FLOOR.MATH(M24/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>101</v>
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4175,29 +4562,32 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O25" s="23">
-        <f t="shared" si="2"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="23">
+        <f>SUM(B25:L25)</f>
+        <v>5</v>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f>IF(M25&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O25" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P25" s="20">
+        <f>_xlfn.FLOOR.MATH(M25/10)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="12">
-        <v>5</v>
-      </c>
-      <c r="C26" s="8"/>
+      <c r="B26" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4206,29 +4596,32 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="23">
-        <f t="shared" si="2"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="23">
+        <f>SUM(B26:L26)</f>
+        <v>5</v>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f>IF(M26&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O26" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P26" s="20">
+        <f>_xlfn.FLOOR.MATH(M26/10)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="12">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="10">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7">
         <v>5</v>
       </c>
       <c r="D27" s="1">
@@ -4241,29 +4634,32 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="26">
-        <f t="shared" si="1"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="23">
+        <f>SUM(B27:L27)</f>
         <v>15</v>
       </c>
-      <c r="O27" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P27" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="N27" s="10" t="str">
+        <f>IF(M27&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O27" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P27" s="20">
+        <f>_xlfn.FLOOR.MATH(M27/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="12">
-        <v>5</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="10">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
         <v>5</v>
       </c>
       <c r="D28" s="1">
@@ -4276,29 +4672,32 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="26">
-        <f t="shared" si="1"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="23">
+        <f>SUM(B28:L28)</f>
         <v>15</v>
       </c>
-      <c r="O28" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P28" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="N28" s="10" t="str">
+        <f>IF(M28&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O28" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P28" s="20">
+        <f>_xlfn.FLOOR.MATH(M28/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="12">
-        <v>5</v>
-      </c>
-      <c r="C29" s="8"/>
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4307,29 +4706,32 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O29" s="23">
-        <f t="shared" si="2"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="23">
+        <f>SUM(B29:L29)</f>
+        <v>5</v>
+      </c>
+      <c r="N29" s="10" t="str">
+        <f>IF(M29&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O29" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P29" s="20">
+        <f>_xlfn.FLOOR.MATH(M29/10)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="33" t="str">
-        <f>IF(N29&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="13">
-        <v>5</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8">
         <v>5</v>
       </c>
       <c r="D30" s="2">
@@ -4342,22 +4744,25 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="27">
-        <f t="shared" si="1"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="24">
+        <f>SUM(B30:L30)</f>
         <v>15</v>
       </c>
-      <c r="O30" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P30" s="21" t="str">
-        <f>IF(N30&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N30" s="11" t="str">
+        <f>IF(M30&gt;=25,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="O30" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="P30" s="21">
+        <f>_xlfn.FLOOR.MATH(M30/10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>COUNT(B2:B30)</f>
         <v>29</v>
@@ -4367,54 +4772,53 @@
         <v>22</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:M31" si="3">COUNT(D2:D30)</f>
+        <f t="shared" ref="D31:L31" si="1">COUNT(D2:D30)</f>
         <v>19</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="48"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32" s="12"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
   <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,11 +1328,11 @@
       <c r="K2" s="41"/>
       <c r="L2" s="43"/>
       <c r="M2" s="32">
-        <f>SUM(B2:L2)</f>
+        <f t="shared" ref="M2:M32" si="0">SUM(B2:L2)</f>
         <v>20</v>
       </c>
       <c r="N2" s="17" t="str">
-        <f>IF(M2&gt;=25,"pass","fail")</f>
+        <f t="shared" ref="N2:N32" si="1">IF(M2&gt;=25,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="O2" s="35" t="str">
@@ -1340,7 +1340,7 @@
         <v>fail</v>
       </c>
       <c r="P2" s="19">
-        <f>_xlfn.FLOOR.MATH(M2/10)</f>
+        <f t="shared" ref="P2:P32" si="2">_xlfn.FLOOR.MATH(M2/10)</f>
         <v>2</v>
       </c>
     </row>
@@ -1366,19 +1366,19 @@
       <c r="K3" s="1"/>
       <c r="L3" s="45"/>
       <c r="M3" s="33">
-        <f>SUM(B3:L3)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N3" s="10" t="str">
-        <f>IF(M3&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O3" s="36" t="str">
-        <f t="shared" ref="O3:O32" si="0">IF(M3&gt;=35,"pass","fail")</f>
+        <f t="shared" ref="O3:O32" si="3">IF(M3&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P3" s="20">
-        <f>_xlfn.FLOOR.MATH(M3/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1406,19 +1406,19 @@
       <c r="K4" s="1"/>
       <c r="L4" s="45"/>
       <c r="M4" s="33">
-        <f>SUM(B4:L4)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f>IF(M4&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O4" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
-        <f>_xlfn.FLOOR.MATH(M4/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       <c r="K5" s="1"/>
       <c r="L5" s="45"/>
       <c r="M5" s="33">
-        <f>SUM(B5:L5)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f>IF(M5&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O5" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P5" s="20">
-        <f>_xlfn.FLOOR.MATH(M5/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1482,19 +1482,19 @@
       <c r="K6" s="1"/>
       <c r="L6" s="45"/>
       <c r="M6" s="33">
-        <f>SUM(B6:L6)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f>IF(M6&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O6" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P6" s="20">
-        <f>_xlfn.FLOOR.MATH(M6/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1520,19 +1520,19 @@
       <c r="K7" s="1"/>
       <c r="L7" s="45"/>
       <c r="M7" s="33">
-        <f>SUM(B7:L7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f>IF(M7&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O7" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P7" s="20">
-        <f>_xlfn.FLOOR.MATH(M7/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1554,19 +1554,19 @@
       <c r="K8" s="1"/>
       <c r="L8" s="45"/>
       <c r="M8" s="33">
-        <f>SUM(B8:L8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f>IF(M8&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O8" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P8" s="20">
-        <f>_xlfn.FLOOR.MATH(M8/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1583,7 +1583,9 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="15"/>
       <c r="H9" s="1"/>
@@ -1592,19 +1594,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="45"/>
       <c r="M9" s="33">
-        <f>SUM(B9:L9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f>IF(M9&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O9" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P9" s="20">
-        <f>_xlfn.FLOOR.MATH(M9/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1628,19 +1630,19 @@
       <c r="K10" s="1"/>
       <c r="L10" s="45"/>
       <c r="M10" s="33">
-        <f>SUM(B10:L10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f>IF(M10&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O10" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P10" s="20">
-        <f>_xlfn.FLOOR.MATH(M10/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1668,19 +1670,19 @@
       <c r="K11" s="1"/>
       <c r="L11" s="45"/>
       <c r="M11" s="33">
-        <f>SUM(B11:L11)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f>IF(M11&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O11" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P11" s="20">
-        <f>_xlfn.FLOOR.MATH(M11/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1700,19 +1702,19 @@
       <c r="K12" s="1"/>
       <c r="L12" s="45"/>
       <c r="M12" s="33">
-        <f>SUM(B12:L12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f>IF(M12&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O12" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P12" s="20">
-        <f>_xlfn.FLOOR.MATH(M12/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1734,19 +1736,19 @@
       <c r="K13" s="1"/>
       <c r="L13" s="45"/>
       <c r="M13" s="33">
-        <f>SUM(B13:L13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f>IF(M13&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O13" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P13" s="20">
-        <f>_xlfn.FLOOR.MATH(M13/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1770,19 +1772,19 @@
       <c r="K14" s="1"/>
       <c r="L14" s="45"/>
       <c r="M14" s="33">
-        <f>SUM(B14:L14)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f>IF(M14&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O14" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P14" s="20">
-        <f>_xlfn.FLOOR.MATH(M14/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1806,19 +1808,19 @@
       <c r="K15" s="1"/>
       <c r="L15" s="45"/>
       <c r="M15" s="33">
-        <f>SUM(B15:L15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f>IF(M15&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O15" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P15" s="20">
-        <f>_xlfn.FLOOR.MATH(M15/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1844,19 +1846,19 @@
       <c r="K16" s="1"/>
       <c r="L16" s="45"/>
       <c r="M16" s="33">
-        <f>SUM(B16:L16)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f>IF(M16&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O16" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P16" s="20">
-        <f>_xlfn.FLOOR.MATH(M16/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1884,19 +1886,19 @@
       <c r="K17" s="1"/>
       <c r="L17" s="45"/>
       <c r="M17" s="33">
-        <f>SUM(B17:L17)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f>IF(M17&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O17" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P17" s="20">
-        <f>_xlfn.FLOOR.MATH(M17/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1922,19 +1924,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="45"/>
       <c r="M18" s="33">
-        <f>SUM(B18:L18)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f>IF(M18&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O18" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P18" s="20">
-        <f>_xlfn.FLOOR.MATH(M18/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1960,19 +1962,19 @@
       <c r="K19" s="1"/>
       <c r="L19" s="45"/>
       <c r="M19" s="33">
-        <f>SUM(B19:L19)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f>IF(M19&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O19" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P19" s="20">
-        <f>_xlfn.FLOOR.MATH(M19/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2000,19 +2002,19 @@
       <c r="K20" s="1"/>
       <c r="L20" s="45"/>
       <c r="M20" s="33">
-        <f>SUM(B20:L20)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f>IF(M20&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O20" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P20" s="20">
-        <f>_xlfn.FLOOR.MATH(M20/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2036,19 +2038,19 @@
       <c r="K21" s="1"/>
       <c r="L21" s="45"/>
       <c r="M21" s="33">
-        <f>SUM(B21:L21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f>IF(M21&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O21" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P21" s="20">
-        <f>_xlfn.FLOOR.MATH(M21/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2074,19 +2076,19 @@
       <c r="K22" s="1"/>
       <c r="L22" s="45"/>
       <c r="M22" s="33">
-        <f>SUM(B22:L22)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f>IF(M22&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O22" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P22" s="20">
-        <f>_xlfn.FLOOR.MATH(M22/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2120,19 +2122,19 @@
       <c r="K23" s="1"/>
       <c r="L23" s="45"/>
       <c r="M23" s="33">
-        <f>SUM(B23:L23)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f>IF(M23&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>pass</v>
       </c>
       <c r="O23" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P23" s="20">
-        <f>_xlfn.FLOOR.MATH(M23/10)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2160,19 +2162,19 @@
       <c r="K24" s="1"/>
       <c r="L24" s="45"/>
       <c r="M24" s="33">
-        <f>SUM(B24:L24)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f>IF(M24&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O24" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P24" s="20">
-        <f>_xlfn.FLOOR.MATH(M24/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2198,19 +2200,19 @@
       <c r="K25" s="1"/>
       <c r="L25" s="45"/>
       <c r="M25" s="33">
-        <f>SUM(B25:L25)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f>IF(M25&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O25" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P25" s="20">
-        <f>_xlfn.FLOOR.MATH(M25/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2236,19 +2238,19 @@
       <c r="K26" s="1"/>
       <c r="L26" s="45"/>
       <c r="M26" s="33">
-        <f>SUM(B26:L26)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N26" s="10" t="str">
-        <f>IF(M26&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O26" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P26" s="20">
-        <f>_xlfn.FLOOR.MATH(M26/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2272,19 +2274,19 @@
       <c r="K27" s="1"/>
       <c r="L27" s="45"/>
       <c r="M27" s="33">
-        <f>SUM(B27:L27)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N27" s="10" t="str">
-        <f>IF(M27&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O27" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P27" s="20">
-        <f>_xlfn.FLOOR.MATH(M27/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2312,19 +2314,19 @@
       <c r="K28" s="1"/>
       <c r="L28" s="45"/>
       <c r="M28" s="33">
-        <f>SUM(B28:L28)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N28" s="10" t="str">
-        <f>IF(M28&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O28" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P28" s="20">
-        <f>_xlfn.FLOOR.MATH(M28/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2348,19 +2350,19 @@
       <c r="K29" s="1"/>
       <c r="L29" s="45"/>
       <c r="M29" s="33">
-        <f>SUM(B29:L29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N29" s="10" t="str">
-        <f>IF(M29&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O29" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P29" s="20">
-        <f>_xlfn.FLOOR.MATH(M29/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2380,19 +2382,19 @@
       <c r="K30" s="1"/>
       <c r="L30" s="45"/>
       <c r="M30" s="33">
-        <f>SUM(B30:L30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="10" t="str">
-        <f>IF(M30&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O30" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P30" s="20">
-        <f>_xlfn.FLOOR.MATH(M30/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2420,19 +2422,19 @@
       <c r="K31" s="1"/>
       <c r="L31" s="45"/>
       <c r="M31" s="33">
-        <f>SUM(B31:L31)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N31" s="10" t="str">
-        <f>IF(M31&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O31" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P31" s="20">
-        <f>_xlfn.FLOOR.MATH(M31/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2454,19 +2456,19 @@
       <c r="K32" s="2"/>
       <c r="L32" s="47"/>
       <c r="M32" s="34">
-        <f>SUM(B32:L32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N32" s="11" t="str">
-        <f>IF(M32&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O32" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P32" s="21">
-        <f>_xlfn.FLOOR.MATH(M32/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2480,39 +2482,39 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:L33" si="1">COUNT(D4:D32)</f>
+        <f t="shared" ref="D33:L33" si="4">COUNT(D4:D32)</f>
         <v>16</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2527,7 +2529,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,11 +2612,11 @@
       <c r="K2" s="3"/>
       <c r="L2" s="14"/>
       <c r="M2" s="22">
-        <f>SUM(B2:L2)</f>
+        <f t="shared" ref="M2:M26" si="0">SUM(B2:L2)</f>
         <v>15</v>
       </c>
       <c r="N2" s="17" t="str">
-        <f>IF(M2&gt;=25,"pass","fail")</f>
+        <f t="shared" ref="N2:N26" si="1">IF(M2&gt;=25,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="O2" s="35" t="str">
@@ -2622,7 +2624,7 @@
         <v>fail</v>
       </c>
       <c r="P2" s="49">
-        <f>_xlfn.FLOOR.MATH(M2/10)</f>
+        <f t="shared" ref="P2:P26" si="2">_xlfn.FLOOR.MATH(M2/10)</f>
         <v>1</v>
       </c>
     </row>
@@ -2650,19 +2652,19 @@
       <c r="K3" s="1"/>
       <c r="L3" s="15"/>
       <c r="M3" s="23">
-        <f>SUM(B3:L3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N3" s="10" t="str">
-        <f>IF(M3&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O3" s="36" t="str">
-        <f t="shared" ref="O3:O32" si="0">IF(M3&gt;=35,"pass","fail")</f>
+        <f t="shared" ref="O3:O26" si="3">IF(M3&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P3" s="20">
-        <f>_xlfn.FLOOR.MATH(M3/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2686,19 +2688,19 @@
       <c r="K4" s="1"/>
       <c r="L4" s="15"/>
       <c r="M4" s="23">
-        <f>SUM(B4:L4)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f>IF(M4&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O4" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
-        <f>_xlfn.FLOOR.MATH(M4/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2724,19 +2726,19 @@
       <c r="K5" s="1"/>
       <c r="L5" s="15"/>
       <c r="M5" s="23">
-        <f>SUM(B5:L5)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f>IF(M5&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O5" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P5" s="20">
-        <f>_xlfn.FLOOR.MATH(M5/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2762,19 +2764,19 @@
       <c r="K6" s="1"/>
       <c r="L6" s="15"/>
       <c r="M6" s="23">
-        <f>SUM(B6:L6)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f>IF(M6&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O6" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P6" s="20">
-        <f>_xlfn.FLOOR.MATH(M6/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2804,19 +2806,19 @@
       <c r="K7" s="1"/>
       <c r="L7" s="15"/>
       <c r="M7" s="23">
-        <f>SUM(B7:L7)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f>IF(M7&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>pass</v>
       </c>
       <c r="O7" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P7" s="20">
-        <f>_xlfn.FLOOR.MATH(M7/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2842,19 +2844,19 @@
       <c r="K8" s="1"/>
       <c r="L8" s="15"/>
       <c r="M8" s="23">
-        <f>SUM(B8:L8)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f>IF(M8&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O8" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P8" s="20">
-        <f>_xlfn.FLOOR.MATH(M8/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2880,19 +2882,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="15"/>
       <c r="M9" s="23">
-        <f>SUM(B9:L9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f>IF(M9&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O9" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P9" s="20">
-        <f>_xlfn.FLOOR.MATH(M9/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2912,19 +2914,19 @@
       <c r="K10" s="1"/>
       <c r="L10" s="15"/>
       <c r="M10" s="23">
-        <f>SUM(B10:L10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f>IF(M10&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O10" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P10" s="20">
-        <f>_xlfn.FLOOR.MATH(M10/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2952,19 +2954,19 @@
       <c r="K11" s="1"/>
       <c r="L11" s="15"/>
       <c r="M11" s="23">
-        <f>SUM(B11:L11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f>IF(M11&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O11" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P11" s="20">
-        <f>_xlfn.FLOOR.MATH(M11/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2990,19 +2992,19 @@
       <c r="K12" s="1"/>
       <c r="L12" s="15"/>
       <c r="M12" s="23">
-        <f>SUM(B12:L12)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f>IF(M12&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O12" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P12" s="20">
-        <f>_xlfn.FLOOR.MATH(M12/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3028,19 +3030,19 @@
       <c r="K13" s="1"/>
       <c r="L13" s="15"/>
       <c r="M13" s="23">
-        <f>SUM(B13:L13)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f>IF(M13&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O13" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P13" s="20">
-        <f>_xlfn.FLOOR.MATH(M13/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3066,19 +3068,19 @@
       <c r="K14" s="1"/>
       <c r="L14" s="15"/>
       <c r="M14" s="23">
-        <f>SUM(B14:L14)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f>IF(M14&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O14" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P14" s="20">
-        <f>_xlfn.FLOOR.MATH(M14/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3102,19 +3104,19 @@
       <c r="K15" s="1"/>
       <c r="L15" s="15"/>
       <c r="M15" s="23">
-        <f>SUM(B15:L15)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f>IF(M15&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O15" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P15" s="20">
-        <f>_xlfn.FLOOR.MATH(M15/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3138,19 +3140,19 @@
       <c r="K16" s="1"/>
       <c r="L16" s="15"/>
       <c r="M16" s="23">
-        <f>SUM(B16:L16)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f>IF(M16&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O16" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P16" s="20">
-        <f>_xlfn.FLOOR.MATH(M16/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3174,19 +3176,19 @@
       <c r="K17" s="1"/>
       <c r="L17" s="15"/>
       <c r="M17" s="23">
-        <f>SUM(B17:L17)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f>IF(M17&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O17" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P17" s="20">
-        <f>_xlfn.FLOOR.MATH(M17/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3212,19 +3214,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="15"/>
       <c r="M18" s="23">
-        <f>SUM(B18:L18)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f>IF(M18&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O18" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P18" s="20">
-        <f>_xlfn.FLOOR.MATH(M18/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3248,19 +3250,19 @@
       <c r="K19" s="1"/>
       <c r="L19" s="15"/>
       <c r="M19" s="23">
-        <f>SUM(B19:L19)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f>IF(M19&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O19" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P19" s="20">
-        <f>_xlfn.FLOOR.MATH(M19/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3286,19 +3288,19 @@
       <c r="K20" s="1"/>
       <c r="L20" s="15"/>
       <c r="M20" s="23">
-        <f>SUM(B20:L20)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f>IF(M20&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O20" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P20" s="20">
-        <f>_xlfn.FLOOR.MATH(M20/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3324,19 +3326,19 @@
       <c r="K21" s="1"/>
       <c r="L21" s="15"/>
       <c r="M21" s="23">
-        <f>SUM(B21:L21)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f>IF(M21&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O21" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P21" s="20">
-        <f>_xlfn.FLOOR.MATH(M21/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3360,19 +3362,19 @@
       <c r="K22" s="1"/>
       <c r="L22" s="15"/>
       <c r="M22" s="23">
-        <f>SUM(B22:L22)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f>IF(M22&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O22" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P22" s="20">
-        <f>_xlfn.FLOOR.MATH(M22/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3400,19 +3402,19 @@
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
       <c r="M23" s="23">
-        <f>SUM(B23:L23)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f>IF(M23&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O23" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P23" s="20">
-        <f>_xlfn.FLOOR.MATH(M23/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3438,19 +3440,19 @@
       <c r="K24" s="1"/>
       <c r="L24" s="15"/>
       <c r="M24" s="23">
-        <f>SUM(B24:L24)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f>IF(M24&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O24" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P24" s="20">
-        <f>_xlfn.FLOOR.MATH(M24/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3476,19 +3478,19 @@
       <c r="K25" s="1"/>
       <c r="L25" s="15"/>
       <c r="M25" s="23">
-        <f>SUM(B25:L25)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f>IF(M25&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O25" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P25" s="20">
-        <f>_xlfn.FLOOR.MATH(M25/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3514,19 +3516,19 @@
       <c r="K26" s="2"/>
       <c r="L26" s="16"/>
       <c r="M26" s="24">
-        <f>SUM(B26:L26)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N26" s="11" t="str">
-        <f>IF(M26&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O26" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P26" s="21">
-        <f>_xlfn.FLOOR.MATH(M26/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3540,39 +3542,39 @@
         <v>24</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:L27" si="1">COUNT(D2:D26)</f>
+        <f t="shared" ref="D27:L27" si="4">COUNT(D2:D26)</f>
         <v>16</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27" s="12"/>
@@ -3622,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -3708,11 +3710,11 @@
       <c r="K2" s="3"/>
       <c r="L2" s="14"/>
       <c r="M2" s="22">
-        <f>SUM(B2:L2)</f>
+        <f t="shared" ref="M2:M30" si="0">SUM(B2:L2)</f>
         <v>20</v>
       </c>
       <c r="N2" s="17" t="str">
-        <f>IF(M2&gt;=25,"pass","fail")</f>
+        <f t="shared" ref="N2:N30" si="1">IF(M2&gt;=25,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="O2" s="35" t="str">
@@ -3720,7 +3722,7 @@
         <v>fail</v>
       </c>
       <c r="P2" s="49">
-        <f>_xlfn.FLOOR.MATH(M2/10)</f>
+        <f t="shared" ref="P2:P30" si="2">_xlfn.FLOOR.MATH(M2/10)</f>
         <v>2</v>
       </c>
     </row>
@@ -3746,19 +3748,19 @@
       <c r="K3" s="1"/>
       <c r="L3" s="15"/>
       <c r="M3" s="23">
-        <f>SUM(B3:L3)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N3" s="10" t="str">
-        <f>IF(M3&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O3" s="36" t="str">
-        <f t="shared" ref="O3:O32" si="0">IF(M3&gt;=35,"pass","fail")</f>
+        <f t="shared" ref="O3:O30" si="3">IF(M3&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P3" s="20">
-        <f>_xlfn.FLOOR.MATH(M3/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3784,19 +3786,19 @@
       <c r="K4" s="1"/>
       <c r="L4" s="15"/>
       <c r="M4" s="23">
-        <f>SUM(B4:L4)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f>IF(M4&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O4" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
-        <f>_xlfn.FLOOR.MATH(M4/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3822,19 +3824,19 @@
       <c r="K5" s="1"/>
       <c r="L5" s="15"/>
       <c r="M5" s="23">
-        <f>SUM(B5:L5)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f>IF(M5&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O5" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P5" s="20">
-        <f>_xlfn.FLOOR.MATH(M5/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3858,19 +3860,19 @@
       <c r="K6" s="1"/>
       <c r="L6" s="15"/>
       <c r="M6" s="23">
-        <f>SUM(B6:L6)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f>IF(M6&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O6" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P6" s="20">
-        <f>_xlfn.FLOOR.MATH(M6/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3896,19 +3898,19 @@
       <c r="K7" s="1"/>
       <c r="L7" s="15"/>
       <c r="M7" s="23">
-        <f>SUM(B7:L7)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f>IF(M7&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O7" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P7" s="20">
-        <f>_xlfn.FLOOR.MATH(M7/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3934,19 +3936,19 @@
       <c r="K8" s="1"/>
       <c r="L8" s="15"/>
       <c r="M8" s="23">
-        <f>SUM(B8:L8)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f>IF(M8&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O8" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P8" s="20">
-        <f>_xlfn.FLOOR.MATH(M8/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3970,19 +3972,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="15"/>
       <c r="M9" s="23">
-        <f>SUM(B9:L9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f>IF(M9&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O9" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P9" s="20">
-        <f>_xlfn.FLOOR.MATH(M9/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4008,19 +4010,19 @@
       <c r="K10" s="1"/>
       <c r="L10" s="15"/>
       <c r="M10" s="23">
-        <f>SUM(B10:L10)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f>IF(M10&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O10" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P10" s="20">
-        <f>_xlfn.FLOOR.MATH(M10/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4046,19 +4048,19 @@
       <c r="K11" s="1"/>
       <c r="L11" s="15"/>
       <c r="M11" s="23">
-        <f>SUM(B11:L11)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f>IF(M11&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O11" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P11" s="20">
-        <f>_xlfn.FLOOR.MATH(M11/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4080,19 +4082,19 @@
       <c r="K12" s="1"/>
       <c r="L12" s="15"/>
       <c r="M12" s="23">
-        <f>SUM(B12:L12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f>IF(M12&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O12" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P12" s="20">
-        <f>_xlfn.FLOOR.MATH(M12/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4120,19 +4122,19 @@
       <c r="K13" s="1"/>
       <c r="L13" s="15"/>
       <c r="M13" s="23">
-        <f>SUM(B13:L13)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f>IF(M13&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O13" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P13" s="20">
-        <f>_xlfn.FLOOR.MATH(M13/10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4158,19 +4160,19 @@
       <c r="K14" s="1"/>
       <c r="L14" s="15"/>
       <c r="M14" s="23">
-        <f>SUM(B14:L14)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f>IF(M14&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O14" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P14" s="20">
-        <f>_xlfn.FLOOR.MATH(M14/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4196,19 +4198,19 @@
       <c r="K15" s="1"/>
       <c r="L15" s="15"/>
       <c r="M15" s="23">
-        <f>SUM(B15:L15)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f>IF(M15&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O15" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P15" s="20">
-        <f>_xlfn.FLOOR.MATH(M15/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4234,19 +4236,19 @@
       <c r="K16" s="1"/>
       <c r="L16" s="15"/>
       <c r="M16" s="23">
-        <f>SUM(B16:L16)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f>IF(M16&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O16" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P16" s="20">
-        <f>_xlfn.FLOOR.MATH(M16/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4268,19 +4270,19 @@
       <c r="K17" s="1"/>
       <c r="L17" s="15"/>
       <c r="M17" s="23">
-        <f>SUM(B17:L17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f>IF(M17&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O17" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P17" s="20">
-        <f>_xlfn.FLOOR.MATH(M17/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4306,19 +4308,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="15"/>
       <c r="M18" s="23">
-        <f>SUM(B18:L18)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f>IF(M18&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O18" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P18" s="20">
-        <f>_xlfn.FLOOR.MATH(M18/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4344,19 +4346,19 @@
       <c r="K19" s="1"/>
       <c r="L19" s="15"/>
       <c r="M19" s="23">
-        <f>SUM(B19:L19)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f>IF(M19&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O19" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P19" s="20">
-        <f>_xlfn.FLOOR.MATH(M19/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4380,19 +4382,19 @@
       <c r="K20" s="1"/>
       <c r="L20" s="15"/>
       <c r="M20" s="23">
-        <f>SUM(B20:L20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f>IF(M20&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O20" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P20" s="20">
-        <f>_xlfn.FLOOR.MATH(M20/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4414,19 +4416,19 @@
       <c r="K21" s="1"/>
       <c r="L21" s="15"/>
       <c r="M21" s="23">
-        <f>SUM(B21:L21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f>IF(M21&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O21" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P21" s="20">
-        <f>_xlfn.FLOOR.MATH(M21/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4452,19 +4454,19 @@
       <c r="K22" s="1"/>
       <c r="L22" s="15"/>
       <c r="M22" s="23">
-        <f>SUM(B22:L22)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f>IF(M22&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O22" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P22" s="20">
-        <f>_xlfn.FLOOR.MATH(M22/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4490,19 +4492,19 @@
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
       <c r="M23" s="23">
-        <f>SUM(B23:L23)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f>IF(M23&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O23" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P23" s="20">
-        <f>_xlfn.FLOOR.MATH(M23/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4528,19 +4530,19 @@
       <c r="K24" s="1"/>
       <c r="L24" s="15"/>
       <c r="M24" s="23">
-        <f>SUM(B24:L24)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f>IF(M24&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O24" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P24" s="20">
-        <f>_xlfn.FLOOR.MATH(M24/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4564,19 +4566,19 @@
       <c r="K25" s="1"/>
       <c r="L25" s="15"/>
       <c r="M25" s="23">
-        <f>SUM(B25:L25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f>IF(M25&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O25" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P25" s="20">
-        <f>_xlfn.FLOOR.MATH(M25/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4598,19 +4600,19 @@
       <c r="K26" s="1"/>
       <c r="L26" s="15"/>
       <c r="M26" s="23">
-        <f>SUM(B26:L26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N26" s="10" t="str">
-        <f>IF(M26&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O26" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P26" s="20">
-        <f>_xlfn.FLOOR.MATH(M26/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4636,19 +4638,19 @@
       <c r="K27" s="1"/>
       <c r="L27" s="15"/>
       <c r="M27" s="23">
-        <f>SUM(B27:L27)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N27" s="10" t="str">
-        <f>IF(M27&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O27" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P27" s="20">
-        <f>_xlfn.FLOOR.MATH(M27/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4674,19 +4676,19 @@
       <c r="K28" s="1"/>
       <c r="L28" s="15"/>
       <c r="M28" s="23">
-        <f>SUM(B28:L28)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N28" s="10" t="str">
-        <f>IF(M28&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O28" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P28" s="20">
-        <f>_xlfn.FLOOR.MATH(M28/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4708,19 +4710,19 @@
       <c r="K29" s="1"/>
       <c r="L29" s="15"/>
       <c r="M29" s="23">
-        <f>SUM(B29:L29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N29" s="10" t="str">
-        <f>IF(M29&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O29" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P29" s="20">
-        <f>_xlfn.FLOOR.MATH(M29/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4746,19 +4748,19 @@
       <c r="K30" s="2"/>
       <c r="L30" s="16"/>
       <c r="M30" s="24">
-        <f>SUM(B30:L30)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N30" s="11" t="str">
-        <f>IF(M30&gt;=25,"pass","fail")</f>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O30" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P30" s="21">
-        <f>_xlfn.FLOOR.MATH(M30/10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4772,39 +4774,39 @@
         <v>22</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:L31" si="1">COUNT(D2:D30)</f>
+        <f t="shared" ref="D31:L31" si="4">COUNT(D2:D30)</f>
         <v>19</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31" s="12"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D956F05-3C26-4624-8135-40FB8A7CC3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="5040" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -354,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -956,7 +957,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1233,11 +1234,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1995,9 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2525,11 +2528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,7 +2647,9 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3613,7 +3618,7 @@
       <c r="P32" s="48"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3621,7 +3626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4821,7 +4826,7 @@
       <c r="P32" s="48"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5787FC41-D890-44F7-A01A-63757ACE7C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -351,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1261,11 +1262,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1501,9 @@
       <c r="C6" s="44">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="15"/>
@@ -2064,7 +2067,9 @@
       <c r="C21" s="44">
         <v>5</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="15"/>
@@ -2564,7 +2569,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:O32">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2574,11 +2579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,7 +2734,9 @@
       <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3407,7 +3414,9 @@
       <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3668,11 +3677,11 @@
       <c r="P32" s="48"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3681,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4893,7 +4902,7 @@
       <c r="P32" s="48"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5787FC41-D890-44F7-A01A-63757ACE7C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7086C-6F97-4612-A32D-C0C071151D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -954,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1872,9 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="15"/>
       <c r="H16" s="1"/>
@@ -2582,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7086C-6F97-4612-A32D-C0C071151D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38090CD0-2113-4603-97D1-6E238281A68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1542,9 @@
       <c r="D7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
@@ -2236,7 +2238,9 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="15"/>
       <c r="H25" s="1"/>
@@ -2355,7 +2359,9 @@
       <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G28" s="15"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2496,7 +2502,9 @@
       <c r="B32" s="11">
         <v>5</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="46" t="s">
+        <v>98</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2584,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3202,9 @@
       <c r="C16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3343,7 +3353,9 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38090CD0-2113-4603-97D1-6E238281A68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -352,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -954,7 +953,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1262,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2589,11 +2588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2869,9 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3691,7 +3692,7 @@
       <c r="P32" s="48"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
@@ -3704,7 +3705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4916,7 +4917,7 @@
       <c r="P32" s="48"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D2D4E-7ED8-45D9-BC50-5EB314461A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -346,12 +346,15 @@
   </si>
   <si>
     <t>Exam-pass</t>
+  </si>
+  <si>
+    <t>failed 3,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -931,8 +934,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
@@ -949,8 +950,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1261,11 +1262,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1275,8 @@
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1289,43 +1291,43 @@
       <c r="B1" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="37" t="s">
         <v>90</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="36" t="s">
         <v>95</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="13" t="s">
         <v>101</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -1339,31 +1341,33 @@
       <c r="B2" s="17">
         <v>5</v>
       </c>
-      <c r="C2" s="40">
-        <v>5</v>
-      </c>
-      <c r="D2" s="41">
-        <v>5</v>
-      </c>
-      <c r="E2" s="41">
-        <v>5</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="32">
+      <c r="C2" s="38">
+        <v>5</v>
+      </c>
+      <c r="D2" s="39">
+        <v>5</v>
+      </c>
+      <c r="E2" s="39">
+        <v>5</v>
+      </c>
+      <c r="F2" s="39">
+        <v>5</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="30">
         <f t="shared" ref="M2:M32" si="0">SUM(B2:L2)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N2" s="17" t="str">
         <f t="shared" ref="N2:N32" si="1">IF(M2&gt;=25,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="O2" s="35" t="str">
+        <v>pass</v>
+      </c>
+      <c r="O2" s="33" t="str">
         <f>IF(M2&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
@@ -1379,7 +1383,7 @@
       <c r="B3" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="42">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -1392,8 +1396,8 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="33">
+      <c r="L3" s="43"/>
+      <c r="M3" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1401,7 +1405,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O3" s="36" t="str">
+      <c r="O3" s="34" t="str">
         <f t="shared" ref="O3:O32" si="3">IF(M3&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
@@ -1417,7 +1421,7 @@
       <c r="B4" s="10">
         <v>5</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -1432,8 +1436,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="33">
+      <c r="L4" s="43"/>
+      <c r="M4" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1441,7 +1445,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O4" s="36" t="str">
+      <c r="O4" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1457,7 +1461,7 @@
       <c r="B5" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="42">
         <v>5</v>
       </c>
       <c r="D5" s="1">
@@ -1472,8 +1476,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="33">
+      <c r="L5" s="43"/>
+      <c r="M5" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1481,7 +1485,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O5" s="36" t="str">
+      <c r="O5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1497,11 +1501,11 @@
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="44">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>98</v>
+      <c r="C6" s="42">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1510,16 +1514,16 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="33">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="L6" s="43"/>
+      <c r="M6" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O6" s="36" t="str">
+      <c r="O6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1535,14 +1539,14 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="44">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>98</v>
+      <c r="C7" s="42">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="47">
+        <v>5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
@@ -1550,22 +1554,22 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="33">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="L7" s="43"/>
+      <c r="M7" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="N7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O7" s="36" t="str">
+      <c r="O7" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1575,7 +1579,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1584,8 +1588,8 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="33">
+      <c r="L8" s="43"/>
+      <c r="M8" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1593,7 +1597,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O8" s="36" t="str">
+      <c r="O8" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1609,14 +1613,14 @@
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>98</v>
+      <c r="E9" s="47">
+        <v>5</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="15"/>
@@ -1624,22 +1628,22 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="33">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="L9" s="43"/>
+      <c r="M9" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="N9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O9" s="36" t="str">
+      <c r="O9" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1649,14 +1653,14 @@
       <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="44">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
+      <c r="C10" s="42">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="47">
+        <v>5</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="15"/>
@@ -1664,22 +1668,22 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="33">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="L10" s="43"/>
+      <c r="M10" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="N10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O10" s="36" t="str">
+      <c r="O10" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1689,7 +1693,7 @@
       <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="42">
         <v>5</v>
       </c>
       <c r="D11" s="1">
@@ -1704,8 +1708,8 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="33">
+      <c r="L11" s="43"/>
+      <c r="M11" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1713,7 +1717,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O11" s="36" t="str">
+      <c r="O11" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="44"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1736,8 +1740,8 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="33">
+      <c r="L12" s="43"/>
+      <c r="M12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1745,7 +1749,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O12" s="36" t="str">
+      <c r="O12" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1761,7 +1765,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1770,8 +1774,8 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="33">
+      <c r="L13" s="43"/>
+      <c r="M13" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1779,7 +1783,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O13" s="36" t="str">
+      <c r="O13" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1795,7 +1799,7 @@
       <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <v>4</v>
       </c>
       <c r="D14" s="1"/>
@@ -1806,8 +1810,8 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="33">
+      <c r="L14" s="43"/>
+      <c r="M14" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1815,7 +1819,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O14" s="36" t="str">
+      <c r="O14" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1831,7 +1835,7 @@
       <c r="B15" s="10">
         <v>5</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="1"/>
@@ -1842,8 +1846,8 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="33">
+      <c r="L15" s="43"/>
+      <c r="M15" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1851,7 +1855,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O15" s="36" t="str">
+      <c r="O15" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1867,14 +1871,14 @@
       <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="42">
         <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>98</v>
+      <c r="E16" s="1">
+        <v>5</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="15"/>
@@ -1882,22 +1886,22 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="33">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="L16" s="43"/>
+      <c r="M16" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="N16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O16" s="36" t="str">
+      <c r="O16" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1907,7 +1911,7 @@
       <c r="B17" s="10">
         <v>5</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="42">
         <v>5</v>
       </c>
       <c r="D17" s="1">
@@ -1922,8 +1926,8 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="33">
+      <c r="L17" s="43"/>
+      <c r="M17" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1931,7 +1935,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O17" s="36" t="str">
+      <c r="O17" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1947,7 +1951,7 @@
       <c r="B18" s="10">
         <v>5</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="42">
         <v>5</v>
       </c>
       <c r="D18" s="1">
@@ -1960,8 +1964,8 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="33">
+      <c r="L18" s="43"/>
+      <c r="M18" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1969,7 +1973,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O18" s="36" t="str">
+      <c r="O18" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -1985,14 +1989,14 @@
       <c r="B19" s="10">
         <v>5</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="42">
         <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>98</v>
+      <c r="E19" s="1">
+        <v>5</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="15"/>
@@ -2000,22 +2004,22 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="33">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="L19" s="43"/>
+      <c r="M19" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="N19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O19" s="36" t="str">
+      <c r="O19" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2025,7 +2029,7 @@
       <c r="B20" s="10">
         <v>5</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="42">
         <v>5</v>
       </c>
       <c r="D20" s="1">
@@ -2034,24 +2038,24 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>98</v>
+      <c r="F20" s="1">
+        <v>5</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="33">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="L20" s="43"/>
+      <c r="M20" s="31">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="N20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>fail</v>
-      </c>
-      <c r="O20" s="36" t="str">
+        <v>pass</v>
+      </c>
+      <c r="O20" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2067,11 +2071,11 @@
       <c r="B21" s="10">
         <v>5</v>
       </c>
-      <c r="C21" s="44">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>98</v>
+      <c r="C21" s="42">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2080,16 +2084,16 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="33">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="L21" s="43"/>
+      <c r="M21" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="N21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O21" s="36" t="str">
+      <c r="O21" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2105,7 +2109,7 @@
       <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="42">
         <v>5</v>
       </c>
       <c r="D22" s="1">
@@ -2120,8 +2124,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="33">
+      <c r="L22" s="43"/>
+      <c r="M22" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2129,7 +2133,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O22" s="36" t="str">
+      <c r="O22" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2145,7 +2149,7 @@
       <c r="B23" s="10">
         <v>5</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="42">
         <v>5</v>
       </c>
       <c r="D23" s="1">
@@ -2160,24 +2164,24 @@
       <c r="G23" s="15">
         <v>5</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>98</v>
+      <c r="H23" s="1">
+        <v>5</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="33">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="L23" s="43"/>
+      <c r="M23" s="31">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="N23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
-      <c r="O23" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
+      <c r="O23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="2"/>
@@ -2191,7 +2195,7 @@
       <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="42">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -2206,8 +2210,8 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="33">
+      <c r="L24" s="43"/>
+      <c r="M24" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2215,7 +2219,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O24" s="36" t="str">
+      <c r="O24" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2231,14 +2235,14 @@
       <c r="B25" s="10">
         <v>5</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="42">
         <v>5</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="15"/>
@@ -2246,8 +2250,8 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="33">
+      <c r="L25" s="43"/>
+      <c r="M25" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2255,7 +2259,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O25" s="36" t="str">
+      <c r="O25" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2271,7 +2275,7 @@
       <c r="B26" s="10">
         <v>5</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="42">
         <v>5</v>
       </c>
       <c r="D26" s="1">
@@ -2286,8 +2290,8 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="33">
+      <c r="L26" s="43"/>
+      <c r="M26" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2295,7 +2299,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O26" s="36" t="str">
+      <c r="O26" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2311,7 +2315,7 @@
       <c r="B27" s="10">
         <v>5</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="42">
         <v>5</v>
       </c>
       <c r="D27" s="1">
@@ -2324,8 +2328,8 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="33">
+      <c r="L27" s="43"/>
+      <c r="M27" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2333,7 +2337,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O27" s="36" t="str">
+      <c r="O27" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2349,7 +2353,7 @@
       <c r="B28" s="10">
         <v>5</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="42">
         <v>5</v>
       </c>
       <c r="D28" s="1">
@@ -2358,24 +2362,24 @@
       <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>98</v>
+      <c r="F28" s="1">
+        <v>5</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="33">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="L28" s="43"/>
+      <c r="M28" s="31">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="N28" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>fail</v>
-      </c>
-      <c r="O28" s="36" t="str">
+        <v>pass</v>
+      </c>
+      <c r="O28" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2391,7 +2395,7 @@
       <c r="B29" s="10">
         <v>5</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="1"/>
@@ -2402,8 +2406,8 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="33">
+      <c r="L29" s="43"/>
+      <c r="M29" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2411,7 +2415,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O29" s="36" t="str">
+      <c r="O29" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="44"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2434,8 +2438,8 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="33">
+      <c r="L30" s="43"/>
+      <c r="M30" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2443,7 +2447,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O30" s="36" t="str">
+      <c r="O30" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2459,7 +2463,7 @@
       <c r="B31" s="10">
         <v>5</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="42">
         <v>5</v>
       </c>
       <c r="D31" s="1">
@@ -2468,24 +2472,24 @@
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>98</v>
+      <c r="F31" s="1">
+        <v>4</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="33">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="L31" s="43"/>
+      <c r="M31" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="N31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O31" s="36" t="str">
+      <c r="O31" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2501,8 +2505,8 @@
       <c r="B32" s="11">
         <v>5</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>98</v>
+      <c r="C32" s="44">
+        <v>5</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2512,22 +2516,22 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="34">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="L32" s="45"/>
+      <c r="M32" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="N32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O32" s="37" t="str">
+      <c r="O32" s="35" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P32" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -2537,19 +2541,19 @@
       </c>
       <c r="C33">
         <f>COUNT(C4:C32)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:L33" si="4">COUNT(D4:D32)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -2557,7 +2561,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
@@ -2588,10 +2592,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2643,10 +2647,10 @@
       <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="13" t="s">
         <v>101</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -2682,11 +2686,11 @@
         <f t="shared" ref="N2:N26" si="1">IF(M2&gt;=25,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="O2" s="35" t="str">
+      <c r="O2" s="33" t="str">
         <f>IF(M2&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="46">
         <f t="shared" ref="P2:P26" si="2">_xlfn.FLOOR.MATH(M2/10)</f>
         <v>1</v>
       </c>
@@ -2724,7 +2728,7 @@
         <f>IF(M3&gt;=25,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O3" s="36" t="str">
+      <c r="O3" s="34" t="str">
         <f t="shared" ref="O3:O26" si="3">IF(M3&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
@@ -2762,7 +2766,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O4" s="36" t="str">
+      <c r="O4" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2800,7 +2804,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O5" s="36" t="str">
+      <c r="O5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2838,7 +2842,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O6" s="36" t="str">
+      <c r="O6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2884,7 +2888,7 @@
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
-      <c r="O7" s="36" t="str">
+      <c r="O7" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2922,7 +2926,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O8" s="36" t="str">
+      <c r="O8" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2960,7 +2964,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O9" s="36" t="str">
+      <c r="O9" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -2992,7 +2996,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O10" s="36" t="str">
+      <c r="O10" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3032,7 +3036,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O11" s="36" t="str">
+      <c r="O11" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3072,7 +3076,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O12" s="36" t="str">
+      <c r="O12" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3110,7 +3114,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O13" s="36" t="str">
+      <c r="O13" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3148,7 +3152,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O14" s="36" t="str">
+      <c r="O14" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3184,7 +3188,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O15" s="36" t="str">
+      <c r="O15" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3222,7 +3226,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O16" s="36" t="str">
+      <c r="O16" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3258,7 +3262,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O17" s="36" t="str">
+      <c r="O17" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3296,7 +3300,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O18" s="36" t="str">
+      <c r="O18" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3332,7 +3336,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O19" s="36" t="str">
+      <c r="O19" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3372,7 +3376,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O20" s="36" t="str">
+      <c r="O20" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3410,7 +3414,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O21" s="36" t="str">
+      <c r="O21" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3448,7 +3452,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O22" s="36" t="str">
+      <c r="O22" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3488,7 +3492,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O23" s="36" t="str">
+      <c r="O23" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3526,7 +3530,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O24" s="36" t="str">
+      <c r="O24" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3564,7 +3568,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O25" s="36" t="str">
+      <c r="O25" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3602,7 +3606,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O26" s="37" t="str">
+      <c r="O26" s="35" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3657,42 +3661,30 @@
         <v>0</v>
       </c>
       <c r="M27" s="12"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="48"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M28" s="12"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="48"/>
+      <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M29" s="12"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="48"/>
+      <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M30" s="12"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="48"/>
+      <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M31" s="12"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="48"/>
+      <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M32" s="12"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="48"/>
+      <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
@@ -3705,7 +3697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,10 +3752,10 @@
       <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="13" t="s">
         <v>101</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -3803,11 +3795,11 @@
         <f t="shared" ref="N2:N30" si="1">IF(M2&gt;=25,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="O2" s="35" t="str">
+      <c r="O2" s="33" t="str">
         <f>IF(M2&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="46">
         <f t="shared" ref="P2:P30" si="2">_xlfn.FLOOR.MATH(M2/10)</f>
         <v>2</v>
       </c>
@@ -3841,7 +3833,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O3" s="36" t="str">
+      <c r="O3" s="34" t="str">
         <f t="shared" ref="O3:O30" si="3">IF(M3&gt;=35,"pass","fail")</f>
         <v>fail</v>
       </c>
@@ -3879,7 +3871,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O4" s="36" t="str">
+      <c r="O4" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3917,7 +3909,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O5" s="36" t="str">
+      <c r="O5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3955,7 +3947,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O6" s="36" t="str">
+      <c r="O6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -3993,7 +3985,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O7" s="36" t="str">
+      <c r="O7" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4031,7 +4023,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O8" s="36" t="str">
+      <c r="O8" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4067,7 +4059,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O9" s="36" t="str">
+      <c r="O9" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4105,7 +4097,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O10" s="36" t="str">
+      <c r="O10" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4145,7 +4137,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O11" s="36" t="str">
+      <c r="O11" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4179,7 +4171,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O12" s="36" t="str">
+      <c r="O12" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4219,7 +4211,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O13" s="36" t="str">
+      <c r="O13" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4257,7 +4249,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O14" s="36" t="str">
+      <c r="O14" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4295,7 +4287,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O15" s="36" t="str">
+      <c r="O15" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4333,7 +4325,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O16" s="36" t="str">
+      <c r="O16" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4367,7 +4359,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O17" s="36" t="str">
+      <c r="O17" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4405,7 +4397,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O18" s="36" t="str">
+      <c r="O18" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4445,7 +4437,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O19" s="36" t="str">
+      <c r="O19" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4481,7 +4473,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O20" s="36" t="str">
+      <c r="O20" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4515,7 +4507,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O21" s="36" t="str">
+      <c r="O21" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4553,7 +4545,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O22" s="36" t="str">
+      <c r="O22" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4593,7 +4585,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O23" s="36" t="str">
+      <c r="O23" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4631,7 +4623,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O24" s="36" t="str">
+      <c r="O24" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4667,7 +4659,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O25" s="36" t="str">
+      <c r="O25" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4701,7 +4693,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O26" s="36" t="str">
+      <c r="O26" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4739,7 +4731,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O27" s="36" t="str">
+      <c r="O27" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4779,7 +4771,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O28" s="36" t="str">
+      <c r="O28" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4813,7 +4805,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O29" s="36" t="str">
+      <c r="O29" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4851,7 +4843,7 @@
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O30" s="37" t="str">
+      <c r="O30" s="35" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
@@ -4906,18 +4898,14 @@
         <v>0</v>
       </c>
       <c r="M31" s="12"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="48"/>
+      <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M32" s="12"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="48"/>
+      <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D2D4E-7ED8-45D9-BC50-5EB314461A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -346,15 +345,12 @@
   </si>
   <si>
     <t>Exam-pass</t>
-  </si>
-  <si>
-    <t>failed 3,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1262,11 +1258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1364,7 @@
         <v>pass</v>
       </c>
       <c r="O2" s="33" t="str">
-        <f>IF(M2&gt;=35,"pass","fail")</f>
+        <f>IF(M2&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P2" s="19">
@@ -1406,7 +1402,7 @@
         <v>fail</v>
       </c>
       <c r="O3" s="34" t="str">
-        <f t="shared" ref="O3:O32" si="3">IF(M3&gt;=35,"pass","fail")</f>
+        <f>IF(M3&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P3" s="20">
@@ -1446,7 +1442,7 @@
         <v>fail</v>
       </c>
       <c r="O4" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O4:O31" si="3">IF(M4&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
@@ -2167,13 +2163,15 @@
       <c r="H23" s="1">
         <v>5</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="43"/>
       <c r="M23" s="31">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N23" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2185,7 +2183,7 @@
       </c>
       <c r="P23" s="20">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2241,10 +2239,12 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
       <c r="G25" s="15"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2253,11 +2253,11 @@
       <c r="L25" s="43"/>
       <c r="M25" s="31">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N25" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="O25" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="P25" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
         <v>fail</v>
       </c>
       <c r="O32" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(M32&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P32" s="21">
@@ -2549,11 +2549,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
@@ -2582,7 +2582,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:O32">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2592,11 +2592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2687,7 @@
         <v>fail</v>
       </c>
       <c r="O2" s="33" t="str">
-        <f>IF(M2&gt;=35,"pass","fail")</f>
+        <f>IF(M2&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P2" s="46">
@@ -2729,7 +2729,7 @@
         <v>pass</v>
       </c>
       <c r="O3" s="34" t="str">
-        <f t="shared" ref="O3:O26" si="3">IF(M3&gt;=35,"pass","fail")</f>
+        <f>IF(M3&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P3" s="20">
@@ -2747,8 +2747,8 @@
       <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
+      <c r="D4" s="1">
+        <v>5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2760,14 +2760,14 @@
       <c r="L4" s="15"/>
       <c r="M4" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N4" s="10" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
       <c r="O4" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O4:O25" si="3">IF(M4&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
@@ -2873,8 +2873,8 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>98</v>
+      <c r="H7" s="1">
+        <v>5</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2882,7 +2882,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="23">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2977,8 +2977,12 @@
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.9</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2990,7 +2994,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="N10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3015,11 +3019,11 @@
       <c r="C11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>98</v>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3030,7 +3034,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3042,7 +3046,7 @@
       </c>
       <c r="P11" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3319,7 +3323,9 @@
       <c r="C19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3330,7 +3336,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3358,8 +3364,8 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>98</v>
+      <c r="E20" s="1">
+        <v>5</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3370,7 +3376,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3382,7 +3388,7 @@
       </c>
       <c r="P20" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3433,8 +3439,8 @@
       <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>98</v>
+      <c r="D22" s="1">
+        <v>5</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3446,7 +3452,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3477,7 +3483,9 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3486,11 +3494,11 @@
       <c r="L23" s="15"/>
       <c r="M23" s="23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="O23" s="34" t="str">
         <f t="shared" si="3"/>
@@ -3607,7 +3615,7 @@
         <v>fail</v>
       </c>
       <c r="O26" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(M26&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P26" s="21">
@@ -3618,23 +3626,23 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>COUNT(B2:B26)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <f>COUNT(C2:C26)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:L27" si="4">COUNT(D2:D26)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
@@ -3642,7 +3650,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
@@ -3684,11 +3692,11 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,11 +3705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3804,7 @@
         <v>fail</v>
       </c>
       <c r="O2" s="33" t="str">
-        <f>IF(M2&gt;=35,"pass","fail")</f>
+        <f>IF(M2&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P2" s="46">
@@ -3834,7 +3842,7 @@
         <v>fail</v>
       </c>
       <c r="O3" s="34" t="str">
-        <f t="shared" ref="O3:O30" si="3">IF(M3&gt;=35,"pass","fail")</f>
+        <f>IF(M3&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P3" s="20">
@@ -3872,7 +3880,7 @@
         <v>fail</v>
       </c>
       <c r="O4" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O4:O29" si="3">IF(M4&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
@@ -4844,7 +4852,7 @@
         <v>fail</v>
       </c>
       <c r="O30" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(M30&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P30" s="21">
@@ -4905,11 +4913,11 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="17" t="str">
-        <f t="shared" ref="N2:N32" si="1">IF(M2&gt;=25,"pass","fail")</f>
+        <f>IF(M2&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
       <c r="O2" s="33" t="str">
@@ -1368,7 +1368,7 @@
         <v>fail</v>
       </c>
       <c r="P2" s="19">
-        <f t="shared" ref="P2:P32" si="2">_xlfn.FLOOR.MATH(M2/10)</f>
+        <f t="shared" ref="P2:P32" si="1">_xlfn.FLOOR.MATH(M2/10)</f>
         <v>2</v>
       </c>
     </row>
@@ -1398,15 +1398,15 @@
         <v>15</v>
       </c>
       <c r="N3" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f>IF(M3&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O3" s="34" t="str">
         <f>IF(M3&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P3" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1438,15 +1438,15 @@
         <v>20</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" ref="N4:N31" si="2">IF(M4&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O4" s="34" t="str">
         <f t="shared" ref="O4:O31" si="3">IF(M4&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1478,15 +1478,15 @@
         <v>20</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P5" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1516,15 +1516,15 @@
         <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P6" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1556,15 +1556,15 @@
         <v>20</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O7" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P7" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O8" s="34" t="str">
@@ -1598,7 +1598,7 @@
         <v>fail</v>
       </c>
       <c r="P8" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1630,15 +1630,15 @@
         <v>20</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O9" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1670,15 +1670,15 @@
         <v>20</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O10" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P10" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1710,15 +1710,15 @@
         <v>20</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O11" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O12" s="34" t="str">
@@ -1750,7 +1750,7 @@
         <v>fail</v>
       </c>
       <c r="P12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O13" s="34" t="str">
@@ -1784,7 +1784,7 @@
         <v>fail</v>
       </c>
       <c r="P13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O14" s="34" t="str">
@@ -1820,7 +1820,7 @@
         <v>fail</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O15" s="34" t="str">
@@ -1856,7 +1856,7 @@
         <v>fail</v>
       </c>
       <c r="P15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1888,15 +1888,15 @@
         <v>20</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O16" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1928,15 +1928,15 @@
         <v>20</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O17" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1966,15 +1966,15 @@
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O18" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2006,15 +2006,15 @@
         <v>20</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O19" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
         <v>25</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O20" s="34" t="str">
@@ -2056,7 +2056,7 @@
         <v>fail</v>
       </c>
       <c r="P20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2086,15 +2086,15 @@
         <v>15</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O21" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2126,15 +2126,15 @@
         <v>15</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O22" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O23" s="34" t="str">
@@ -2182,7 +2182,7 @@
         <v>pass</v>
       </c>
       <c r="P23" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2214,15 +2214,15 @@
         <v>20</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O24" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>25</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O25" s="34" t="str">
@@ -2264,7 +2264,7 @@
         <v>fail</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2296,15 +2296,15 @@
         <v>20</v>
       </c>
       <c r="N26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O26" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2334,15 +2334,15 @@
         <v>15</v>
       </c>
       <c r="N27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O27" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P27" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
         <v>25</v>
       </c>
       <c r="N28" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O28" s="34" t="str">
@@ -2384,7 +2384,7 @@
         <v>fail</v>
       </c>
       <c r="P28" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2412,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="N29" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O29" s="34" t="str">
@@ -2420,7 +2420,7 @@
         <v>fail</v>
       </c>
       <c r="P29" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2428,7 +2428,9 @@
       <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10">
+        <v>5</v>
+      </c>
       <c r="C30" s="42"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2441,10 +2443,10 @@
       <c r="L30" s="43"/>
       <c r="M30" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N30" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O30" s="34" t="str">
@@ -2452,7 +2454,7 @@
         <v>fail</v>
       </c>
       <c r="P30" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2486,15 +2488,15 @@
         <v>24</v>
       </c>
       <c r="N31" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O31" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P31" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2522,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="N32" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M32&gt;=12.5,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="O32" s="35" t="str">
@@ -2530,14 +2532,14 @@
         <v>fail</v>
       </c>
       <c r="P32" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>COUNT(B4:B32)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <f>COUNT(C4:C32)</f>
@@ -2582,7 +2584,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:O32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2596,7 +2598,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,15 +2685,15 @@
         <v>15</v>
       </c>
       <c r="N2" s="17" t="str">
-        <f t="shared" ref="N2:N26" si="1">IF(M2&gt;=25,"pass","fail")</f>
-        <v>fail</v>
+        <f>IF(M2&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O2" s="33" t="str">
         <f>IF(M2&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P2" s="46">
-        <f t="shared" ref="P2:P26" si="2">_xlfn.FLOOR.MATH(M2/10)</f>
+        <f t="shared" ref="P2:P26" si="1">_xlfn.FLOOR.MATH(M2/10)</f>
         <v>1</v>
       </c>
     </row>
@@ -2714,7 +2716,9 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2722,10 +2726,10 @@
       <c r="L3" s="15"/>
       <c r="M3" s="23">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" s="10" t="str">
-        <f>IF(M3&gt;=25,"pass","fail")</f>
+        <f>IF(M3&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
       <c r="O3" s="34" t="str">
@@ -2733,8 +2737,8 @@
         <v>fail</v>
       </c>
       <c r="P3" s="20">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2763,15 +2767,15 @@
         <v>15</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" ref="N4:N25" si="2">IF(M4&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O4" s="34" t="str">
         <f t="shared" ref="O4:O25" si="3">IF(M4&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2801,15 +2805,15 @@
         <v>15</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P5" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2839,15 +2843,15 @@
         <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P6" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2885,7 +2889,7 @@
         <v>35</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O7" s="34" t="str">
@@ -2893,7 +2897,7 @@
         <v>fail</v>
       </c>
       <c r="P7" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2923,15 +2927,15 @@
         <v>15</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O8" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P8" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2961,7 +2965,7 @@
         <v>10</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O9" s="34" t="str">
@@ -2969,7 +2973,7 @@
         <v>fail</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2980,9 +2984,7 @@
       <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
-        <v>2.9</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2994,10 +2996,10 @@
       <c r="L10" s="15"/>
       <c r="M10" s="23">
         <f t="shared" si="0"/>
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O10" s="34" t="str">
@@ -3005,7 +3007,7 @@
         <v>fail</v>
       </c>
       <c r="P10" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3037,15 +3039,15 @@
         <v>20</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O11" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3077,15 +3079,15 @@
         <v>15</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O12" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3115,15 +3117,15 @@
         <v>15</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O13" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3153,15 +3155,15 @@
         <v>15</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O14" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3189,7 +3191,7 @@
         <v>10</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O15" s="34" t="str">
@@ -3197,7 +3199,7 @@
         <v>fail</v>
       </c>
       <c r="P15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3227,7 +3229,7 @@
         <v>10</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O16" s="34" t="str">
@@ -3235,7 +3237,7 @@
         <v>fail</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3263,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O17" s="34" t="str">
@@ -3271,7 +3273,7 @@
         <v>fail</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3301,15 +3303,15 @@
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O18" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3339,15 +3341,15 @@
         <v>15</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O19" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3379,15 +3381,15 @@
         <v>20</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O20" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3417,15 +3419,15 @@
         <v>15</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O21" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3455,15 +3457,15 @@
         <v>15</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O22" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3497,7 +3499,7 @@
         <v>25</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O23" s="34" t="str">
@@ -3505,7 +3507,7 @@
         <v>fail</v>
       </c>
       <c r="P23" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3535,15 +3537,15 @@
         <v>15</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O24" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3573,15 +3575,15 @@
         <v>15</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O25" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3611,15 +3613,15 @@
         <v>15</v>
       </c>
       <c r="N26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f>IF(M26&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O26" s="35" t="str">
         <f>IF(M26&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P26" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3630,7 +3632,7 @@
       </c>
       <c r="C27">
         <f>COUNT(C2:C26)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:L27" si="4">COUNT(D2:D26)</f>
@@ -3646,7 +3648,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
@@ -3696,7 +3698,7 @@
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3708,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,15 +3802,15 @@
         <v>20</v>
       </c>
       <c r="N2" s="17" t="str">
-        <f t="shared" ref="N2:N30" si="1">IF(M2&gt;=25,"pass","fail")</f>
-        <v>fail</v>
+        <f>IF(M2&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O2" s="33" t="str">
         <f>IF(M2&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P2" s="46">
-        <f t="shared" ref="P2:P30" si="2">_xlfn.FLOOR.MATH(M2/10)</f>
+        <f t="shared" ref="P2:P30" si="1">_xlfn.FLOOR.MATH(M2/10)</f>
         <v>2</v>
       </c>
     </row>
@@ -3838,15 +3840,15 @@
         <v>15</v>
       </c>
       <c r="N3" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f>IF(M3&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O3" s="34" t="str">
         <f>IF(M3&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P3" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3876,15 +3878,15 @@
         <v>15</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" ref="N4:N29" si="2">IF(M4&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O4" s="34" t="str">
         <f t="shared" ref="O4:O29" si="3">IF(M4&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P4" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3914,15 +3916,15 @@
         <v>15</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P5" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3952,15 +3954,15 @@
         <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P6" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3990,15 +3992,15 @@
         <v>15</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O7" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P7" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4028,15 +4030,15 @@
         <v>15</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O8" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P8" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4064,7 +4066,7 @@
         <v>10</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O9" s="34" t="str">
@@ -4072,7 +4074,7 @@
         <v>fail</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4102,15 +4104,15 @@
         <v>15</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O10" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P10" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4142,15 +4144,15 @@
         <v>20</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O11" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4176,7 +4178,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O12" s="34" t="str">
@@ -4184,7 +4186,7 @@
         <v>fail</v>
       </c>
       <c r="P12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4216,15 +4218,15 @@
         <v>20</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O13" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4254,7 +4256,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O14" s="34" t="str">
@@ -4262,7 +4264,7 @@
         <v>fail</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4292,15 +4294,15 @@
         <v>15</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O15" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4330,15 +4332,15 @@
         <v>15</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O16" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4364,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O17" s="34" t="str">
@@ -4372,7 +4374,7 @@
         <v>fail</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4402,15 +4404,15 @@
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O18" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4442,15 +4444,15 @@
         <v>20</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O19" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4478,7 +4480,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O20" s="34" t="str">
@@ -4486,7 +4488,7 @@
         <v>fail</v>
       </c>
       <c r="P20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4512,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O21" s="34" t="str">
@@ -4520,7 +4522,7 @@
         <v>fail</v>
       </c>
       <c r="P21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4550,15 +4552,15 @@
         <v>15</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O22" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4590,15 +4592,15 @@
         <v>20</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O23" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P23" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4628,15 +4630,15 @@
         <v>15</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O24" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4664,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O25" s="34" t="str">
@@ -4672,7 +4674,7 @@
         <v>fail</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4698,7 +4700,7 @@
         <v>5</v>
       </c>
       <c r="N26" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O26" s="34" t="str">
@@ -4706,7 +4708,7 @@
         <v>fail</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4736,15 +4738,15 @@
         <v>15</v>
       </c>
       <c r="N27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O27" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P27" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4776,15 +4778,15 @@
         <v>20</v>
       </c>
       <c r="N28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
       <c r="O28" s="34" t="str">
         <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="P28" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4810,7 +4812,7 @@
         <v>5</v>
       </c>
       <c r="N29" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O29" s="34" t="str">
@@ -4818,7 +4820,7 @@
         <v>fail</v>
       </c>
       <c r="P29" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4848,15 +4850,15 @@
         <v>15</v>
       </c>
       <c r="N30" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <f>IF(M30&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="O30" s="35" t="str">
         <f>IF(M30&gt;=40,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="P30" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4917,7 +4919,7 @@
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22932A4D-D4BA-45D1-8B24-5623539234E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -350,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1258,11 +1260,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2479,9 @@
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2594,11 +2598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2884,9 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="15"/>
@@ -3104,7 +3110,9 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3694,7 +3702,7 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
@@ -3707,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4915,7 +4923,7 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22932A4D-D4BA-45D1-8B24-5623539234E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -352,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -952,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1260,11 +1259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1467,9 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G5" s="15"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1620,7 +1621,9 @@
       <c r="E9" s="47">
         <v>5</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G9" s="15"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1700,7 +1703,9 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2247,7 +2252,9 @@
       <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2598,11 +2605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3040,9 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3702,7 +3711,7 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
@@ -3715,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4923,7 +4932,7 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADB6AB6-DB40-4713-AEFC-9197B2425750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>ФИО</t>
   </si>
@@ -351,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -951,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1259,11 +1260,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,7 +2002,9 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G19" s="15"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2374,7 +2377,9 @@
       <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2489,7 +2494,9 @@
       <c r="G31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2605,11 +2612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,7 +2901,9 @@
       <c r="I7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="15"/>
       <c r="M7" s="23">
@@ -3711,7 +3720,7 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
@@ -3724,11 +3733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4556,7 +4565,9 @@
       <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4932,7 +4943,7 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADB6AB6-DB40-4713-AEFC-9197B2425750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43EF58-428C-45C3-8060-C773AFF96FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>ФИО</t>
   </si>
@@ -347,6 +345,15 @@
   </si>
   <si>
     <t>Exam-pass</t>
+  </si>
+  <si>
+    <t>failed 2.20</t>
+  </si>
+  <si>
+    <t>failed 3.5</t>
+  </si>
+  <si>
+    <t>failed 2.18</t>
   </si>
 </sst>
 </file>
@@ -952,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1264,7 +1271,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,8 +1280,8 @@
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2121,10 +2128,12 @@
       <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2133,7 +2142,7 @@
       <c r="L22" s="43"/>
       <c r="M22" s="31">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N22" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2145,7 +2154,7 @@
       </c>
       <c r="P22" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2569,7 +2578,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
@@ -2615,7 +2624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -3736,14 +3745,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3814,8 +3824,8 @@
       <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
+      <c r="F2" s="3">
+        <v>5</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3825,7 +3835,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="22">
         <f t="shared" ref="M2:M30" si="0">SUM(B2:L2)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N2" s="17" t="str">
         <f>IF(M2&gt;=12.5,"pass","fail")</f>
@@ -4043,7 +4053,9 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4232,8 +4244,12 @@
       <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4241,7 +4257,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N13" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4345,7 +4361,9 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4565,8 +4583,8 @@
       <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
+      <c r="E22" s="1">
+        <v>5</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -4577,7 +4595,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N22" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4589,7 +4607,7 @@
       </c>
       <c r="P22" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4645,7 +4663,9 @@
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4655,7 +4675,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N24" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4667,7 +4687,7 @@
       </c>
       <c r="P24" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -4905,11 +4925,11 @@
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43EF58-428C-45C3-8060-C773AFF96FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B223F3AB-7B4F-4E8F-B729-5A38051A6771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -348,12 +350,6 @@
   </si>
   <si>
     <t>failed 2.20</t>
-  </si>
-  <si>
-    <t>failed 3.5</t>
-  </si>
-  <si>
-    <t>failed 2.18</t>
   </si>
 </sst>
 </file>
@@ -959,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1270,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,8 +2127,8 @@
       <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>103</v>
+      <c r="F22" s="1">
+        <v>5</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="1"/>
@@ -2142,7 +2138,7 @@
       <c r="L22" s="43"/>
       <c r="M22" s="31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N22" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2342,7 +2338,9 @@
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="15"/>
       <c r="H27" s="1"/>
@@ -2582,7 +2580,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -3745,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4361,8 +4359,8 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>104</v>
+      <c r="E16" s="1">
+        <v>5</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -4373,7 +4371,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N16" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4385,7 +4383,7 @@
       </c>
       <c r="P16" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4925,7 +4923,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B223F3AB-7B4F-4E8F-B729-5A38051A6771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBEFD34-B903-4991-820D-FD9C4B10923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -955,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1266,26 +1266,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1431,9 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G4" s="15"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1455,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -1609,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>14</v>
       </c>
@@ -1911,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>21</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>22</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
@@ -2301,7 +2303,9 @@
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G26" s="15"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2325,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>25</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>26</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>27</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
@@ -2479,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>29</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>30</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>COUNT(B4:B32)</f>
         <v>28</v>
@@ -2622,19 +2626,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -2911,7 +2915,9 @@
       <c r="J7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="23">
         <f t="shared" si="0"/>
@@ -2930,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -3210,7 +3216,9 @@
       <c r="C15" s="7">
         <v>5</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3236,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -3274,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
@@ -3348,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
@@ -3426,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
@@ -3464,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
@@ -3502,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -3544,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>55</v>
       </c>
@@ -3658,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <f>COUNT(B2:B26)</f>
         <v>25</v>
@@ -3706,23 +3714,23 @@
       <c r="M27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M28" s="12"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M29" s="12"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M30" s="12"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M31" s="12"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M32" s="12"/>
       <c r="P32" s="12"/>
     </row>
@@ -3747,16 +3755,16 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3806,7 +3814,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>85</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
@@ -3886,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>58</v>
       </c>
@@ -3924,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>59</v>
       </c>
@@ -3962,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>60</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>61</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>62</v>
       </c>
@@ -4078,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>63</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>64</v>
       </c>
@@ -4152,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>65</v>
       </c>
@@ -4192,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>66</v>
       </c>
@@ -4226,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
@@ -4270,7 +4278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>68</v>
       </c>
@@ -4308,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>69</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>70</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>71</v>
       </c>
@@ -4420,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>72</v>
       </c>
@@ -4458,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>73</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>74</v>
       </c>
@@ -4534,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>75</v>
       </c>
@@ -4568,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>76</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>77</v>
       </c>
@@ -4648,7 +4656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>78</v>
       </c>
@@ -4688,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>79</v>
       </c>
@@ -4724,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>80</v>
       </c>
@@ -4758,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>81</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>82</v>
       </c>
@@ -4836,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>83</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>84</v>
       </c>
@@ -4908,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>COUNT(B2:B30)</f>
         <v>29</v>
@@ -4956,7 +4964,7 @@
       <c r="M31" s="12"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M32" s="12"/>
       <c r="P32" s="12"/>
     </row>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBEFD34-B903-4991-820D-FD9C4B10923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -355,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1263,29 +1262,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>14</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
@@ -1953,7 +1952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
@@ -1966,7 +1965,9 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="15"/>
       <c r="H18" s="1"/>
@@ -1991,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>22</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>23</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>25</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>26</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>27</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>29</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>30</v>
       </c>
@@ -2565,34 +2566,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f>COUNT(B4:B32)</f>
+        <f>COUNTA(B4:B32)</f>
         <v>28</v>
       </c>
       <c r="C33">
-        <f>COUNT(C4:C32)</f>
-        <v>23</v>
+        <f t="shared" ref="C33:L33" si="4">COUNTA(C4:C32)</f>
+        <v>25</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:L33" si="4">COUNT(D4:D32)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
@@ -2623,22 +2624,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -2748,7 +2749,9 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2770,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -3529,7 +3532,9 @@
       <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3552,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
@@ -3628,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>55</v>
       </c>
@@ -3666,46 +3671,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>COUNT(B2:B26)</f>
+        <f>COUNTA(B2:B26)</f>
         <v>25</v>
       </c>
       <c r="C27">
-        <f>COUNT(C2:C26)</f>
+        <f t="shared" ref="C27:L27" si="4">COUNTA(C2:C26)</f>
         <v>24</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:L27" si="4">COUNT(D2:D26)</f>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
@@ -3714,28 +3719,28 @@
       <c r="M27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M28" s="12"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M29" s="12"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M30" s="12"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M31" s="12"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M32" s="12"/>
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
@@ -3748,23 +3753,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3814,7 +3819,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>85</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
@@ -3894,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>58</v>
       </c>
@@ -3932,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>59</v>
       </c>
@@ -3970,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>60</v>
       </c>
@@ -4008,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>61</v>
       </c>
@@ -4046,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>62</v>
       </c>
@@ -4086,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>63</v>
       </c>
@@ -4122,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>64</v>
       </c>
@@ -4160,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>65</v>
       </c>
@@ -4200,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>66</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
@@ -4278,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>68</v>
       </c>
@@ -4316,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>69</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>70</v>
       </c>
@@ -4394,7 +4399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>71</v>
       </c>
@@ -4428,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>72</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>73</v>
       </c>
@@ -4506,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>74</v>
       </c>
@@ -4542,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>75</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>76</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>77</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>78</v>
       </c>
@@ -4696,7 +4701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>79</v>
       </c>
@@ -4732,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>80</v>
       </c>
@@ -4766,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>81</v>
       </c>
@@ -4804,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>82</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>83</v>
       </c>
@@ -4878,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>84</v>
       </c>
@@ -4916,22 +4921,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>COUNT(B2:B30)</f>
+        <f>COUNTA(B2:B30)</f>
         <v>29</v>
       </c>
       <c r="C31">
-        <f>COUNT(C2:C30)</f>
+        <f t="shared" ref="C31:L31" si="4">COUNTA(C2:C30)</f>
         <v>24</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:L31" si="4">COUNT(D2:D30)</f>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
@@ -4939,7 +4944,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <f t="shared" si="4"/>
@@ -4964,12 +4969,12 @@
       <c r="M31" s="12"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M32" s="12"/>
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376284D4-BF7D-4498-A214-57FA9FB80C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
   <si>
     <t>ФИО</t>
   </si>
@@ -349,12 +349,18 @@
   </si>
   <si>
     <t>failed 2.20</t>
+  </si>
+  <si>
+    <t>wait al12</t>
+  </si>
+  <si>
+    <t>failed 3.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1262,11 +1268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1359,9 @@
       <c r="F2" s="39">
         <v>5</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="40">
+        <v>5</v>
+      </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -1361,7 +1369,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="30">
         <f t="shared" ref="M2:M32" si="0">SUM(B2:L2)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N2" s="17" t="str">
         <f>IF(M2&gt;=12.5,"pass","fail")</f>
@@ -1373,7 +1381,7 @@
       </c>
       <c r="P2" s="19">
         <f t="shared" ref="P2:P32" si="1">_xlfn.FLOOR.MATH(M2/10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1472,8 +1480,8 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>98</v>
+      <c r="F5" s="1">
+        <v>5</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="1"/>
@@ -1483,7 +1491,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1626,8 +1634,8 @@
       <c r="E9" s="47">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>98</v>
+      <c r="F9" s="47">
+        <v>5</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="1"/>
@@ -1637,7 +1645,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N9" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1708,8 +1716,8 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>98</v>
+      <c r="F11" s="1">
+        <v>5</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="1"/>
@@ -1719,7 +1727,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N11" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1843,8 +1851,8 @@
       <c r="B15" s="10">
         <v>5</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>98</v>
+      <c r="C15" s="42">
+        <v>5</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1857,7 +1865,7 @@
       <c r="L15" s="43"/>
       <c r="M15" s="31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N15" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1869,7 +1877,7 @@
       </c>
       <c r="P15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1928,7 +1936,9 @@
       <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="15"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1937,7 +1947,7 @@
       <c r="L17" s="43"/>
       <c r="M17" s="31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N17" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2008,8 +2018,8 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>98</v>
+      <c r="F19" s="1">
+        <v>5</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="1"/>
@@ -2019,7 +2029,7 @@
       <c r="L19" s="43"/>
       <c r="M19" s="31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N19" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2184,12 +2194,14 @@
       <c r="I23" s="1">
         <v>5</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>5</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="43"/>
       <c r="M23" s="31">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N23" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2263,8 +2275,8 @@
       <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>98</v>
+      <c r="G25" s="15">
+        <v>5</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2273,7 +2285,7 @@
       <c r="L25" s="43"/>
       <c r="M25" s="31">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N25" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2285,7 +2297,7 @@
       </c>
       <c r="P25" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2389,8 +2401,8 @@
       <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>98</v>
+      <c r="G28" s="15">
+        <v>5</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2399,7 +2411,7 @@
       <c r="L28" s="43"/>
       <c r="M28" s="31">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N28" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2411,7 +2423,7 @@
       </c>
       <c r="P28" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2585,7 +2597,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -2601,7 +2613,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
@@ -2624,11 +2636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2749,8 +2761,8 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>98</v>
+      <c r="H3" s="1">
+        <v>5</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2758,7 +2770,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="23">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N3" s="10" t="str">
         <f>IF(M3&gt;=12.5,"pass","fail")</f>
@@ -2918,13 +2930,13 @@
       <c r="J7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>98</v>
+      <c r="K7" s="1">
+        <v>5</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="23">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N7" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2932,11 +2944,11 @@
       </c>
       <c r="O7" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2952,7 +2964,9 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3066,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3105,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3144,8 +3158,8 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>98</v>
+      <c r="E13" s="1">
+        <v>5</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3156,7 +3170,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N13" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3168,7 +3182,7 @@
       </c>
       <c r="P13" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3184,7 +3198,9 @@
       <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3194,7 +3210,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N14" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3206,7 +3222,7 @@
       </c>
       <c r="P14" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3219,8 +3235,8 @@
       <c r="C15" s="7">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>98</v>
+      <c r="D15" s="1">
+        <v>5</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3232,11 +3248,11 @@
       <c r="L15" s="15"/>
       <c r="M15" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N15" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="O15" s="34" t="str">
         <f t="shared" si="3"/>
@@ -3257,8 +3273,8 @@
       <c r="C16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
+      <c r="D16" s="1">
+        <v>5</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3270,11 +3286,11 @@
       <c r="L16" s="15"/>
       <c r="M16" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N16" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="O16" s="34" t="str">
         <f t="shared" si="3"/>
@@ -3532,8 +3548,8 @@
       <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>98</v>
+      <c r="G23" s="1">
+        <v>5</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3542,7 +3558,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="23">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N23" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3554,7 +3570,7 @@
       </c>
       <c r="P23" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3686,7 +3702,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
@@ -3740,7 +3756,7 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:O26">
@@ -3753,11 +3769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:L31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,7 +4990,7 @@
       <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:O30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376284D4-BF7D-4498-A214-57FA9FB80C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -345,13 +344,7 @@
     <t>0th lab</t>
   </si>
   <si>
-    <t>Exam-pass</t>
-  </si>
-  <si>
     <t>failed 2.20</t>
-  </si>
-  <si>
-    <t>wait al12</t>
   </si>
   <si>
     <t>failed 3.5</t>
@@ -360,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -642,43 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -751,19 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -905,11 +848,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -929,40 +885,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1268,11 +1338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,45 +1356,44 @@
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="30" t="s">
         <v>95</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -1333,41 +1402,38 @@
       <c r="N1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="17">
         <v>5</v>
       </c>
-      <c r="C2" s="38">
-        <v>5</v>
-      </c>
-      <c r="D2" s="39">
-        <v>5</v>
-      </c>
-      <c r="E2" s="39">
-        <v>5</v>
-      </c>
-      <c r="F2" s="39">
-        <v>5</v>
-      </c>
-      <c r="G2" s="40">
-        <v>5</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="30">
+      <c r="C2" s="32">
+        <v>5</v>
+      </c>
+      <c r="D2" s="33">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33">
+        <v>5</v>
+      </c>
+      <c r="F2" s="33">
+        <v>5</v>
+      </c>
+      <c r="G2" s="34">
+        <v>5</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="27">
         <f t="shared" ref="M2:M32" si="0">SUM(B2:L2)</f>
         <v>30</v>
       </c>
@@ -1375,23 +1441,19 @@
         <f>IF(M2&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O2" s="33" t="str">
-        <f>IF(M2&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P2" s="19">
-        <f t="shared" ref="P2:P32" si="1">_xlfn.FLOOR.MATH(M2/10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="O2" s="19">
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="36">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -1404,8 +1466,8 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="31">
+      <c r="L3" s="37"/>
+      <c r="M3" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1413,23 +1475,19 @@
         <f>IF(M3&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O3" s="34" t="str">
-        <f>IF(M3&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P3" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="O3" s="20">
+        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10">
         <v>5</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="36">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -1446,32 +1504,28 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="31">
+      <c r="L4" s="37"/>
+      <c r="M4" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f t="shared" ref="N4:N31" si="2">IF(M4&gt;=12.5,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="O4" s="34" t="str">
-        <f t="shared" ref="O4:O31" si="3">IF(M4&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P4" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+        <f t="shared" ref="N4:N31" si="1">IF(M4&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" ref="O4:O32" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="36">
         <v>5</v>
       </c>
       <c r="D5" s="1">
@@ -1488,32 +1542,28 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="31">
+      <c r="L5" s="37"/>
+      <c r="M5" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O5" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P5" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="36">
         <v>5</v>
       </c>
       <c r="D6" s="1">
@@ -1526,38 +1576,34 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="31">
+      <c r="L6" s="37"/>
+      <c r="M6" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O6" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P6" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="36">
         <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="40">
         <v>5</v>
       </c>
       <c r="F7" s="1"/>
@@ -1566,32 +1612,28 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="31">
+      <c r="L7" s="37"/>
+      <c r="M7" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O7" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1600,41 +1642,37 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="31">
+      <c r="L8" s="37"/>
+      <c r="M8" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O8" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="O8" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="36">
         <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="47">
-        <v>5</v>
-      </c>
-      <c r="F9" s="47">
+      <c r="E9" s="40">
+        <v>5</v>
+      </c>
+      <c r="F9" s="40">
         <v>5</v>
       </c>
       <c r="G9" s="15"/>
@@ -1642,38 +1680,34 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="31">
+      <c r="L9" s="37"/>
+      <c r="M9" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O9" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P9" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="36">
         <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="40">
         <v>5</v>
       </c>
       <c r="F10" s="1"/>
@@ -1682,32 +1716,28 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="31">
+      <c r="L10" s="37"/>
+      <c r="M10" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O10" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P10" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="36">
         <v>5</v>
       </c>
       <c r="D11" s="1">
@@ -1724,30 +1754,26 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="31">
+      <c r="L11" s="37"/>
+      <c r="M11" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O11" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1756,32 +1782,28 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="31">
+      <c r="L12" s="37"/>
+      <c r="M12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O12" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="O12" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1790,32 +1812,28 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="31">
+      <c r="L13" s="37"/>
+      <c r="M13" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O13" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="O13" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="36">
         <v>4</v>
       </c>
       <c r="D14" s="1"/>
@@ -1826,32 +1844,28 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="31">
+      <c r="L14" s="37"/>
+      <c r="M14" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O14" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P14" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="O14" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="10">
         <v>5</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="36">
         <v>5</v>
       </c>
       <c r="D15" s="1"/>
@@ -1862,32 +1876,28 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="31">
+      <c r="L15" s="37"/>
+      <c r="M15" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O15" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P15" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="O15" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="36">
         <v>5</v>
       </c>
       <c r="D16" s="1">
@@ -1902,32 +1912,28 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="31">
+      <c r="L16" s="37"/>
+      <c r="M16" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O16" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P16" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10">
         <v>5</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <v>5</v>
       </c>
       <c r="D17" s="1">
@@ -1944,32 +1950,28 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="31">
+      <c r="L17" s="37"/>
+      <c r="M17" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O17" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P17" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="10">
         <v>5</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="36">
         <v>5</v>
       </c>
       <c r="D18" s="1">
@@ -1984,32 +1986,28 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="31">
+      <c r="L18" s="37"/>
+      <c r="M18" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O18" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P18" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="10">
         <v>5</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="36">
         <v>5</v>
       </c>
       <c r="D19" s="1">
@@ -2026,32 +2024,28 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="31">
+      <c r="L19" s="37"/>
+      <c r="M19" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O19" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P19" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="10">
         <v>5</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="36">
         <v>5</v>
       </c>
       <c r="D20" s="1">
@@ -2068,32 +2062,28 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="31">
+      <c r="L20" s="37"/>
+      <c r="M20" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O20" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P20" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10">
         <v>5</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="36">
         <v>5</v>
       </c>
       <c r="D21" s="1">
@@ -2106,32 +2096,28 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="31">
+      <c r="L21" s="37"/>
+      <c r="M21" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O21" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P21" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="36">
         <v>5</v>
       </c>
       <c r="D22" s="1">
@@ -2148,32 +2134,28 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="31">
+      <c r="L22" s="37"/>
+      <c r="M22" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O22" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P22" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="10">
         <v>5</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="36">
         <v>5</v>
       </c>
       <c r="D23" s="1">
@@ -2198,32 +2180,28 @@
         <v>5</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="31">
+      <c r="L23" s="37"/>
+      <c r="M23" s="28">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O23" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>pass</v>
-      </c>
-      <c r="P23" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="36">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -2238,32 +2216,28 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="31">
+      <c r="L24" s="37"/>
+      <c r="M24" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O24" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P24" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10">
         <v>5</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="36">
         <v>5</v>
       </c>
       <c r="D25" s="1">
@@ -2282,32 +2256,28 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="31">
+      <c r="L25" s="37"/>
+      <c r="M25" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O25" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P25" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <v>5</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="36">
         <v>5</v>
       </c>
       <c r="D26" s="1">
@@ -2324,32 +2294,28 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="31">
+      <c r="L26" s="37"/>
+      <c r="M26" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N26" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O26" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P26" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="10">
         <v>5</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="36">
         <v>5</v>
       </c>
       <c r="D27" s="1">
@@ -2364,32 +2330,28 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="31">
+      <c r="L27" s="37"/>
+      <c r="M27" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N27" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O27" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P27" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="10">
         <v>5</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="36">
         <v>5</v>
       </c>
       <c r="D28" s="1">
@@ -2408,32 +2370,28 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="31">
+      <c r="L28" s="37"/>
+      <c r="M28" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="N28" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O28" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P28" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="10">
         <v>5</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="36" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="1"/>
@@ -2444,32 +2402,28 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="31">
+      <c r="L29" s="37"/>
+      <c r="M29" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N29" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O29" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P29" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="O29" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="10">
         <v>5</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2478,32 +2432,28 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="31">
+      <c r="L30" s="37"/>
+      <c r="M30" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N30" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O30" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P30" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="O30" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="10">
         <v>5</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="36">
         <v>5</v>
       </c>
       <c r="D31" s="1">
@@ -2524,32 +2474,28 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="31">
+      <c r="L31" s="37"/>
+      <c r="M31" s="28">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="N31" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O31" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P31" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O31" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="11">
         <v>5</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="38">
         <v>5</v>
       </c>
       <c r="D32" s="2"/>
@@ -2560,8 +2506,8 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="32">
+      <c r="L32" s="39"/>
+      <c r="M32" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2569,13 +2515,9 @@
         <f>IF(M32&gt;=12.5,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="O32" s="35" t="str">
-        <f>IF(M32&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P32" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="O32" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -2584,78 +2526,115 @@
         <v>28</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:L33" si="4">COUNTA(C4:C32)</f>
+        <f t="shared" ref="C33:L33" si="3">COUNTA(C4:C32)</f>
         <v>25</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:O32">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
+  <conditionalFormatting sqref="N2:N32">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FA2CA9A7-34BC-4440-BBBE-7068B46404FC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FA2CA9A7-34BC-4440-BBBE-7068B46404FC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O2:O32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2694,18 +2673,15 @@
       <c r="N1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="23">
         <v>5</v>
       </c>
       <c r="C2" s="6">
@@ -2722,7 +2698,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="22">
+      <c r="M2" s="19">
         <f t="shared" ref="M2:M26" si="0">SUM(B2:L2)</f>
         <v>15</v>
       </c>
@@ -2730,16 +2706,12 @@
         <f>IF(M2&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O2" s="33" t="str">
-        <f>IF(M2&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P2" s="46">
-        <f t="shared" ref="P2:P26" si="1">_xlfn.FLOOR.MATH(M2/10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="19">
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -2768,7 +2740,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2776,16 +2748,12 @@
         <f>IF(M3&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O3" s="34" t="str">
-        <f>IF(M3&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P3" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O3" s="20">
+        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -2806,24 +2774,20 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="15"/>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f t="shared" ref="N4:N25" si="2">IF(M4&gt;=12.5,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="O4" s="34" t="str">
-        <f t="shared" ref="O4:O25" si="3">IF(M4&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P4" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N4:N25" si="1">IF(M4&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" ref="O4:O32" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -2844,24 +2808,20 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O5" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P5" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
@@ -2882,24 +2842,20 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O6" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P6" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -2934,24 +2890,20 @@
         <v>5</v>
       </c>
       <c r="L7" s="15"/>
-      <c r="M7" s="23">
+      <c r="M7" s="20">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O7" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>pass</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -2974,24 +2926,20 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O8" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -3012,24 +2960,20 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O9" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P9" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -3046,24 +2990,20 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O10" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -3080,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3088,24 +3028,20 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O11" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -3118,8 +3054,8 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>103</v>
+      <c r="E12" s="1">
+        <v>5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3128,24 +3064,20 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="M12" s="20">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O12" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P12" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -3168,24 +3100,20 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="23">
+      <c r="M13" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O13" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P13" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
@@ -3208,24 +3136,20 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O14" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P14" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -3246,24 +3170,20 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O15" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P15" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -3284,24 +3204,20 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O16" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P16" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
@@ -3320,24 +3236,20 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O17" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P17" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
@@ -3358,24 +3270,20 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="23">
+      <c r="M18" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O18" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P18" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
@@ -3396,24 +3304,20 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="23">
+      <c r="M19" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O19" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P19" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
@@ -3436,24 +3340,20 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O20" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P20" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
@@ -3474,24 +3374,20 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O21" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P21" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
@@ -3512,24 +3408,20 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="23">
+      <c r="M22" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O22" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P22" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -3556,24 +3448,20 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="23">
+      <c r="M23" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O23" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P23" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
@@ -3594,24 +3482,20 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="23">
+      <c r="M24" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O24" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P24" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
@@ -3632,24 +3516,20 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="23">
+      <c r="M25" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O25" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P25" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>55</v>
       </c>
@@ -3670,7 +3550,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="24">
+      <c r="M26" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3678,102 +3558,130 @@
         <f>IF(M26&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O26" s="35" t="str">
-        <f>IF(M26&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P26" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O26" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>COUNTA(B2:B26)</f>
         <v>25</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:L27" si="4">COUNTA(C2:C26)</f>
+        <f t="shared" ref="C27:L27" si="3">COUNTA(C2:C26)</f>
         <v>24</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="12"/>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M28" s="12"/>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M29" s="12"/>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M30" s="12"/>
-      <c r="P30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M31" s="12"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M32" s="12"/>
-      <c r="P32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <conditionalFormatting sqref="N2:O26">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
+  <conditionalFormatting sqref="N2:N26">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{256706B1-2EF2-43BB-9A41-2F31583EC8E7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{256706B1-2EF2-43BB-9A41-2F31583EC8E7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O2:O26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,15 +3689,15 @@
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -3828,15 +3736,12 @@
       <c r="N1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="17">
@@ -3860,7 +3765,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="22">
+      <c r="M2" s="19">
         <f t="shared" ref="M2:M30" si="0">SUM(B2:L2)</f>
         <v>25</v>
       </c>
@@ -3868,17 +3773,13 @@
         <f>IF(M2&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O2" s="33" t="str">
-        <f>IF(M2&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P2" s="46">
-        <f t="shared" ref="P2:P30" si="1">_xlfn.FLOOR.MATH(M2/10)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="O2" s="19">
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="10">
@@ -3898,7 +3799,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3906,17 +3807,13 @@
         <f>IF(M3&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O3" s="34" t="str">
-        <f>IF(M3&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P3" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="O3" s="20">
+        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="10">
@@ -3936,25 +3833,21 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="15"/>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f t="shared" ref="N4:N29" si="2">IF(M4&gt;=12.5,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="O4" s="34" t="str">
-        <f t="shared" ref="O4:O29" si="3">IF(M4&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P4" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+        <f t="shared" ref="N4:N29" si="1">IF(M4&gt;=12.5,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" ref="O4:O30" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=40,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="10">
@@ -3974,25 +3867,21 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O5" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P5" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="10">
@@ -4012,25 +3901,21 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O6" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P6" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="10">
@@ -4050,25 +3935,21 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="23">
+      <c r="M7" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O7" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="10">
@@ -4081,7 +3962,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4090,25 +3971,21 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O8" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="10">
@@ -4126,25 +4003,21 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O9" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P9" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="O9" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="10">
@@ -4164,25 +4037,21 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O10" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P10" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="10">
@@ -4204,25 +4073,21 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O11" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="10">
@@ -4238,25 +4103,21 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O12" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="O12" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="10">
@@ -4282,25 +4143,21 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="23">
+      <c r="M13" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O13" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P13" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="10">
@@ -4320,25 +4177,21 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O14" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P14" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="O14" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="10">
@@ -4358,25 +4211,21 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O15" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P15" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="10">
@@ -4398,25 +4247,21 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O16" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P16" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="10">
@@ -4432,25 +4277,21 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O17" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="O17" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="10">
@@ -4470,25 +4311,21 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="23">
+      <c r="M18" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O18" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P18" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="10">
@@ -4510,25 +4347,21 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="23">
+      <c r="M19" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O19" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P19" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="10">
@@ -4546,25 +4379,21 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O20" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P20" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="O20" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="10">
@@ -4580,25 +4409,21 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O21" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P21" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="O21" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="10">
@@ -4620,25 +4445,21 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="23">
+      <c r="M22" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O22" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P22" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="10">
@@ -4660,25 +4481,21 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="23">
+      <c r="M23" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O23" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P23" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="10">
@@ -4700,25 +4517,21 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="23">
+      <c r="M24" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O24" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P24" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="10">
@@ -4736,25 +4549,21 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="23">
+      <c r="M25" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O25" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P25" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="O25" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="10">
@@ -4770,25 +4579,21 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="23">
+      <c r="M26" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N26" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O26" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P26" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="O26" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="10">
@@ -4808,25 +4613,21 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="23">
+      <c r="M27" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N27" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O27" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P27" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="10">
@@ -4848,25 +4649,21 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="23">
+      <c r="M28" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N28" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>pass</v>
-      </c>
-      <c r="O28" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P28" s="20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="10">
@@ -4882,25 +4679,21 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="23">
+      <c r="M29" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N29" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="O29" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>fail</v>
-      </c>
-      <c r="P29" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="O29" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="11">
@@ -4920,7 +4713,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="24">
+      <c r="M30" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4928,76 +4721,110 @@
         <f>IF(M30&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="O30" s="35" t="str">
-        <f>IF(M30&gt;=40,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="P30" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O30" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>COUNTA(B2:B30)</f>
         <v>29</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:L31" si="4">COUNTA(C2:C30)</f>
+        <f t="shared" ref="C31:L31" si="3">COUNTA(C2:C30)</f>
         <v>24</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31" s="12"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M32" s="12"/>
-      <c r="P32" s="12"/>
+      <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <conditionalFormatting sqref="N2:O30">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="pass">
+  <conditionalFormatting sqref="N2:N30">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O30">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E6F9F8D0-1214-4792-A05B-57F33CD14B7C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E6F9F8D0-1214-4792-A05B-57F33CD14B7C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O2:O30</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD77DE6-9759-41B2-A815-CEB506024C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -353,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,97 +914,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1338,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2616,11 +2528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,7 +2648,9 @@
       <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="15"/>
@@ -2783,7 +2697,7 @@
         <v>pass</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" ref="O4:O32" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=40,3,2)))</f>
+        <f t="shared" ref="O4:O26" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=40,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3594,7 +3508,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -3626,7 +3540,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3677,11 +3591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,7 +4254,9 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -4372,7 +4288,6 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -4474,7 +4389,9 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -4745,7 +4662,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -4779,7 +4696,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD77DE6-9759-41B2-A815-CEB506024C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F645F182-0E24-4C23-A48E-674F97CF0751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -3595,7 +3595,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,7 +4522,9 @@
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4658,7 +4660,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F645F182-0E24-4C23-A48E-674F97CF0751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -355,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1250,7 +1249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2528,11 +2527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,7 +3209,9 @@
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3492,7 +3493,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -3540,7 +3541,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3591,11 +3592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,7 +3674,9 @@
       <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -4668,7 +4671,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
@@ -4698,7 +4701,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A681727D-9FA9-4FAF-A788-B69070FD4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>ФИО</t>
   </si>
@@ -354,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -911,7 +912,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1249,11 +1250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1354,7 @@
         <v>pass</v>
       </c>
       <c r="O2" s="19">
-        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=40,3,2)))</f>
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -1387,7 +1388,7 @@
         <v>pass</v>
       </c>
       <c r="O3" s="20">
-        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=40,3,2)))</f>
+        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -1425,7 +1426,7 @@
         <v>pass</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" ref="O4:O32" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=40,3,2)))</f>
+        <f t="shared" ref="O4:O31" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -1856,7 +1857,9 @@
       <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2277,7 +2280,9 @@
       <c r="G28" s="15">
         <v>5</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2427,7 +2432,7 @@
         <v>fail</v>
       </c>
       <c r="O32" s="21">
-        <f t="shared" si="2"/>
+        <f>IF(M32&gt;=50,5,IF(M32&gt;=45,4,IF(M32&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -2454,11 +2459,11 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
@@ -2527,11 +2532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,7 +2623,7 @@
         <v>pass</v>
       </c>
       <c r="O2" s="19">
-        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=40,3,2)))</f>
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -2662,8 +2667,8 @@
         <v>pass</v>
       </c>
       <c r="O3" s="20">
-        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=40,3,2)))</f>
-        <v>2</v>
+        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=35,3,2)))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2696,7 +2701,7 @@
         <v>pass</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" ref="O4:O26" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=40,3,2)))</f>
+        <f t="shared" ref="O4:O25" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3474,7 +3479,7 @@
         <v>pass</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" si="2"/>
+        <f>IF(M26&gt;=50,5,IF(M26&gt;=45,4,IF(M26&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3541,7 +3546,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3592,11 +3597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,7 +3696,7 @@
         <v>pass</v>
       </c>
       <c r="O2" s="19">
-        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=40,3,2)))</f>
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3725,7 +3730,7 @@
         <v>pass</v>
       </c>
       <c r="O3" s="20">
-        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=40,3,2)))</f>
+        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3759,7 +3764,7 @@
         <v>pass</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" ref="O4:O30" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=40,3,2)))</f>
+        <f t="shared" ref="O4:O29" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3946,7 +3951,9 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3983,7 +3990,9 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4644,7 +4653,7 @@
         <v>pass</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="2"/>
+        <f>IF(M30&gt;=50,5,IF(M30&gt;=45,4,IF(M30&gt;=35,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -4663,11 +4672,11 @@
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -4701,7 +4710,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A681727D-9FA9-4FAF-A788-B69070FD4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CCF6D9-877C-4FFB-981C-E582CEC148E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>ФИО</t>
   </si>
@@ -346,17 +344,26 @@
     <t>0th lab</t>
   </si>
   <si>
-    <t>failed 2.20</t>
-  </si>
-  <si>
     <t>failed 3.5</t>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>2,3+3,9</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,13 +380,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="36">
@@ -864,10 +884,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -910,9 +931,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1254,7 +1279,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1843,9 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G16" s="15"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2455,7 +2482,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -2938,7 +2965,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3600,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,6 +3636,7 @@
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3679,8 +3707,8 @@
       <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>98</v>
+      <c r="G2" s="44">
+        <v>5</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3689,7 +3717,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="19">
         <f t="shared" ref="M2:M30" si="0">SUM(B2:L2)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N2" s="17" t="str">
         <f>IF(M2&gt;=12.5,"pass","fail")</f>
@@ -3849,7 +3877,9 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="40">
+        <v>4</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3859,7 +3889,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3883,8 +3913,8 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>101</v>
+      <c r="E8" s="44">
+        <v>4</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3895,7 +3925,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3951,8 +3981,8 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
+      <c r="E10" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3990,8 +4020,8 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>98</v>
+      <c r="F11" s="44">
+        <v>5</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4001,7 +4031,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4019,7 +4049,9 @@
       <c r="B12" s="10">
         <v>5</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="43" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4061,9 +4093,7 @@
       <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4266,8 +4296,8 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>98</v>
+      <c r="F19">
+        <v>5</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4277,7 +4307,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4401,8 +4431,8 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>98</v>
+      <c r="F23" s="44">
+        <v>5</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4412,7 +4442,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4469,7 +4499,9 @@
       <c r="C25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -4498,7 +4530,9 @@
       <c r="B26" s="10">
         <v>5</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="43" t="s">
+        <v>103</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4534,8 +4568,8 @@
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>98</v>
+      <c r="E27" s="44">
+        <v>5</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -4546,7 +4580,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N27" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4664,15 +4698,15 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:L31" si="3">COUNTA(C2:C30)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
@@ -4680,7 +4714,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CCF6D9-877C-4FFB-981C-E582CEC148E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>ФИО</t>
   </si>
@@ -351,9 +350,6 @@
   </si>
   <si>
     <t>2,3+3,9</t>
-  </si>
-  <si>
-    <t>3,8</t>
   </si>
   <si>
     <t xml:space="preserve"> 3,5</t>
@@ -362,8 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,26 +376,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="36">
@@ -884,11 +867,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -931,12 +913,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1275,11 +1254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,8 +1358,8 @@
         <v>pass</v>
       </c>
       <c r="O2" s="19">
-        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=35,3,2)))</f>
-        <v>2</v>
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=40,4,IF(M2&gt;=30,3,2)))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1413,7 +1392,7 @@
         <v>pass</v>
       </c>
       <c r="O3" s="20">
-        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=35,3,2)))</f>
+        <f>IF(M3&gt;=50,5,IF(M3&gt;=40,4,IF(M3&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -1451,7 +1430,7 @@
         <v>pass</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" ref="O4:O31" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=35,3,2)))</f>
+        <f t="shared" ref="O4:O31" si="2">IF(M4&gt;=50,5,IF(M4&gt;=40,4,IF(M4&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -2208,7 +2187,7 @@
       </c>
       <c r="O25" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2324,7 +2303,7 @@
       </c>
       <c r="O28" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2459,7 +2438,7 @@
         <v>fail</v>
       </c>
       <c r="O32" s="21">
-        <f>IF(M32&gt;=50,5,IF(M32&gt;=45,4,IF(M32&gt;=35,3,2)))</f>
+        <f>IF(M32&gt;=50,5,IF(M32&gt;=40,4,IF(M32&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -2559,11 +2538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,7 +2629,7 @@
         <v>pass</v>
       </c>
       <c r="O2" s="19">
-        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=35,3,2)))</f>
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=40,4,IF(M2&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -2694,7 +2673,7 @@
         <v>pass</v>
       </c>
       <c r="O3" s="20">
-        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=35,3,2)))</f>
+        <f t="shared" ref="O3:O24" si="1">IF(M3&gt;=50,5,IF(M3&gt;=40,4,IF(M3&gt;=30,3,2)))</f>
         <v>3</v>
       </c>
     </row>
@@ -2724,11 +2703,11 @@
         <v>15</v>
       </c>
       <c r="N4" s="10" t="str">
-        <f t="shared" ref="N4:N25" si="1">IF(M4&gt;=12.5,"pass","fail")</f>
+        <f t="shared" ref="N4:N25" si="2">IF(M4&gt;=12.5,"pass","fail")</f>
         <v>pass</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" ref="O4:O25" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=35,3,2)))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2758,11 +2737,11 @@
         <v>15</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O5" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2792,11 +2771,11 @@
         <v>15</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O6" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2840,12 +2819,12 @@
         <v>40</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O7" s="20">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2876,11 +2855,11 @@
         <v>15</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O8" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2910,11 +2889,11 @@
         <v>10</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2940,11 +2919,11 @@
         <v>5</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O10" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2978,11 +2957,11 @@
         <v>20</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3014,11 +2993,11 @@
         <v>20</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3050,11 +3029,11 @@
         <v>20</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3086,11 +3065,11 @@
         <v>20</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3120,11 +3099,11 @@
         <v>15</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3154,11 +3133,11 @@
         <v>15</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3186,11 +3165,11 @@
         <v>10</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3220,11 +3199,11 @@
         <v>15</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3256,11 +3235,11 @@
         <v>15</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3292,11 +3271,11 @@
         <v>20</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3326,11 +3305,11 @@
         <v>15</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3360,11 +3339,11 @@
         <v>15</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3390,7 +3369,9 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3400,12 +3381,12 @@
         <v>30</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3434,11 +3415,11 @@
         <v>15</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3468,11 +3449,11 @@
         <v>15</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="2"/>
+        <f>IF(M25&gt;=50,5,IF(M25&gt;=40,4,IF(M25&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3506,7 +3487,7 @@
         <v>pass</v>
       </c>
       <c r="O26" s="21">
-        <f>IF(M26&gt;=50,5,IF(M26&gt;=45,4,IF(M26&gt;=35,3,2)))</f>
+        <f>IF(M26&gt;=50,5,IF(M26&gt;=40,4,IF(M26&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3537,7 +3518,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
@@ -3573,7 +3554,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3624,21 +3605,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3707,7 +3690,7 @@
       <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="42">
         <v>5</v>
       </c>
       <c r="H2" s="3"/>
@@ -3724,8 +3707,8 @@
         <v>pass</v>
       </c>
       <c r="O2" s="19">
-        <f>IF(M2&gt;=50,5,IF(M2&gt;=45,4,IF(M2&gt;=35,3,2)))</f>
-        <v>2</v>
+        <f>IF(M2&gt;=50,5,IF(M2&gt;=40,4,IF(M2&gt;=30,3,2)))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3758,7 +3741,7 @@
         <v>pass</v>
       </c>
       <c r="O3" s="20">
-        <f>IF(M3&gt;=50,5,IF(M3&gt;=45,4,IF(M3&gt;=35,3,2)))</f>
+        <f>IF(M3&gt;=50,5,IF(M3&gt;=40,4,IF(M3&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3792,7 +3775,7 @@
         <v>pass</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" ref="O4:O29" si="2">IF(M4&gt;=50,5,IF(M4&gt;=45,4,IF(M4&gt;=35,3,2)))</f>
+        <f t="shared" ref="O4:O29" si="2">IF(M4&gt;=50,5,IF(M4&gt;=40,4,IF(M4&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -3913,7 +3896,7 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="42">
         <v>4</v>
       </c>
       <c r="F8" s="1"/>
@@ -4020,7 +4003,7 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="42">
         <v>5</v>
       </c>
       <c r="G11" s="1"/>
@@ -4049,8 +4032,8 @@
       <c r="B12" s="10">
         <v>5</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>104</v>
+      <c r="C12" s="42">
+        <v>5</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4063,7 +4046,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4159,7 +4142,9 @@
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4431,7 +4416,7 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="42">
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
@@ -4499,8 +4484,8 @@
       <c r="C25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="44" t="s">
-        <v>105</v>
+      <c r="D25" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4530,7 +4515,7 @@
       <c r="B26" s="10">
         <v>5</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="42" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="1"/>
@@ -4568,7 +4553,7 @@
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="42">
         <v>5</v>
       </c>
       <c r="F27" s="1"/>
@@ -4687,7 +4672,7 @@
         <v>pass</v>
       </c>
       <c r="O30" s="21">
-        <f>IF(M30&gt;=50,5,IF(M30&gt;=45,4,IF(M30&gt;=35,3,2)))</f>
+        <f>IF(M30&gt;=50,5,IF(M30&gt;=40,4,IF(M30&gt;=30,3,2)))</f>
         <v>2</v>
       </c>
     </row>
@@ -4706,7 +4691,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
@@ -4744,7 +4729,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8EA2E-0530-400A-BE9E-9DD76EAE53FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>ФИО</t>
   </si>
@@ -358,7 +361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1254,10 +1257,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -2538,11 +2541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,8 +2664,12 @@
       <c r="I3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L3" s="15"/>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
@@ -3526,11 +3533,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
@@ -3554,7 +3561,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3605,11 +3612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,7 +3903,7 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="40">
         <v>4</v>
       </c>
       <c r="F8" s="1"/>
@@ -3964,7 +3971,7 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="40" t="s">
         <v>102</v>
       </c>
       <c r="F10" s="1"/>
@@ -4003,7 +4010,7 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <v>5</v>
       </c>
       <c r="G11" s="1"/>
@@ -4281,7 +4288,7 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>5</v>
       </c>
       <c r="G19" s="1"/>
@@ -4315,6 +4322,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -4416,7 +4424,7 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="40">
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
@@ -4484,7 +4492,7 @@
       <c r="C25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="40" t="s">
         <v>104</v>
       </c>
       <c r="E25" s="1"/>
@@ -4553,7 +4561,7 @@
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="40">
         <v>5</v>
       </c>
       <c r="F27" s="1"/>
@@ -4729,7 +4737,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8EA2E-0530-400A-BE9E-9DD76EAE53FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B033F24-E8B1-423B-B287-5EDF2C114D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t>ФИО</t>
   </si>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1668,9 @@
       <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2468,7 +2470,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
@@ -2544,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,7 +3381,9 @@
       <c r="H23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
@@ -3443,7 +3447,9 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3513,7 +3519,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -3529,7 +3535,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B033F24-E8B1-423B-B287-5EDF2C114D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -346,9 +345,6 @@
     <t>0th lab</t>
   </si>
   <si>
-    <t>failed 3.5</t>
-  </si>
-  <si>
     <t>3,10</t>
   </si>
   <si>
@@ -356,12 +352,30 @@
   </si>
   <si>
     <t xml:space="preserve"> 3,5</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>failed '3.5+Insert</t>
+  </si>
+  <si>
+    <t>failed '3.14--</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>failed '2.14</t>
+  </si>
+  <si>
+    <t>failed v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,12 +394,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="36">
@@ -873,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -917,9 +943,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1257,11 +1289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,8 +1302,10 @@
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1347,14 +1381,16 @@
       <c r="G2" s="34">
         <v>5</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="33">
+        <v>5</v>
+      </c>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="35"/>
       <c r="M2" s="27">
         <f t="shared" ref="M2:M32" si="0">SUM(B2:L2)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N2" s="17" t="str">
         <f>IF(M2&gt;=12.5,"pass","fail")</f>
@@ -1378,7 +1414,9 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="15"/>
       <c r="H3" s="1"/>
@@ -1415,8 +1453,8 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>98</v>
+      <c r="F4" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="1"/>
@@ -1668,8 +1706,8 @@
       <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>98</v>
+      <c r="G11" s="46">
+        <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1678,7 +1716,7 @@
       <c r="L11" s="37"/>
       <c r="M11" s="28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1686,7 +1724,7 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1868,8 +1906,8 @@
       <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>98</v>
+      <c r="G17" s="46">
+        <v>5</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1878,7 +1916,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1886,7 +1924,7 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1902,8 +1940,8 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
+      <c r="E18" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="15"/>
@@ -1982,7 +2020,9 @@
       <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15">
+        <v>5</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1990,7 +2030,7 @@
       <c r="L20" s="37"/>
       <c r="M20" s="28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1998,7 +2038,7 @@
       </c>
       <c r="O20" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2054,7 +2094,9 @@
       <c r="F22" s="1">
         <v>5</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="43">
+        <v>5</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2062,7 +2104,7 @@
       <c r="L22" s="37"/>
       <c r="M22" s="28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2070,7 +2112,7 @@
       </c>
       <c r="O22" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2211,8 +2253,8 @@
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>98</v>
+      <c r="F26" s="40">
+        <v>5</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="1"/>
@@ -2222,7 +2264,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2291,8 +2333,8 @@
       <c r="G28" s="15">
         <v>5</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>98</v>
+      <c r="H28" s="1">
+        <v>5</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2300,7 +2342,7 @@
       <c r="L28" s="37"/>
       <c r="M28" s="28">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N28" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2350,7 +2392,9 @@
       <c r="B30" s="10">
         <v>5</v>
       </c>
-      <c r="C30" s="36"/>
+      <c r="C30" s="36">
+        <v>5</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2362,7 +2406,7 @@
       <c r="L30" s="37"/>
       <c r="M30" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N30" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2425,7 +2469,9 @@
       <c r="C32" s="38">
         <v>5</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="44" t="s">
+        <v>104</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="16"/>
@@ -2454,11 +2500,11 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:L33" si="3">COUNTA(C4:C32)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
@@ -2470,7 +2516,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
@@ -2543,17 +2589,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2663,8 +2711,8 @@
       <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>98</v>
+      <c r="I3" s="1">
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>98</v>
@@ -2675,7 +2723,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N3" s="10" t="str">
         <f>IF(M3&gt;=12.5,"pass","fail")</f>
@@ -2683,7 +2731,7 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O24" si="1">IF(M3&gt;=50,5,IF(M3&gt;=40,4,IF(M3&gt;=30,3,2)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2699,7 +2747,9 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2767,7 +2817,9 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="40">
+        <v>5</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2777,7 +2829,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N6" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2813,11 +2865,11 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>98</v>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
@@ -2825,7 +2877,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N7" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2849,8 +2901,8 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>98</v>
+      <c r="E8" s="40">
+        <v>5</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2861,7 +2913,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N8" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2952,8 +3004,8 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>101</v>
+      <c r="F11" s="40">
+        <v>4</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2963,7 +3015,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N11" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3229,8 +3281,8 @@
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>98</v>
+      <c r="E19" s="40">
+        <v>5</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3241,7 +3293,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N19" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3378,8 +3430,8 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>98</v>
+      <c r="H23" s="48" t="s">
+        <v>109</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>98</v>
@@ -3447,8 +3499,8 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
+      <c r="E25" s="40">
+        <v>5</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3459,7 +3511,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N25" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3519,7 +3571,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -3567,7 +3619,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3618,11 +3670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,7 +4030,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4048,7 +4100,9 @@
       <c r="C12" s="42">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4059,11 +4113,11 @@
       <c r="L12" s="15"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="2"/>
@@ -4499,7 +4553,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4530,7 +4584,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4701,7 +4755,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
@@ -4743,7 +4797,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3CF34-C31C-4C7D-B1A3-5D34BE1EF71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -375,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -951,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1289,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,19 +2590,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3114,7 +3120,9 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3575,7 +3583,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -3619,7 +3627,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3670,11 +3678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,7 +4668,9 @@
       <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4763,7 +4773,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -4797,7 +4807,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3CF34-C31C-4C7D-B1A3-5D34BE1EF71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4FB72-F616-4815-AA55-56111CF01F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2594,7 +2594,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,8 +2940,8 @@
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>98</v>
+      <c r="D9" s="1">
+        <v>5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2953,11 +2953,11 @@
       <c r="L9" s="15"/>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" si="1"/>
@@ -3444,7 +3444,9 @@
       <c r="I23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
       <c r="M23" s="20">
@@ -3599,7 +3601,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4FB72-F616-4815-AA55-56111CF01F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D8A9C1-95C7-49A9-8DE5-03F72B028E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -2594,7 +2594,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +2789,9 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3581,7 +3583,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D8A9C1-95C7-49A9-8DE5-03F72B028E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E852CE0-8854-4F4B-B7CA-76FE3B22E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,7 +2220,9 @@
       <c r="G25" s="15">
         <v>5</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2337,7 +2339,9 @@
       <c r="H28" s="1">
         <v>5</v>
       </c>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="37"/>
@@ -2521,11 +2525,11 @@
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
@@ -2593,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,7 +3551,9 @@
       <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3583,7 +3589,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E852CE0-8854-4F4B-B7CA-76FE3B22E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -376,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -952,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1290,11 +1289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2023,9 @@
       <c r="G20" s="15">
         <v>5</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2525,7 +2526,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
@@ -2594,7 +2595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3637,7 +3638,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3688,7 +3689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4817,7 +4818,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279FEC4-96F1-49EA-BF7E-B22A3E48D069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -375,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1289,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1457,9 @@
       <c r="F4" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1982,7 +1985,9 @@
       <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2522,7 +2527,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
@@ -2595,7 +2600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3638,7 +3643,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3689,11 +3694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,7 +3915,9 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4780,7 +4787,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
@@ -4818,7 +4825,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279FEC4-96F1-49EA-BF7E-B22A3E48D069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -376,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1290,11 +1289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3643,7 +3642,7 @@
       <c r="M32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="N2:N26">
@@ -3694,11 +3693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,8 +4234,8 @@
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>98</v>
+      <c r="E15" s="1">
+        <v>5</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -4247,7 +4246,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4337,7 +4336,9 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="40">
+        <v>5</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4347,7 +4348,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N18" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4787,7 +4788,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
@@ -4825,7 +4826,7 @@
       <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="N2:N30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
   <si>
     <t>ФИО</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>failed v2</t>
-  </si>
-  <si>
-    <t>failed 3.5 &amp; 3,9</t>
   </si>
   <si>
     <t>failed 3,9</t>
@@ -382,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,14 +398,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,11 +426,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -935,10 +919,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -987,17 +970,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1388,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1414,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -1481,7 +1463,7 @@
       <c r="G2" s="32">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="25">
         <f>SUM(B2:H2)</f>
         <v>25</v>
@@ -1497,7 +1479,9 @@
       <c r="L2" s="31">
         <v>5</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="31">
+        <v>5</v>
+      </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="33"/>
@@ -1520,7 +1504,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="47"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="26">
         <f>SUM(B3:H3)</f>
         <v>10</v>
@@ -1555,16 +1539,16 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>105</v>
+      <c r="F4" s="40">
+        <v>3</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="26">
         <f t="shared" ref="I4:I31" si="0">SUM(B4:H4)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4" s="10" t="str">
         <f t="shared" ref="J4:J31" si="1">IF(I4&gt;=12.5,"pass","fail")</f>
@@ -1599,11 +1583,13 @@
       <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="47"/>
+      <c r="G5" s="14">
+        <v>5</v>
+      </c>
+      <c r="H5" s="46"/>
       <c r="I5" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1611,7 +1597,7 @@
       </c>
       <c r="K5" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1635,7 +1621,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1672,7 +1658,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1703,7 +1689,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1741,11 +1727,13 @@
       <c r="F9" s="38">
         <v>5</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="47"/>
+      <c r="G9" s="14">
+        <v>5</v>
+      </c>
+      <c r="H9" s="46"/>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J9" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1753,7 +1741,7 @@
       </c>
       <c r="K9" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1777,12 +1765,14 @@
       <c r="E10" s="38">
         <v>5</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1790,7 +1780,7 @@
       </c>
       <c r="K10" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1820,7 +1810,7 @@
       <c r="G11" s="44">
         <v>5</v>
       </c>
-      <c r="H11" s="48"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1851,7 +1841,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1882,7 +1872,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="48"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1915,7 +1905,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1948,7 +1938,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1987,7 +1977,7 @@
         <v>98</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="47"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2028,7 +2018,7 @@
       <c r="G17" s="44">
         <v>5</v>
       </c>
-      <c r="H17" s="47"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2061,11 +2051,11 @@
         <v>5</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2103,13 +2093,13 @@
       <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="47"/>
+      <c r="G19" s="14">
+        <v>5</v>
+      </c>
+      <c r="H19" s="46"/>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2117,7 +2107,7 @@
       </c>
       <c r="K19" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2147,7 +2137,7 @@
       <c r="G20" s="14">
         <v>5</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2184,7 +2174,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="47"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2225,7 +2215,7 @@
       <c r="G22" s="41">
         <v>5</v>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2266,7 +2256,7 @@
       <c r="G23" s="14">
         <v>5</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2308,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="47"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2352,7 +2342,7 @@
       <c r="G25" s="14">
         <v>5</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2395,7 +2385,7 @@
       <c r="G26" s="38">
         <v>5</v>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2432,7 +2422,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="47"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2473,7 +2463,7 @@
       <c r="G28" s="14">
         <v>5</v>
       </c>
-      <c r="H28" s="47"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2510,7 +2500,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="47"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2543,7 +2533,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2581,13 +2571,13 @@
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="47"/>
+      <c r="G31" s="14">
+        <v>5</v>
+      </c>
+      <c r="H31" s="46"/>
       <c r="I31" s="26">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J31" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2595,7 +2585,7 @@
       </c>
       <c r="K31" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>98</v>
@@ -2659,11 +2649,11 @@
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L33">
         <f>COUNTA(L4:L32)</f>
@@ -2739,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,7 +2770,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -2823,13 +2813,13 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="47"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="18">
         <f>SUM(B2:H2)</f>
         <v>10</v>
       </c>
       <c r="J2" s="16" t="str">
-        <f>IF(I2&gt;=12.5,"pass","fail")</f>
+        <f t="shared" ref="J2:J26" si="0">IF(I2&gt;=12.5,"pass","fail")</f>
         <v>fail</v>
       </c>
       <c r="K2" s="18">
@@ -2864,13 +2854,13 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="19">
         <f>SUM(B3:H3)</f>
         <v>25</v>
       </c>
       <c r="J3" s="10" t="str">
-        <f>IF(I3&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K3" s="19">
@@ -2909,17 +2899,17 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="47"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="19">
-        <f t="shared" ref="I4:I25" si="0">SUM(B4:H4)</f>
+        <f t="shared" ref="I4:I25" si="1">SUM(B4:H4)</f>
         <v>10</v>
       </c>
       <c r="J4" s="10" t="str">
-        <f>IF(I4&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K4" s="19">
-        <f t="shared" ref="K4:K32" si="1">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
+        <f t="shared" ref="K4:K25" si="2">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
         <v>2</v>
       </c>
       <c r="L4" s="34"/>
@@ -2941,22 +2931,22 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>98</v>
+      <c r="E5" s="1">
+        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="19">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="J5" s="10" t="str">
-        <f>IF(I5&gt;=12.5,"pass","fail")</f>
-        <v>fail</v>
+        <f t="shared" si="0"/>
+        <v>pass</v>
       </c>
       <c r="K5" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L5" s="34"/>
@@ -2983,17 +2973,17 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f>IF(I6&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K6" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L6" s="34"/>
@@ -3024,17 +3014,17 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J7" s="10" t="str">
-        <f>IF(I7&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K7" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L7" s="34">
@@ -3069,17 +3059,17 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J8" s="10" t="str">
-        <f>IF(I8&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L8" s="34"/>
@@ -3104,17 +3094,17 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="47"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J9" s="10" t="str">
-        <f>IF(I9&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L9" s="34"/>
@@ -3130,26 +3120,26 @@
       <c r="B10" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="J10" s="10" t="str">
-        <f>IF(I10&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K10" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L10" s="34"/>
@@ -3178,17 +3168,17 @@
         <v>4</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="48"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="J11" s="10" t="str">
-        <f>IF(I11&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K11" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L11" s="34"/>
@@ -3215,17 +3205,17 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J12" s="10" t="str">
-        <f>IF(I12&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L12" s="34"/>
@@ -3252,17 +3242,17 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="48"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f>IF(I13&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L13" s="34"/>
@@ -3291,17 +3281,17 @@
         <v>98</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J14" s="10" t="str">
-        <f>IF(I14&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K14" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L14" s="34"/>
@@ -3326,17 +3316,17 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f>IF(I15&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K15" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L15" s="34"/>
@@ -3358,22 +3348,22 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>111</v>
+      <c r="E16" s="51" t="s">
+        <v>109</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="47"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J16" s="10" t="str">
-        <f>IF(I16&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L16" s="34"/>
@@ -3396,17 +3386,17 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="47"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f>IF(I17&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L17" s="34"/>
@@ -3431,17 +3421,17 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f>IF(I18&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K18" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L18" s="34"/>
@@ -3468,17 +3458,17 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="47"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J19" s="10" t="str">
-        <f>IF(I19&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K19" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L19" s="34"/>
@@ -3505,17 +3495,17 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="47"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f>IF(I20&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L20" s="34"/>
@@ -3540,17 +3530,17 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="47"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f>IF(I21&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L21" s="34"/>
@@ -3575,17 +3565,17 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="47"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f>IF(I22&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L22" s="34"/>
@@ -3616,20 +3606,20 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J23" s="10" t="str">
-        <f>IF(I23&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K23" s="19">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L23" s="50" t="s">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L23" s="49" t="s">
         <v>104</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -3657,17 +3647,17 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="47"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J24" s="10" t="str">
-        <f>IF(I24&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L24" s="34"/>
@@ -3694,17 +3684,17 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="47"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J25" s="10" t="str">
-        <f>IF(I25&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>pass</v>
       </c>
       <c r="K25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L25" s="34"/>
@@ -3731,13 +3721,13 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="48"/>
       <c r="I26" s="20">
         <f>SUM(B26:H26)</f>
         <v>10</v>
       </c>
       <c r="J26" s="11" t="str">
-        <f>IF(I26&gt;=12.5,"pass","fail")</f>
+        <f t="shared" si="0"/>
         <v>fail</v>
       </c>
       <c r="K26" s="20">
@@ -3756,23 +3746,23 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:G27" si="2">COUNTA(C2:C26)</f>
+        <f t="shared" ref="C27:G27" si="3">COUNTA(C2:C26)</f>
         <v>25</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I27" s="12"/>
@@ -3899,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,7 +3933,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -3952,7 +3942,7 @@
         <v>99</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>91</v>
@@ -3992,7 +3982,7 @@
       <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="18">
         <f>SUM(B2:H2)</f>
         <v>25</v>
@@ -4024,19 +4014,19 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>111</v>
+      <c r="E3" s="1">
+        <v>5</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="47"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="19">
         <f>SUM(B3:H3)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K3" s="19">
         <f>IF(I3&gt;=25,5,IF(I3&gt;=22,4,IF(I3&gt;=19,3,2)))</f>
@@ -4066,7 +4056,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="47"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="19">
         <f t="shared" ref="I4:I29" si="1">SUM(B4:H4)</f>
         <v>15</v>
@@ -4076,7 +4066,7 @@
         <v>pass</v>
       </c>
       <c r="K4" s="19">
-        <f t="shared" ref="K4:K26" si="2">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
+        <f t="shared" ref="K4:K25" si="2">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
         <v>2</v>
       </c>
       <c r="L4" s="34"/>
@@ -4101,7 +4091,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4138,7 +4128,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4175,7 +4165,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4212,7 +4202,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="19">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4245,7 +4235,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="47"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4282,7 +4272,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4321,9 +4311,9 @@
         <v>5</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="48"/>
+        <v>108</v>
+      </c>
+      <c r="H11" s="47"/>
       <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4358,7 +4348,7 @@
       <c r="E12" s="38"/>
       <c r="F12" s="1"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4399,7 +4389,7 @@
       <c r="G13" s="38">
         <v>5</v>
       </c>
-      <c r="H13" s="48"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4434,7 +4424,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4471,7 +4461,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4508,7 +4498,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="47"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4539,7 +4529,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="47"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4574,7 +4564,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4615,7 +4605,7 @@
       <c r="G19" s="1">
         <v>5</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4648,7 +4638,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="47"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4679,7 +4669,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="47"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4716,7 +4706,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="47"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4757,7 +4747,7 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4794,7 +4784,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="47"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4829,7 +4819,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="47"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4855,14 +4845,16 @@
       <c r="B26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="C26" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="47"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4872,7 +4864,7 @@
         <v>fail</v>
       </c>
       <c r="K26" s="19">
-        <f t="shared" ref="K26:K30" si="3">IF(I26&gt;=25,5,IF(I26&gt;=22,4,IF(I26&gt;=19,3,2)))</f>
+        <f t="shared" ref="K26:K29" si="3">IF(I26&gt;=25,5,IF(I26&gt;=22,4,IF(I26&gt;=19,3,2)))</f>
         <v>2</v>
       </c>
       <c r="L26" s="34"/>
@@ -4899,7 +4891,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="47"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4938,7 +4930,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="47"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4969,7 +4961,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="47"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5004,7 +4996,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="49"/>
+      <c r="H30" s="48"/>
       <c r="I30" s="20">
         <f>SUM(B30:H30)</f>
         <v>10</v>
@@ -5034,7 +5026,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91610AE-001C-41FF-855B-305BD2372B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
   <si>
     <t>ФИО</t>
   </si>
@@ -378,8 +379,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +399,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -405,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +435,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -919,9 +933,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -970,16 +985,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1367,11 +1383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1479,7 @@
       <c r="G2" s="32">
         <v>5</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="25">
         <f>SUM(B2:H2)</f>
         <v>25</v>
@@ -1479,8 +1495,8 @@
       <c r="L2" s="31">
         <v>5</v>
       </c>
-      <c r="M2" s="31">
-        <v>5</v>
+      <c r="M2" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
@@ -1504,7 +1520,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="26">
         <f>SUM(B3:H3)</f>
         <v>10</v>
@@ -1539,13 +1555,13 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="46">
         <v>3</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="26">
         <f t="shared" ref="I4:I31" si="0">SUM(B4:H4)</f>
         <v>18</v>
@@ -1586,7 +1602,7 @@
       <c r="G5" s="14">
         <v>5</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1621,7 +1637,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="46"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1658,7 +1674,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="46"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1689,7 +1705,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1730,7 +1746,7 @@
       <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1765,14 +1781,12 @@
       <c r="E10" s="38">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1780,7 +1794,7 @@
       </c>
       <c r="K10" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1810,7 +1824,7 @@
       <c r="G11" s="44">
         <v>5</v>
       </c>
-      <c r="H11" s="47"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1841,7 +1855,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="47"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1872,7 +1886,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1905,7 +1919,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="46"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1938,7 +1952,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1977,7 +1991,7 @@
         <v>98</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2018,7 +2032,7 @@
       <c r="G17" s="44">
         <v>5</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2055,7 +2069,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="46"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2093,13 +2107,13 @@
       <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G19" s="14">
-        <v>5</v>
-      </c>
-      <c r="H19" s="46"/>
+      <c r="G19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="47"/>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2107,7 +2121,7 @@
       </c>
       <c r="K19" s="19">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2137,7 +2151,7 @@
       <c r="G20" s="14">
         <v>5</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2174,7 +2188,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="46"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2215,7 +2229,7 @@
       <c r="G22" s="41">
         <v>5</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2256,7 +2270,7 @@
       <c r="G23" s="14">
         <v>5</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2301,7 +2315,7 @@
         <v>110</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="46"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2342,7 +2356,7 @@
       <c r="G25" s="14">
         <v>5</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2385,7 +2399,7 @@
       <c r="G26" s="38">
         <v>5</v>
       </c>
-      <c r="H26" s="46"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2422,7 +2436,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="46"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2463,7 +2477,7 @@
       <c r="G28" s="14">
         <v>5</v>
       </c>
-      <c r="H28" s="46"/>
+      <c r="H28" s="47"/>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2500,7 +2514,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="46"/>
+      <c r="H29" s="47"/>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2533,7 +2547,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="46"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2574,7 +2588,7 @@
       <c r="G31" s="14">
         <v>5</v>
       </c>
-      <c r="H31" s="46"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2649,7 +2663,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -2726,11 +2740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,10 +2824,12 @@
       <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="18">
         <f>SUM(B2:H2)</f>
         <v>10</v>
@@ -2854,7 +2870,7 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="19">
         <f>SUM(B3:H3)</f>
         <v>25</v>
@@ -2899,7 +2915,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="46"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="19">
         <f t="shared" ref="I4:I25" si="1">SUM(B4:H4)</f>
         <v>10</v>
@@ -2931,19 +2947,19 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
-        <v>5</v>
+      <c r="E5" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="46"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>pass</v>
+        <v>fail</v>
       </c>
       <c r="K5" s="19">
         <f t="shared" si="2"/>
@@ -2973,7 +2989,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="46"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3014,7 +3030,7 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3059,7 +3075,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3094,7 +3110,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3120,19 +3136,19 @@
       <c r="B10" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
+      <c r="C10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3168,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="47"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3205,7 +3221,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="47"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3242,7 +3258,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3277,14 +3293,14 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>98</v>
+      <c r="F14" s="1">
+        <v>5</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="46"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3292,7 +3308,7 @@
       </c>
       <c r="K14" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="1"/>
@@ -3316,7 +3332,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3348,12 +3364,12 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>109</v>
+      <c r="E16" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3386,7 +3402,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="46"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3421,7 +3437,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="46"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3458,7 +3474,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3495,7 +3511,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="46"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3530,7 +3546,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="46"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3565,7 +3581,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3606,7 +3622,7 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3619,7 +3635,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="50" t="s">
         <v>104</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -3647,7 +3663,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="46"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3684,7 +3700,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="46"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3721,7 +3737,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="48"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="20">
         <f>SUM(B26:H26)</f>
         <v>10</v>
@@ -3755,7 +3771,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -3803,7 +3819,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3886,11 +3902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3982,7 +3998,7 @@
       <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="18">
         <f>SUM(B2:H2)</f>
         <v>25</v>
@@ -4019,7 +4035,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="19">
         <f>SUM(B3:H3)</f>
         <v>15</v>
@@ -4056,7 +4072,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="46"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="19">
         <f t="shared" ref="I4:I29" si="1">SUM(B4:H4)</f>
         <v>15</v>
@@ -4091,7 +4107,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="46"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4128,7 +4144,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="46"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4165,7 +4181,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="46"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4202,7 +4218,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="19">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4235,7 +4251,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4272,7 +4288,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4313,7 +4329,7 @@
       <c r="G11" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="47"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4348,7 +4364,7 @@
       <c r="E12" s="38"/>
       <c r="F12" s="1"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="47"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4389,7 +4405,7 @@
       <c r="G13" s="38">
         <v>5</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4424,7 +4440,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="46"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4461,7 +4477,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4498,7 +4514,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4529,7 +4545,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="46"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4564,7 +4580,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="46"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4605,7 +4621,7 @@
       <c r="G19" s="1">
         <v>5</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4638,7 +4654,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="46"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4669,7 +4685,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="46"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4706,7 +4722,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4747,7 +4763,7 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4784,7 +4800,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="46"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4819,7 +4835,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="46"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4845,16 +4861,14 @@
       <c r="B26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="46"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4891,7 +4905,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="46"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4930,7 +4944,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="46"/>
+      <c r="H28" s="47"/>
       <c r="I28" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4961,7 +4975,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="46"/>
+      <c r="H29" s="47"/>
       <c r="I29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4996,7 +5010,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="48"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="20">
         <f>SUM(B30:H30)</f>
         <v>10</v>
@@ -5026,7 +5040,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
@@ -5068,7 +5082,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91610AE-001C-41FF-855B-305BD2372B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A9066-2FCB-4071-9091-076F27B77C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -346,9 +346,6 @@
     <t>0th lab</t>
   </si>
   <si>
-    <t>2.8</t>
-  </si>
-  <si>
     <t>2/3</t>
   </si>
   <si>
@@ -370,10 +367,10 @@
     <t>5(not verified)</t>
   </si>
   <si>
-    <t>failed 3.14</t>
-  </si>
-  <si>
     <t>on check</t>
+  </si>
+  <si>
+    <t>failed 3,5 + 3,9</t>
   </si>
 </sst>
 </file>
@@ -938,7 +935,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -991,11 +988,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1386,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1428,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -1495,8 +1493,8 @@
       <c r="L2" s="31">
         <v>5</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>98</v>
+      <c r="M2" s="31">
+        <v>5</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
@@ -1515,19 +1513,19 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>98</v>
+      <c r="E3" s="1">
+        <v>5</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
       <c r="H3" s="47"/>
       <c r="I3" s="26">
         <f>SUM(B3:H3)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J3" s="10" t="str">
         <f>IF(I3&gt;=12.5,"pass","fail")</f>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K3" s="19">
         <f>IF(I3&gt;=25,5,IF(I3&gt;=22,4,IF(I3&gt;=19,3,2)))</f>
@@ -1555,8 +1553,8 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="46">
-        <v>3</v>
+      <c r="F4" s="46" t="s">
+        <v>109</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>98</v>
@@ -1564,7 +1562,7 @@
       <c r="H4" s="47"/>
       <c r="I4" s="26">
         <f t="shared" ref="I4:I31" si="0">SUM(B4:H4)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" s="10" t="str">
         <f t="shared" ref="J4:J31" si="1">IF(I4&gt;=12.5,"pass","fail")</f>
@@ -1781,12 +1779,14 @@
       <c r="E10" s="38">
         <v>5</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="47"/>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="K10" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2064,19 +2064,19 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>109</v>
+      <c r="E18" s="52">
+        <v>3</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="14"/>
       <c r="H18" s="47"/>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" si="2"/>
@@ -2107,13 +2107,13 @@
       <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>98</v>
+      <c r="G19" s="14">
+        <v>5</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="K19" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2242,7 +2242,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2312,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="47"/>
@@ -2543,14 +2545,16 @@
       <c r="C30" s="34">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="14"/>
       <c r="H30" s="47"/>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J30" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2619,8 +2623,8 @@
       <c r="C32" s="36">
         <v>5</v>
       </c>
-      <c r="D32" s="42" t="s">
-        <v>101</v>
+      <c r="D32" s="42">
+        <v>5</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2628,7 +2632,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="27">
         <f>SUM(B32:H32)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J32" s="11" t="str">
         <f>IF(I32&gt;=12.5,"pass","fail")</f>
@@ -2655,7 +2659,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
@@ -2663,7 +2667,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -2671,7 +2675,7 @@
       </c>
       <c r="L33">
         <f>COUNTA(L4:L32)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33">
         <f>COUNTA(M4:M32)</f>
@@ -2743,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,7 +2788,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -2911,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2947,19 +2951,19 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>98</v>
+      <c r="E5" s="1">
+        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="47"/>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K5" s="19">
         <f t="shared" si="2"/>
@@ -3050,7 +3054,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O7" s="1">
         <v>5</v>
@@ -3136,8 +3140,8 @@
       <c r="B10" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>98</v>
+      <c r="C10" s="7">
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>98</v>
@@ -3148,7 +3152,7 @@
       <c r="H10" s="47"/>
       <c r="I10" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3365,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3398,7 +3402,9 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3636,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="L23" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>98</v>
@@ -3767,7 +3773,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
@@ -3906,7 +3912,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,7 +3955,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -3958,7 +3964,7 @@
         <v>99</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>91</v>
@@ -4327,7 +4333,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="19">
@@ -4577,17 +4583,19 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="47"/>
       <c r="I18" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" si="2"/>
@@ -4862,7 +4870,7 @@
         <v>98</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5044,7 +5052,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A9066-2FCB-4071-9091-076F27B77C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7808D6-B7D3-4DE1-BD5F-A32A4D2F2C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -991,9 +991,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="47"/>
@@ -2748,7 +2748,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,16 +3437,14 @@
       <c r="C18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="47"/>
       <c r="I18" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3773,7 +3771,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
@@ -3912,7 +3910,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4806,7 +4804,9 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="47"/>
       <c r="I24" s="19">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7808D6-B7D3-4DE1-BD5F-A32A4D2F2C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E79CCAF-37E0-41F7-B55C-5DF1891B2EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
   <si>
     <t>ФИО</t>
   </si>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t>ControlWork</t>
-  </si>
-  <si>
-    <t>5(not verified)</t>
   </si>
   <si>
     <t>on check</t>
@@ -991,9 +988,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1384,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1554,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>98</v>
@@ -3369,7 +3366,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3909,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="19">
@@ -4365,7 +4362,9 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="38" t="s">
+        <v>98</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="38"/>
       <c r="H12" s="48"/>
@@ -4726,7 +4725,9 @@
       <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="47"/>
       <c r="I22" s="19">
@@ -5052,11 +5053,11 @@
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E79CCAF-37E0-41F7-B55C-5DF1891B2EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
   <si>
     <t>ФИО</t>
   </si>
@@ -368,12 +367,24 @@
   </si>
   <si>
     <t>failed 3,5 + 3,9</t>
+  </si>
+  <si>
+    <t>failed '3,6 + Insert + Gnome</t>
+  </si>
+  <si>
+    <t>miss 3,5 + Coctail(Shaker) + Shell's</t>
+  </si>
+  <si>
+    <t>failed '3,14</t>
+  </si>
+  <si>
+    <t>miss '3,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -932,7 +943,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -986,6 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -1378,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2741,7 +2753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3820,7 +3832,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3903,11 +3915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,8 +3928,8 @@
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
@@ -4327,13 +4339,13 @@
       <c r="F11" s="38">
         <v>5</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>98</v>
+      <c r="G11" s="38">
+        <v>5</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="19">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4341,7 +4353,7 @@
       </c>
       <c r="K11" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="1"/>
@@ -4362,8 +4374,8 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>98</v>
+      <c r="E12" s="53" t="s">
+        <v>111</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="38"/>
@@ -4655,14 +4667,16 @@
       <c r="C20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="38">
+        <v>5</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="47"/>
       <c r="I20" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4726,7 +4740,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="47"/>
@@ -4805,8 +4819,8 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
+      <c r="F24" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="47"/>
@@ -5016,7 +5030,9 @@
       <c r="D30" s="2">
         <v>5</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="42" t="s">
+        <v>112</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="49"/>
@@ -5049,11 +5065,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
@@ -5091,7 +5107,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92CFA6-E43E-4FAC-A87D-89F2BAB06144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="113">
   <si>
     <t>ФИО</t>
   </si>
@@ -384,7 +385,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,9 +1001,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1390,11 +1391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2195,9 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="14"/>
       <c r="H21" s="47"/>
@@ -2672,7 +2675,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -2753,7 +2756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3832,7 +3835,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3915,11 +3918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,7 +4158,9 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="47"/>
       <c r="I6" s="19">
@@ -5073,7 +5078,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
@@ -5107,7 +5112,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUNemirM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92CFA6-E43E-4FAC-A87D-89F2BAB06144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50538FDC-5EF3-4467-83FA-F30E790C055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
   <si>
     <t>ФИО</t>
   </si>
@@ -1001,9 +1001,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3714,7 +3714,9 @@
       <c r="E25" s="38">
         <v>5</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="47"/>
       <c r="I25" s="19">
@@ -3791,7 +3793,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -3921,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50538FDC-5EF3-4467-83FA-F30E790C055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -349,27 +348,15 @@
     <t>2/3</t>
   </si>
   <si>
-    <t>failed '2.14</t>
-  </si>
-  <si>
     <t>failed v2</t>
   </si>
   <si>
-    <t>failed 3,9</t>
-  </si>
-  <si>
     <t>Mark for subject</t>
   </si>
   <si>
     <t>ControlWork</t>
   </si>
   <si>
-    <t>on check</t>
-  </si>
-  <si>
-    <t>failed 3,5 + 3,9</t>
-  </si>
-  <si>
     <t>failed '3,6 + Insert + Gnome</t>
   </si>
   <si>
@@ -380,13 +367,16 @@
   </si>
   <si>
     <t>miss '3,7</t>
+  </si>
+  <si>
+    <t>failed '3.14 &amp; 3.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +404,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -988,17 +985,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -1391,11 +1388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1435,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -1487,7 +1484,7 @@
       <c r="G2" s="32">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="25">
         <f>SUM(B2:H2)</f>
         <v>25</v>
@@ -1528,7 +1525,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="47"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="26">
         <f>SUM(B3:H3)</f>
         <v>15</v>
@@ -1563,16 +1560,16 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>108</v>
+      <c r="F4" s="52">
+        <v>3</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="26">
         <f t="shared" ref="I4:I31" si="0">SUM(B4:H4)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4" s="10" t="str">
         <f t="shared" ref="J4:J31" si="1">IF(I4&gt;=12.5,"pass","fail")</f>
@@ -1610,7 +1607,7 @@
       <c r="G5" s="14">
         <v>5</v>
       </c>
-      <c r="H5" s="47"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1645,7 +1642,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1680,12 +1677,14 @@
       <c r="E7" s="38">
         <v>5</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1693,7 +1692,7 @@
       </c>
       <c r="K7" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1713,7 +1712,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1754,7 +1753,7 @@
       <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="47"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1793,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1831,10 +1830,10 @@
       <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="44">
-        <v>5</v>
-      </c>
-      <c r="H11" s="48"/>
+      <c r="G11" s="43">
+        <v>5</v>
+      </c>
+      <c r="H11" s="46"/>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1865,7 +1864,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1896,7 +1895,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="48"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1929,7 +1928,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1962,7 +1961,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1997,14 +1996,16 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="47"/>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
+        <v>5</v>
+      </c>
+      <c r="H16" s="45"/>
       <c r="I16" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2012,7 +2013,7 @@
       </c>
       <c r="K16" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2039,10 +2040,10 @@
       <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="44">
-        <v>5</v>
-      </c>
-      <c r="H17" s="47"/>
+      <c r="G17" s="43">
+        <v>5</v>
+      </c>
+      <c r="H17" s="45"/>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2074,12 +2075,12 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="49">
         <v>3</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2120,7 +2121,7 @@
       <c r="G19" s="14">
         <v>5</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2161,7 +2162,7 @@
       <c r="G20" s="14">
         <v>5</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2200,7 +2201,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="47"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2241,7 +2242,7 @@
       <c r="G22" s="41">
         <v>5</v>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2284,7 +2285,7 @@
       <c r="G23" s="14">
         <v>5</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2325,14 +2326,14 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
+      <c r="F24" s="1">
+        <v>5</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="47"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2340,7 +2341,7 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2370,7 +2371,7 @@
       <c r="G25" s="14">
         <v>5</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2413,7 +2414,7 @@
       <c r="G26" s="38">
         <v>5</v>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2450,7 +2451,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="47"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2491,7 +2492,7 @@
       <c r="G28" s="14">
         <v>5</v>
       </c>
-      <c r="H28" s="47"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2528,7 +2529,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="47"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2563,7 +2564,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2604,7 +2605,7 @@
       <c r="G31" s="14">
         <v>5</v>
       </c>
-      <c r="H31" s="47"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2679,11 +2680,11 @@
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L33">
         <f>COUNTA(L4:L32)</f>
@@ -2756,11 +2757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +2770,7 @@
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
@@ -2800,7 +2801,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -2840,19 +2841,19 @@
       <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>98</v>
+      <c r="E2" s="3">
+        <v>5</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="47"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="18">
         <f>SUM(B2:H2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J2" s="16" t="str">
         <f t="shared" ref="J2:J26" si="0">IF(I2&gt;=12.5,"pass","fail")</f>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K2" s="18">
         <f>IF(I2&gt;=25,5,IF(I2&gt;=22,4,IF(I2&gt;=19,3,2)))</f>
@@ -2886,7 +2887,7 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="19">
         <f>SUM(B3:H3)</f>
         <v>25</v>
@@ -2926,19 +2927,19 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>102</v>
+      <c r="E4" s="49">
+        <v>4</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="47"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="19">
         <f t="shared" ref="I4:I25" si="1">SUM(B4:H4)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K4" s="19">
         <f t="shared" ref="K4:K25" si="2">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
@@ -2968,7 +2969,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3005,7 +3006,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3046,7 +3047,7 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3065,7 +3066,7 @@
       <c r="M7" s="1">
         <v>5</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="N7" s="44" t="s">
         <v>101</v>
       </c>
       <c r="O7" s="1">
@@ -3091,7 +3092,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3126,7 +3127,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="47"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3161,7 +3162,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3200,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="48"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3237,7 +3238,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3274,7 +3275,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="48"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3313,7 +3314,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3345,17 +3346,19 @@
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K15" s="19">
         <f t="shared" si="2"/>
@@ -3380,19 +3383,19 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>107</v>
+      <c r="E16" s="1">
+        <v>5</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="47"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K16" s="19">
         <f t="shared" si="2"/>
@@ -3414,16 +3417,16 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>98</v>
+      <c r="D17" s="1">
+        <v>5</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="47"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J17" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3449,14 +3452,16 @@
       <c r="C18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3490,7 +3495,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="47"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3527,7 +3532,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="47"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3562,7 +3567,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="47"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3597,7 +3602,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="47"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3638,7 +3643,7 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3651,8 +3656,8 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L23" s="50" t="s">
-        <v>103</v>
+      <c r="L23" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>98</v>
@@ -3676,17 +3681,19 @@
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="47"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K24" s="19">
         <f t="shared" si="2"/>
@@ -3714,14 +3721,14 @@
       <c r="E25" s="38">
         <v>5</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>98</v>
+      <c r="F25" s="1">
+        <v>5</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="47"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3729,7 +3736,7 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="1"/>
@@ -3750,12 +3757,12 @@
       <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>98</v>
+      <c r="E26" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="20">
         <f>SUM(B26:H26)</f>
         <v>10</v>
@@ -3785,11 +3792,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -3837,7 +3844,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3920,11 +3927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,7 +3974,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>96</v>
@@ -3976,7 +3983,7 @@
         <v>99</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>91</v>
@@ -4016,7 +4023,7 @@
       <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="18">
         <f>SUM(B2:H2)</f>
         <v>25</v>
@@ -4053,7 +4060,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="47"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="19">
         <f>SUM(B3:H3)</f>
         <v>15</v>
@@ -4090,7 +4097,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="47"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="19">
         <f t="shared" ref="I4:I29" si="1">SUM(B4:H4)</f>
         <v>15</v>
@@ -4125,7 +4132,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4164,7 +4171,7 @@
         <v>98</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4201,7 +4208,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4238,7 +4245,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="19">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4271,7 +4278,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="47"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4308,7 +4315,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4349,7 +4356,7 @@
       <c r="G11" s="38">
         <v>5</v>
       </c>
-      <c r="H11" s="48"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4381,12 +4388,12 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>111</v>
+      <c r="E12" s="50" t="s">
+        <v>107</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4427,7 +4434,7 @@
       <c r="G13" s="38">
         <v>5</v>
       </c>
-      <c r="H13" s="48"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4462,7 +4469,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4499,7 +4506,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4536,7 +4543,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="47"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4567,7 +4574,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="47"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4604,7 +4611,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4645,7 +4652,7 @@
       <c r="G19" s="1">
         <v>5</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4680,7 +4687,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="47"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4711,7 +4718,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="47"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4747,10 +4754,10 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="47"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4791,7 +4798,7 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4826,11 +4833,11 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="53" t="s">
-        <v>109</v>
+      <c r="F24" s="50" t="s">
+        <v>105</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="47"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4865,7 +4872,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="47"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4891,17 +4898,17 @@
       <c r="B26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>104</v>
+      <c r="C26" s="51">
+        <v>5</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="47"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4935,7 +4942,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="47"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4974,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="47"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5005,7 +5012,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="47"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5038,11 +5045,11 @@
         <v>5</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="49"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="20">
         <f>SUM(B30:H30)</f>
         <v>10</v>
@@ -5114,7 +5121,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">
@@ -5208,6 +5215,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EBDC1C-C6CF-4B98-BCB5-887674F6B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -375,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1388,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2757,10 +2758,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3844,7 +3845,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3927,11 +3928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,7 +3942,7 @@
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
@@ -5007,7 +5008,9 @@
       <c r="B29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -5075,7 +5078,7 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:G31" si="4">COUNTA(C2:C30)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
@@ -5121,7 +5124,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EBDC1C-C6CF-4B98-BCB5-887674F6B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -376,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1389,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2758,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3845,7 +3844,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3928,11 +3927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4870,7 +4869,9 @@
       <c r="D25" s="38">
         <v>3</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="45"/>
@@ -5086,7 +5087,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
@@ -5124,7 +5125,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D2CFA-43D7-4A19-85CC-4947BDD5323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -375,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1388,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2757,7 +2758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3844,7 +3845,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3927,11 +3928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,7 +4837,9 @@
       <c r="F24" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H24" s="45"/>
       <c r="I24" s="19">
         <f t="shared" si="1"/>
@@ -5095,7 +5098,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>
@@ -5125,7 +5128,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D2CFA-43D7-4A19-85CC-4947BDD5323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
   <si>
     <t>ФИО</t>
   </si>
@@ -361,13 +360,7 @@
     <t>failed '3,6 + Insert + Gnome</t>
   </si>
   <si>
-    <t>miss 3,5 + Coctail(Shaker) + Shell's</t>
-  </si>
-  <si>
     <t>failed '3,14</t>
-  </si>
-  <si>
-    <t>miss '3,7</t>
   </si>
   <si>
     <t>failed '3.14 &amp; 3.4</t>
@@ -376,7 +369,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1389,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2758,7 +2751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3759,7 +3752,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3845,7 +3838,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3928,11 +3921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,14 +4161,14 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>98</v>
+      <c r="F6" s="1">
+        <v>5</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="45"/>
       <c r="I6" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4183,7 +4176,7 @@
       </c>
       <c r="K6" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="1"/>
@@ -4390,7 +4383,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="38"/>
@@ -4754,14 +4747,14 @@
       <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>106</v>
+      <c r="F22" s="1">
+        <v>5</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="45"/>
       <c r="I22" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4769,7 +4762,7 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="1"/>
@@ -4872,19 +4865,19 @@
       <c r="D25" s="38">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
+      <c r="E25" s="1">
+        <v>5</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="45"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K25" s="19">
         <f t="shared" si="2"/>
@@ -4906,14 +4899,16 @@
       <c r="C26" s="51">
         <v>5</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="45"/>
       <c r="I26" s="19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J26" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5051,19 +5046,19 @@
       <c r="D30" s="2">
         <v>5</v>
       </c>
-      <c r="E30" s="42" t="s">
-        <v>108</v>
+      <c r="E30" s="42">
+        <v>5</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="47"/>
       <c r="I30" s="20">
         <f>SUM(B30:H30)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K30" s="20">
         <f>IF(I36&gt;=25,5,IF(I36&gt;=22,4,IF(I36&gt;=19,3,2)))</f>
@@ -5086,7 +5081,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
@@ -5128,7 +5123,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B805-Teacher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>failed '3.14 &amp; 3.4</t>
+  </si>
+  <si>
+    <t>in process 3,5</t>
+  </si>
+  <si>
+    <t>in process 3,6 + Coctail + Gnome</t>
   </si>
 </sst>
 </file>
@@ -935,7 +941,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -990,6 +996,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -1386,7 +1394,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,13 +1565,13 @@
       <c r="F4" s="52">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>98</v>
+      <c r="G4" s="14">
+        <v>5</v>
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="26">
         <f t="shared" ref="I4:I31" si="0">SUM(B4:H4)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J4" s="10" t="str">
         <f t="shared" ref="J4:J31" si="1">IF(I4&gt;=12.5,"pass","fail")</f>
@@ -1571,7 +1579,7 @@
       </c>
       <c r="K4" s="19">
         <f t="shared" ref="K4:K32" si="2">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2190,19 +2198,19 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>98</v>
+      <c r="E21" s="1">
+        <v>5</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="14"/>
       <c r="H21" s="45"/>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K21" s="19">
         <f t="shared" si="2"/>
@@ -2755,7 +2763,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,7 +3601,9 @@
       <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="45"/>
@@ -3790,7 +3800,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -3925,7 +3935,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,7 +4878,9 @@
       <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="55" t="s">
+        <v>109</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="45"/>
       <c r="I25" s="19">
@@ -5007,8 +5019,8 @@
       <c r="B29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>98</v>
+      <c r="C29" s="54" t="s">
+        <v>108</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -5089,7 +5101,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B805-Teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>ФИО</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>in process 3,5</t>
-  </si>
-  <si>
-    <t>in process 3,6 + Coctail + Gnome</t>
   </si>
 </sst>
 </file>
@@ -941,7 +938,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -997,7 +994,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -2762,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,19 +3597,19 @@
       <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
+      <c r="E22" s="1">
+        <v>5</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="45"/>
       <c r="I22" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K22" s="19">
         <f t="shared" si="2"/>
@@ -3934,15 +3930,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -4878,14 +4874,14 @@
       <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="55" t="s">
-        <v>109</v>
+      <c r="F25">
+        <v>4</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="45"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0C6C21-4792-48B5-97CC-6C55A4F6D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
   <si>
     <t>ФИО</t>
   </si>
@@ -372,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1386,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2755,11 +2756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,7 +3003,9 @@
       <c r="E6" s="38">
         <v>5</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="45"/>
       <c r="I6" s="19">
@@ -3453,7 +3456,9 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="45"/>
@@ -3796,11 +3801,11 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -3844,7 +3849,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3927,7 +3932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5131,7 +5136,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0C6C21-4792-48B5-97CC-6C55A4F6D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B915B-C7BB-4402-8D70-08C73D3128E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="109">
   <si>
     <t>ФИО</t>
   </si>
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1956,9 @@
       <c r="C15" s="34">
         <v>5</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="14"/>
@@ -2671,7 +2673,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
@@ -2759,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,7 +3127,9 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="45"/>
@@ -3801,7 +3805,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -3935,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4546,7 +4550,9 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="45"/>
       <c r="I16" s="19">
@@ -5102,7 +5108,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B915B-C7BB-4402-8D70-08C73D3128E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="109">
   <si>
     <t>ФИО</t>
   </si>
@@ -373,7 +372,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1387,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2758,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3853,7 +3852,7 @@
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -3936,11 +3935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4580,7 +4579,9 @@
       <c r="B17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5096,7 +5097,7 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:G31" si="4">COUNTA(C2:C30)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
@@ -5142,7 +5143,7 @@
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -357,16 +357,19 @@
     <t>ControlWork</t>
   </si>
   <si>
-    <t>failed '3,6 + Insert + Gnome</t>
-  </si>
-  <si>
-    <t>failed '3,14</t>
-  </si>
-  <si>
     <t>failed '3.14 &amp; 3.4</t>
   </si>
   <si>
     <t>in process 3,5</t>
+  </si>
+  <si>
+    <t>failed'2,1</t>
+  </si>
+  <si>
+    <t>miss3,9 + done_Gnome + done_Insert</t>
+  </si>
+  <si>
+    <t>miss3,4</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +446,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -938,7 +947,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -989,11 +998,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -1389,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1582,7 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <v>3</v>
       </c>
       <c r="G4" s="14">
@@ -1698,36 +1722,36 @@
       <c r="O7" s="1"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="26">
+      <c r="B8" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="56" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="35"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="62"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
@@ -1850,135 +1874,135 @@
       <c r="O11" s="1"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="26">
+      <c r="B12" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="56" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="62"/>
+    </row>
+    <row r="13" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="26">
+      <c r="B13" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="56" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="62"/>
+    </row>
+    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="34">
+      <c r="B14" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="26">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="68">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="56" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="62"/>
+    </row>
+    <row r="15" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="34">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J15" s="10" t="str">
+      <c r="B15" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="61">
+        <v>5</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="56" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="35"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -2515,38 +2539,38 @@
       <c r="O28" s="1"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="26">
+      <c r="B29" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="10" t="str">
+      <c r="J29" s="56" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="35"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="62"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
@@ -2761,7 +2785,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,7 +3153,9 @@
       <c r="E9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="45"/>
       <c r="I9" s="19">
@@ -3150,40 +3176,40 @@
       <c r="O9" s="1"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="19">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J10" s="10" t="str">
+      <c r="B10" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="64">
+        <v>5</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="56" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="35"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -3765,8 +3791,8 @@
       <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="E26" s="53" t="s">
-        <v>107</v>
+      <c r="E26" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3808,7 +3834,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -3938,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,7 +3975,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
@@ -4214,7 +4240,9 @@
       <c r="E7" s="38">
         <v>4</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="45"/>
       <c r="I7" s="19">
@@ -4251,7 +4279,9 @@
       <c r="E8" s="38">
         <v>4</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="54" t="s">
+        <v>107</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="45"/>
       <c r="I8" s="19">
@@ -4282,14 +4312,16 @@
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="45"/>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4396,19 +4428,19 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>106</v>
+      <c r="E12" s="53">
+        <v>4</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="38"/>
       <c r="H12" s="46"/>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="2"/>
@@ -4461,40 +4493,40 @@
       <c r="O13" s="1"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="64">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="19">
+      <c r="D14" s="58">
+        <v>5</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="56" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="35"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="62"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
@@ -4549,14 +4581,14 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
+      <c r="F16" s="38">
+        <v>5</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="45"/>
       <c r="I16" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4564,7 +4596,7 @@
       </c>
       <c r="K16" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="1"/>
@@ -4572,38 +4604,38 @@
       <c r="O16" s="1"/>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="str">
+      <c r="B17" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="65">
+        <v>5</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="56" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="35"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="62"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -4683,71 +4715,71 @@
       <c r="O19" s="1"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="64">
         <v>4</v>
       </c>
-      <c r="D20" s="38">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="19">
+      <c r="D20" s="66">
+        <v>5</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J20" s="10" t="str">
+      <c r="J20" s="56" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="35"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="L20" s="61"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="62"/>
+    </row>
+    <row r="21" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="19">
+      <c r="B21" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="10" t="str">
+      <c r="J21" s="56" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="35"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="62"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
@@ -4845,8 +4877,8 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>105</v>
+      <c r="F24" s="38">
+        <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>98</v>
@@ -4854,7 +4886,7 @@
       <c r="H24" s="45"/>
       <c r="I24" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4862,7 +4894,7 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="1"/>
@@ -4889,7 +4921,9 @@
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="38" t="s">
+        <v>109</v>
+      </c>
       <c r="H25" s="45"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
@@ -4916,7 +4950,7 @@
       <c r="B26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="50">
         <v>5</v>
       </c>
       <c r="D26" s="1">
@@ -5020,38 +5054,38 @@
       <c r="O28" s="1"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="19">
+      <c r="B29" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="10" t="str">
+      <c r="J29" s="56" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="60">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="35"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="62"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
@@ -5101,7 +5135,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
@@ -5109,11 +5143,11 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31" s="12"/>
       <c r="K31" s="12"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -1413,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2784,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,7 +3116,9 @@
       <c r="E8" s="38">
         <v>5</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="45"/>
       <c r="I8" s="19">
@@ -3834,7 +3836,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
   <si>
     <t>ФИО</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>miss3,4</t>
+  </si>
+  <si>
+    <t>not verified 5</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1018,6 +1021,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -1414,7 +1427,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,7 +1715,9 @@
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="H7" s="45"/>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
@@ -1969,40 +1984,42 @@
       <c r="O14" s="58"/>
       <c r="P14" s="62"/>
     </row>
-    <row r="15" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+    <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="61">
-        <v>5</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="68">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J15" s="56" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
-      </c>
-      <c r="K15" s="60">
+      <c r="B15" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="72">
+        <v>5</v>
+      </c>
+      <c r="D15" s="73">
+        <v>5</v>
+      </c>
+      <c r="E15" s="73">
+        <v>5</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="K15" s="77">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="62"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="78"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -2353,11 +2370,13 @@
       <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="14">
+        <v>5</v>
+      </c>
       <c r="H24" s="45"/>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2365,7 +2384,7 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2700,7 +2719,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -2708,7 +2727,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L33">
         <f>COUNTA(L4:L32)</f>
@@ -2785,7 +2804,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,12 +2973,14 @@
       <c r="E4" s="49">
         <v>4</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="45"/>
       <c r="I4" s="19">
         <f t="shared" ref="I4:I25" si="1">SUM(B4:H4)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J4" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2967,7 +2988,7 @@
       </c>
       <c r="K4" s="19">
         <f t="shared" ref="K4:K25" si="2">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="1"/>
@@ -2991,12 +3012,14 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="45"/>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3004,7 +3027,7 @@
       </c>
       <c r="K5" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="1"/>
@@ -3158,7 +3181,9 @@
       <c r="F9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H9" s="45"/>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
@@ -3268,12 +3293,14 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="46"/>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3281,7 +3308,7 @@
       </c>
       <c r="K12" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="1"/>
@@ -3345,11 +3372,13 @@
       <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
       <c r="H14" s="45"/>
       <c r="I14" s="19">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3357,7 +3386,7 @@
       </c>
       <c r="K14" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="1"/>
@@ -3418,12 +3447,14 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="45"/>
       <c r="I16" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3431,7 +3462,7 @@
       </c>
       <c r="K16" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="1"/>
@@ -3452,7 +3483,9 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="45"/>
@@ -3527,12 +3560,14 @@
       <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="45"/>
       <c r="I19" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3540,7 +3575,7 @@
       </c>
       <c r="K19" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="1"/>
@@ -3598,17 +3633,19 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="45"/>
       <c r="I21" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K21" s="19">
         <f t="shared" si="2"/>
@@ -3760,11 +3797,13 @@
       <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
       <c r="H25" s="45"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3772,7 +3811,7 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="1"/>
@@ -3832,15 +3871,15 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I27" s="12"/>
       <c r="L27">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gorbatova Svetlana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1849A6-CF32-440F-932E-B81D8B0AAE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
   <si>
     <t>ФИО</t>
   </si>
@@ -378,7 +379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1423,31 +1424,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1543,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="33"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1580,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1621,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1662,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1697,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1738,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1769,7 @@
       <c r="O8" s="58"/>
       <c r="P8" s="62"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1810,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1849,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +1890,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>10</v>
       </c>
@@ -1920,7 +1921,7 @@
       <c r="O12" s="58"/>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +1952,7 @@
       <c r="O13" s="58"/>
       <c r="P13" s="62"/>
     </row>
-    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1985,7 @@
       <c r="O14" s="58"/>
       <c r="P14" s="62"/>
     </row>
-    <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>13</v>
       </c>
@@ -2021,7 +2022,7 @@
       <c r="O15" s="73"/>
       <c r="P15" s="78"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
@@ -2062,7 +2063,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2104,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>16</v>
       </c>
@@ -2140,7 +2141,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>17</v>
       </c>
@@ -2181,7 +2182,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
@@ -2224,7 +2225,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="35"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
@@ -2261,7 +2262,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="35"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
@@ -2304,7 +2305,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="35"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +2352,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
@@ -2392,7 +2393,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
@@ -2435,7 +2436,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
@@ -2476,7 +2477,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
@@ -2513,7 +2514,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="35"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
@@ -2558,7 +2559,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
         <v>27</v>
       </c>
@@ -2591,7 +2592,7 @@
       <c r="O29" s="58"/>
       <c r="P29" s="62"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>28</v>
       </c>
@@ -2626,7 +2627,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="35"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>29</v>
       </c>
@@ -2669,7 +2670,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="35"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>30</v>
       </c>
@@ -2704,7 +2705,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="37"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>COUNTA(B4:B32)</f>
         <v>29</v>
@@ -2800,28 +2801,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -2908,7 +2909,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="33"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -2957,7 +2958,7 @@
       </c>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -2996,7 +2997,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -3035,7 +3036,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
@@ -3074,7 +3075,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -3123,7 +3124,7 @@
       </c>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -3162,7 +3163,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -3203,7 +3204,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>39</v>
       </c>
@@ -3238,7 +3239,7 @@
       <c r="O10" s="58"/>
       <c r="P10" s="62"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -3277,7 +3278,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -3316,7 +3317,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -3353,7 +3354,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
@@ -3394,7 +3395,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -3431,7 +3432,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -3470,7 +3471,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
@@ -3507,7 +3508,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
@@ -3544,7 +3545,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
@@ -3583,7 +3584,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
@@ -3620,7 +3621,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="35"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
@@ -3657,7 +3658,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="35"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
@@ -3694,7 +3695,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="35"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -3741,7 +3742,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
@@ -3778,7 +3779,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
@@ -3819,7 +3820,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>55</v>
       </c>
@@ -3856,7 +3857,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="37"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <f>COUNTA(B2:B26)</f>
         <v>25</v>
@@ -3903,23 +3904,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -4002,31 +4003,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>85</v>
       </c>
@@ -4117,7 +4118,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="33"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>57</v>
       </c>
@@ -4154,7 +4155,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>58</v>
       </c>
@@ -4191,7 +4192,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>59</v>
       </c>
@@ -4226,7 +4227,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>60</v>
       </c>
@@ -4265,7 +4266,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>61</v>
       </c>
@@ -4304,7 +4305,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>62</v>
       </c>
@@ -4343,7 +4344,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>63</v>
       </c>
@@ -4378,7 +4379,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>64</v>
       </c>
@@ -4415,7 +4416,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>65</v>
       </c>
@@ -4456,7 +4457,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>66</v>
       </c>
@@ -4472,7 +4473,9 @@
       <c r="E12" s="53">
         <v>4</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G12" s="38"/>
       <c r="H12" s="46"/>
       <c r="I12" s="19">
@@ -4493,7 +4496,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>67</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>68</v>
       </c>
@@ -4569,7 +4572,7 @@
       <c r="O14" s="58"/>
       <c r="P14" s="62"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>69</v>
       </c>
@@ -4606,7 +4609,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>70</v>
       </c>
@@ -4645,7 +4648,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>71</v>
       </c>
@@ -4678,7 +4681,7 @@
       <c r="O17" s="58"/>
       <c r="P17" s="62"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>72</v>
       </c>
@@ -4715,7 +4718,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>73</v>
       </c>
@@ -4756,7 +4759,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
         <v>74</v>
       </c>
@@ -4791,7 +4794,7 @@
       <c r="O20" s="58"/>
       <c r="P20" s="62"/>
     </row>
-    <row r="21" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
         <v>75</v>
       </c>
@@ -4822,7 +4825,7 @@
       <c r="O21" s="58"/>
       <c r="P21" s="62"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>76</v>
       </c>
@@ -4861,7 +4864,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="35"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>77</v>
       </c>
@@ -4902,7 +4905,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>78</v>
       </c>
@@ -4943,7 +4946,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>79</v>
       </c>
@@ -4984,7 +4987,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>80</v>
       </c>
@@ -5019,7 +5022,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>81</v>
       </c>
@@ -5056,7 +5059,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="35"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>82</v>
       </c>
@@ -5095,7 +5098,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
         <v>83</v>
       </c>
@@ -5128,7 +5131,7 @@
       <c r="O29" s="58"/>
       <c r="P29" s="62"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>84</v>
       </c>
@@ -5165,7 +5168,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="37"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>COUNTA(B2:B30)</f>
         <v>29</v>
@@ -5184,7 +5187,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
@@ -5213,12 +5216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Марк\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1849A6-CF32-440F-932E-B81D8B0AAE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БИВТ-22-18'!$A$1:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'БИВТ-22-20'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
   <si>
     <t>ФИО</t>
   </si>
@@ -379,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1424,31 +1423,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1497,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -1543,7 +1542,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="33"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
@@ -1580,7 +1579,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -1621,7 +1620,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1661,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -1697,7 +1696,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1737,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>6</v>
       </c>
@@ -1769,7 +1768,7 @@
       <c r="O8" s="58"/>
       <c r="P8" s="62"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1809,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +1848,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
@@ -1890,7 +1889,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1920,7 @@
       <c r="O12" s="58"/>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +1951,7 @@
       <c r="O13" s="58"/>
       <c r="P13" s="62"/>
     </row>
-    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>12</v>
       </c>
@@ -1985,7 +1984,7 @@
       <c r="O14" s="58"/>
       <c r="P14" s="62"/>
     </row>
-    <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>13</v>
       </c>
@@ -2022,7 +2021,7 @@
       <c r="O15" s="73"/>
       <c r="P15" s="78"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
@@ -2063,7 +2062,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
@@ -2104,7 +2103,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>16</v>
       </c>
@@ -2141,7 +2140,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +2181,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
@@ -2225,7 +2224,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="35"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
@@ -2262,7 +2261,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="35"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
@@ -2305,7 +2304,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="35"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>21</v>
       </c>
@@ -2352,7 +2351,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
@@ -2393,7 +2392,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
@@ -2436,7 +2435,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
@@ -2477,7 +2476,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
@@ -2514,7 +2513,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="35"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2558,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>27</v>
       </c>
@@ -2592,7 +2591,7 @@
       <c r="O29" s="58"/>
       <c r="P29" s="62"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>28</v>
       </c>
@@ -2627,7 +2626,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="35"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>29</v>
       </c>
@@ -2670,7 +2669,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="35"/>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>30</v>
       </c>
@@ -2705,7 +2704,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="37"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>COUNTA(B4:B32)</f>
         <v>29</v>
@@ -2801,28 +2800,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -2909,7 +2908,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="33"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -2958,7 +2957,7 @@
       </c>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -2997,7 +2996,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -3036,7 +3035,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
@@ -3075,7 +3074,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -3124,7 +3123,7 @@
       </c>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -3163,7 +3162,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -3204,7 +3203,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>39</v>
       </c>
@@ -3239,7 +3238,7 @@
       <c r="O10" s="58"/>
       <c r="P10" s="62"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -3278,7 +3277,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -3317,7 +3316,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -3354,7 +3353,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
@@ -3395,7 +3394,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -3432,7 +3431,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -3471,7 +3470,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
@@ -3508,7 +3507,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
@@ -3545,7 +3544,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
@@ -3584,7 +3583,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
@@ -3621,7 +3620,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="35"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
@@ -3637,7 +3636,9 @@
       <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="45"/>
       <c r="I21" s="19">
@@ -3658,7 +3659,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="35"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
@@ -3695,7 +3696,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="35"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -3742,7 +3743,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
@@ -3779,7 +3780,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
@@ -3820,7 +3821,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>55</v>
       </c>
@@ -3857,7 +3858,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="37"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>COUNTA(B2:B26)</f>
         <v>25</v>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -3904,23 +3905,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <conditionalFormatting sqref="J2:J26">
@@ -4003,31 +4004,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>85</v>
       </c>
@@ -4118,7 +4119,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="33"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>57</v>
       </c>
@@ -4155,7 +4156,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>58</v>
       </c>
@@ -4192,7 +4193,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>59</v>
       </c>
@@ -4227,7 +4228,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>60</v>
       </c>
@@ -4266,7 +4267,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>61</v>
       </c>
@@ -4305,7 +4306,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>62</v>
       </c>
@@ -4344,7 +4345,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>63</v>
       </c>
@@ -4379,7 +4380,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>64</v>
       </c>
@@ -4416,7 +4417,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>65</v>
       </c>
@@ -4457,7 +4458,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>66</v>
       </c>
@@ -4496,7 +4497,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>67</v>
       </c>
@@ -4537,7 +4538,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>68</v>
       </c>
@@ -4572,7 +4573,7 @@
       <c r="O14" s="58"/>
       <c r="P14" s="62"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>69</v>
       </c>
@@ -4609,7 +4610,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>70</v>
       </c>
@@ -4648,7 +4649,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>71</v>
       </c>
@@ -4681,7 +4682,7 @@
       <c r="O17" s="58"/>
       <c r="P17" s="62"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>72</v>
       </c>
@@ -4718,7 +4719,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>73</v>
       </c>
@@ -4759,7 +4760,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>74</v>
       </c>
@@ -4794,7 +4795,7 @@
       <c r="O20" s="58"/>
       <c r="P20" s="62"/>
     </row>
-    <row r="21" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>75</v>
       </c>
@@ -4825,7 +4826,7 @@
       <c r="O21" s="58"/>
       <c r="P21" s="62"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>76</v>
       </c>
@@ -4864,7 +4865,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="35"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>77</v>
       </c>
@@ -4905,7 +4906,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>78</v>
       </c>
@@ -4946,7 +4947,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>79</v>
       </c>
@@ -4987,7 +4988,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>80</v>
       </c>
@@ -5022,7 +5023,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>81</v>
       </c>
@@ -5059,7 +5060,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="35"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>82</v>
       </c>
@@ -5098,7 +5099,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>83</v>
       </c>
@@ -5131,7 +5132,7 @@
       <c r="O29" s="58"/>
       <c r="P29" s="62"/>
     </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>84</v>
       </c>
@@ -5168,7 +5169,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="37"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>COUNTA(B2:B30)</f>
         <v>29</v>
@@ -5216,12 +5217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I32" s="12"/>
       <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+  <sortState ref="A2:B30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <conditionalFormatting sqref="J2:J30">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="110">
   <si>
     <t>ФИО</t>
   </si>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>miss3,4</t>
-  </si>
-  <si>
-    <t>not verified 5</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1424,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +1924,9 @@
       <c r="B13" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61" t="s">
+        <v>98</v>
+      </c>
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
       <c r="F13" s="58"/>
@@ -2711,7 +2710,7 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:G33" si="3">COUNTA(C4:C32)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
@@ -2803,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,19 +3482,19 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>110</v>
+      <c r="E17" s="38">
+        <v>5</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="45"/>
       <c r="I17" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K17" s="19">
         <f t="shared" si="2"/>
@@ -3837,7 +3836,9 @@
       <c r="E26" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="47"/>
       <c r="I26" s="20">
@@ -3877,7 +3878,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
   <si>
     <t>ФИО</t>
   </si>
@@ -360,16 +360,7 @@
     <t>failed '3.14 &amp; 3.4</t>
   </si>
   <si>
-    <t>in process 3,5</t>
-  </si>
-  <si>
-    <t>failed'2,1</t>
-  </si>
-  <si>
-    <t>miss3,9 + done_Gnome + done_Insert</t>
-  </si>
-  <si>
-    <t>miss3,4</t>
+    <t>not verified</t>
   </si>
 </sst>
 </file>
@@ -947,7 +938,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1002,7 +993,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1424,7 +1414,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1661,9 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="14"/>
       <c r="H6" s="45"/>
@@ -1734,36 +1726,36 @@
       <c r="O7" s="1"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="68">
+      <c r="B8" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="56" t="str">
+      <c r="J8" s="55" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="62"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="61"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
@@ -1886,139 +1878,139 @@
       <c r="O11" s="1"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="68">
+      <c r="B12" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="56" t="str">
+      <c r="J12" s="55" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="62"/>
-    </row>
-    <row r="13" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="61"/>
+    </row>
+    <row r="13" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="68">
+      <c r="B13" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="56" t="str">
+      <c r="J13" s="55" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="62"/>
-    </row>
-    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="61"/>
+    </row>
+    <row r="14" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="61">
+      <c r="B14" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="60">
         <v>4</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="68">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="67">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J14" s="56" t="str">
+      <c r="J14" s="55" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="62"/>
-    </row>
-    <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="61"/>
+    </row>
+    <row r="15" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="72">
-        <v>5</v>
-      </c>
-      <c r="D15" s="73">
-        <v>5</v>
-      </c>
-      <c r="E15" s="73">
-        <v>5</v>
-      </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76">
+      <c r="B15" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="71">
+        <v>5</v>
+      </c>
+      <c r="D15" s="72">
+        <v>5</v>
+      </c>
+      <c r="E15" s="72">
+        <v>5</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J15" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-      <c r="K15" s="77">
+      <c r="J15" s="70" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+      <c r="K15" s="76">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="78"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="77"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -2557,38 +2549,38 @@
       <c r="O28" s="1"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="68">
+      <c r="B29" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="56" t="str">
+      <c r="J29" s="55" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="62"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
@@ -2718,7 +2710,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -2802,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,40 +3194,40 @@
       <c r="O9" s="1"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+    <row r="10" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="64">
-        <v>5</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J10" s="56" t="str">
+      <c r="B10" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="63">
+        <v>5</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="55" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="62"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -3519,19 +3511,19 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
+      <c r="E18" s="1">
+        <v>5</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="45"/>
       <c r="I18" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" si="2"/>
@@ -3598,7 +3590,9 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="45"/>
       <c r="I20" s="19">
@@ -3836,9 +3830,7 @@
       <c r="E26" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="47"/>
       <c r="I26" s="20">
@@ -4008,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,7 +4177,7 @@
         <v>pass</v>
       </c>
       <c r="K4" s="19">
-        <f t="shared" ref="K4:K25" si="2">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
+        <f t="shared" ref="K4:K30" si="2">IF(I4&gt;=25,5,IF(I4&gt;=22,4,IF(I4&gt;=19,3,2)))</f>
         <v>2</v>
       </c>
       <c r="L4" s="34"/>
@@ -4284,14 +4276,14 @@
       <c r="E7" s="38">
         <v>4</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>108</v>
+      <c r="F7" s="38">
+        <v>4</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="45"/>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4323,14 +4315,14 @@
       <c r="E8" s="38">
         <v>4</v>
       </c>
-      <c r="F8" s="54" t="s">
-        <v>107</v>
+      <c r="F8" s="40">
+        <v>3</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="45"/>
       <c r="I8" s="19">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4539,40 +4531,40 @@
       <c r="O13" s="1"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+    <row r="14" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="64">
+      <c r="B14" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="63">
         <v>4</v>
       </c>
-      <c r="D14" s="58">
-        <v>5</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60">
+      <c r="D14" s="57">
+        <v>5</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J14" s="56" t="str">
+      <c r="J14" s="55" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="62"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
@@ -4650,38 +4642,38 @@
       <c r="O16" s="1"/>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+    <row r="17" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="65">
-        <v>5</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J17" s="56" t="str">
+      <c r="B17" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="64">
+        <v>5</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="55" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="62"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="61"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -4761,71 +4753,73 @@
       <c r="O19" s="1"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    <row r="20" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="64">
+      <c r="B20" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="63">
         <v>4</v>
       </c>
-      <c r="D20" s="66">
-        <v>5</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60">
+      <c r="D20" s="65">
+        <v>5</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J20" s="56" t="str">
+      <c r="J20" s="55" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="62"/>
-    </row>
-    <row r="21" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="L20" s="60"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="61"/>
+    </row>
+    <row r="21" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60">
+      <c r="B21" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="56" t="str">
+      <c r="J21" s="55" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="62"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
@@ -4926,13 +4920,13 @@
       <c r="F24" s="38">
         <v>4</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>98</v>
+      <c r="G24" s="1">
+        <v>5</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="19">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4940,7 +4934,7 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="1"/>
@@ -4967,13 +4961,13 @@
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25" s="38" t="s">
-        <v>109</v>
+      <c r="G25" s="38">
+        <v>3</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4981,7 +4975,7 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="1"/>
@@ -5015,7 +5009,7 @@
         <v>fail</v>
       </c>
       <c r="K26" s="19">
-        <f t="shared" ref="K26:K29" si="3">IF(I26&gt;=25,5,IF(I26&gt;=22,4,IF(I26&gt;=19,3,2)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L26" s="34"/>
@@ -5052,7 +5046,7 @@
         <v>pass</v>
       </c>
       <c r="K27" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L27" s="34"/>
@@ -5091,7 +5085,7 @@
         <v>pass</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L28" s="34"/>
@@ -5100,38 +5094,38 @@
       <c r="O28" s="1"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="56" t="str">
+      <c r="B29" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="56">
+        <v>3</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="55" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
-      <c r="K29" s="60">
-        <f t="shared" si="3"/>
+      <c r="K29" s="19">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L29" s="61"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="62"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
@@ -5149,20 +5143,22 @@
       <c r="E30" s="42">
         <v>5</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="47"/>
       <c r="I30" s="20">
         <f>SUM(B30:H30)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-      <c r="K30" s="20">
-        <f>IF(I36&gt;=25,5,IF(I36&gt;=22,4,IF(I36&gt;=19,3,2)))</f>
-        <v>2</v>
+      <c r="K30" s="19">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="L30" s="36"/>
       <c r="M30" s="2"/>
@@ -5176,23 +5172,23 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:G31" si="4">COUNTA(C2:C30)</f>
+        <f t="shared" ref="C31:G31" si="3">COUNTA(C2:C30)</f>
         <v>28</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I31" s="12"/>
@@ -5231,41 +5227,7 @@
       <formula>NOT(ISERROR(SEARCH("pass",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K30">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E6F9F8D0-1214-4792-A05B-57F33CD14B7C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F693C47A-00D0-495C-B143-62CD5BF29101}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
+  <conditionalFormatting sqref="K2:K30">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="2"/>
@@ -5282,75 +5244,11 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5AF74E33-CDEB-41B0-9A9C-F52CC7EB6F29}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K29">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24FAC2C5-C43D-4FD4-A822-FBDB528B447F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E6F9F8D0-1214-4792-A05B-57F33CD14B7C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K27:K30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F693C47A-00D0-495C-B143-62CD5BF29101}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K26</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F27B6B58-D0A5-4945-BD20-150116C49B5B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -5364,37 +5262,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5AF74E33-CDEB-41B0-9A9C-F52CC7EB6F29}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{24FAC2C5-C43D-4FD4-A822-FBDB528B447F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K26:K29</xm:sqref>
+          <xm:sqref>K2:K30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G528\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="107">
   <si>
     <t>ФИО</t>
   </si>
@@ -408,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +443,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -938,7 +944,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -989,22 +995,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3